--- a/public/DownloadExcels/Servicios.xlsx
+++ b/public/DownloadExcels/Servicios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Carlos\FormulariosEcopcion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1267E5-2842-49EC-B908-EFA67133485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70854E5B-2364-4B1C-9ED6-4CCEB7139C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -543,6 +543,9 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -552,17 +555,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -830,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -840,7 +832,7 @@
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="17" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="17" customWidth="1"/>
@@ -851,20 +843,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -886,20 +878,20 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -921,20 +913,20 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:31" ht="168.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -966,7 +958,7 @@
       <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1023,7 +1015,7 @@
       <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1074,7 +1066,7 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="52"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="45"/>
       <c r="G6" s="13"/>
       <c r="H6" s="45"/>
@@ -1109,7 +1101,7 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="52"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="45"/>
       <c r="G7" s="13"/>
       <c r="H7" s="45"/>
@@ -1144,7 +1136,7 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="44"/>
-      <c r="E8" s="52"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="45"/>
       <c r="G8" s="13"/>
       <c r="H8" s="45"/>
@@ -1179,7 +1171,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="44"/>
-      <c r="E9" s="52"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="45"/>
       <c r="G9" s="13"/>
       <c r="H9" s="45"/>
@@ -1214,7 +1206,7 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="52"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="45"/>
       <c r="G10" s="13"/>
       <c r="H10" s="45"/>
@@ -1249,7 +1241,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="44"/>
-      <c r="E11" s="52"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="45"/>
       <c r="G11" s="13"/>
       <c r="H11" s="45"/>
@@ -1284,7 +1276,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="52"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="45"/>
       <c r="G12" s="13"/>
       <c r="H12" s="45"/>
@@ -1319,7 +1311,7 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="44"/>
-      <c r="E13" s="52"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="45"/>
       <c r="G13" s="13"/>
       <c r="H13" s="45"/>
@@ -1354,7 +1346,7 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="52"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="45"/>
       <c r="G14" s="13"/>
       <c r="H14" s="45"/>
@@ -1389,7 +1381,7 @@
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="52"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="45"/>
       <c r="G15" s="13"/>
       <c r="H15" s="45"/>
@@ -1424,7 +1416,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="52"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="45"/>
       <c r="G16" s="13"/>
       <c r="H16" s="45"/>
@@ -1459,7 +1451,7 @@
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="52"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="45"/>
       <c r="G17" s="13"/>
       <c r="H17" s="45"/>
@@ -1494,7 +1486,7 @@
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="44"/>
-      <c r="E18" s="52"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="45"/>
       <c r="G18" s="13"/>
       <c r="H18" s="45"/>
@@ -1529,7 +1521,7 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="52"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="45"/>
       <c r="G19" s="13"/>
       <c r="H19" s="45"/>
@@ -1564,7 +1556,7 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="52"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="45"/>
       <c r="G20" s="13"/>
       <c r="H20" s="45"/>
@@ -1599,7 +1591,7 @@
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="52"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="45"/>
       <c r="G21" s="13"/>
       <c r="H21" s="45"/>
@@ -1634,7 +1626,7 @@
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="52"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="45"/>
       <c r="G22" s="13"/>
       <c r="H22" s="45"/>
@@ -1669,7 +1661,7 @@
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="52"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="45"/>
       <c r="G23" s="13"/>
       <c r="H23" s="45"/>
@@ -1704,7 +1696,7 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="52"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="45"/>
       <c r="G24" s="13"/>
       <c r="H24" s="45"/>
@@ -1739,7 +1731,7 @@
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="52"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="45"/>
       <c r="G25" s="13"/>
       <c r="H25" s="45"/>
@@ -1774,7 +1766,7 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="52"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="45"/>
       <c r="G26" s="13"/>
       <c r="H26" s="45"/>
@@ -1809,7 +1801,7 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="52"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="45"/>
       <c r="G27" s="13"/>
       <c r="H27" s="45"/>
@@ -1844,7 +1836,7 @@
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="52"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="45"/>
       <c r="G28" s="13"/>
       <c r="H28" s="45"/>
@@ -1879,7 +1871,7 @@
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="52"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="45"/>
       <c r="G29" s="13"/>
       <c r="H29" s="45"/>
@@ -1914,7 +1906,7 @@
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="52"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="45"/>
       <c r="G30" s="13"/>
       <c r="H30" s="45"/>
@@ -1949,7 +1941,7 @@
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="52"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="45"/>
       <c r="G31" s="13"/>
       <c r="H31" s="45"/>
@@ -1984,7 +1976,7 @@
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="52"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="45"/>
       <c r="G32" s="13"/>
       <c r="H32" s="45"/>
@@ -2019,7 +2011,7 @@
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="44"/>
-      <c r="E33" s="52"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="45"/>
       <c r="G33" s="13"/>
       <c r="H33" s="45"/>
@@ -2054,7 +2046,7 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="44"/>
-      <c r="E34" s="52"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="45"/>
       <c r="G34" s="13"/>
       <c r="H34" s="45"/>
@@ -2089,7 +2081,7 @@
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="52"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="45"/>
       <c r="G35" s="13"/>
       <c r="H35" s="45"/>
@@ -2124,7 +2116,7 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="52"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="45"/>
       <c r="G36" s="13"/>
       <c r="H36" s="45"/>
@@ -2159,7 +2151,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="44"/>
-      <c r="E37" s="52"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="45"/>
       <c r="G37" s="13"/>
       <c r="H37" s="45"/>
@@ -2194,7 +2186,7 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="52"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="45"/>
       <c r="G38" s="13"/>
       <c r="H38" s="45"/>
@@ -2229,7 +2221,7 @@
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="44"/>
-      <c r="E39" s="52"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="45"/>
       <c r="G39" s="13"/>
       <c r="H39" s="45"/>
@@ -2264,7 +2256,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="44"/>
-      <c r="E40" s="52"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="45"/>
       <c r="G40" s="13"/>
       <c r="H40" s="45"/>
@@ -2299,7 +2291,7 @@
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="44"/>
-      <c r="E41" s="52"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="45"/>
       <c r="G41" s="13"/>
       <c r="H41" s="45"/>
@@ -2334,7 +2326,7 @@
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="52"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="45"/>
       <c r="G42" s="13"/>
       <c r="H42" s="45"/>
@@ -2369,7 +2361,7 @@
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="44"/>
-      <c r="E43" s="52"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="45"/>
       <c r="G43" s="13"/>
       <c r="H43" s="45"/>
@@ -2404,7 +2396,7 @@
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="52"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="45"/>
       <c r="G44" s="13"/>
       <c r="H44" s="45"/>
@@ -2439,7 +2431,7 @@
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="44"/>
-      <c r="E45" s="52"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="45"/>
       <c r="G45" s="13"/>
       <c r="H45" s="45"/>
@@ -2474,7 +2466,7 @@
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="44"/>
-      <c r="E46" s="52"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="45"/>
       <c r="G46" s="13"/>
       <c r="H46" s="45"/>
@@ -2509,7 +2501,7 @@
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="44"/>
-      <c r="E47" s="52"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="45"/>
       <c r="G47" s="13"/>
       <c r="H47" s="45"/>
@@ -2544,7 +2536,7 @@
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="44"/>
-      <c r="E48" s="52"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="45"/>
       <c r="G48" s="13"/>
       <c r="H48" s="45"/>
@@ -2579,7 +2571,7 @@
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="44"/>
-      <c r="E49" s="52"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="45"/>
       <c r="G49" s="13"/>
       <c r="H49" s="45"/>
@@ -2614,7 +2606,7 @@
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="44"/>
-      <c r="E50" s="52"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="45"/>
       <c r="G50" s="13"/>
       <c r="H50" s="45"/>
@@ -2649,7 +2641,7 @@
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="44"/>
-      <c r="E51" s="52"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="45"/>
       <c r="G51" s="13"/>
       <c r="H51" s="45"/>
@@ -2684,7 +2676,7 @@
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="44"/>
-      <c r="E52" s="52"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="45"/>
       <c r="G52" s="13"/>
       <c r="H52" s="45"/>
@@ -2719,7 +2711,7 @@
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="44"/>
-      <c r="E53" s="52"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="45"/>
       <c r="G53" s="13"/>
       <c r="H53" s="45"/>
@@ -2754,7 +2746,7 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="44"/>
-      <c r="E54" s="52"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="45"/>
       <c r="G54" s="13"/>
       <c r="H54" s="45"/>
@@ -2789,7 +2781,7 @@
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="52"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="45"/>
       <c r="G55" s="13"/>
       <c r="H55" s="45"/>
@@ -2824,7 +2816,7 @@
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="44"/>
-      <c r="E56" s="52"/>
+      <c r="E56" s="47"/>
       <c r="F56" s="45"/>
       <c r="G56" s="13"/>
       <c r="H56" s="45"/>
@@ -2859,7 +2851,7 @@
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="44"/>
-      <c r="E57" s="52"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="45"/>
       <c r="G57" s="13"/>
       <c r="H57" s="45"/>
@@ -2894,7 +2886,7 @@
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="44"/>
-      <c r="E58" s="52"/>
+      <c r="E58" s="47"/>
       <c r="F58" s="45"/>
       <c r="G58" s="13"/>
       <c r="H58" s="45"/>
@@ -2929,7 +2921,7 @@
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="44"/>
-      <c r="E59" s="52"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="45"/>
       <c r="G59" s="13"/>
       <c r="H59" s="45"/>
@@ -2964,7 +2956,7 @@
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="44"/>
-      <c r="E60" s="52"/>
+      <c r="E60" s="47"/>
       <c r="F60" s="45"/>
       <c r="G60" s="13"/>
       <c r="H60" s="45"/>
@@ -2999,7 +2991,7 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="44"/>
-      <c r="E61" s="52"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="45"/>
       <c r="G61" s="13"/>
       <c r="H61" s="45"/>
@@ -3034,7 +3026,7 @@
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="44"/>
-      <c r="E62" s="52"/>
+      <c r="E62" s="47"/>
       <c r="F62" s="45"/>
       <c r="G62" s="13"/>
       <c r="H62" s="45"/>
@@ -3069,7 +3061,7 @@
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="44"/>
-      <c r="E63" s="52"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="45"/>
       <c r="G63" s="13"/>
       <c r="H63" s="45"/>
@@ -3104,7 +3096,7 @@
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="44"/>
-      <c r="E64" s="52"/>
+      <c r="E64" s="47"/>
       <c r="F64" s="45"/>
       <c r="G64" s="13"/>
       <c r="H64" s="45"/>
@@ -3139,7 +3131,7 @@
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="44"/>
-      <c r="E65" s="52"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="45"/>
       <c r="G65" s="13"/>
       <c r="H65" s="45"/>
@@ -3174,7 +3166,7 @@
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="44"/>
-      <c r="E66" s="52"/>
+      <c r="E66" s="47"/>
       <c r="F66" s="45"/>
       <c r="G66" s="13"/>
       <c r="H66" s="45"/>
@@ -3209,7 +3201,7 @@
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="44"/>
-      <c r="E67" s="52"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="45"/>
       <c r="G67" s="13"/>
       <c r="H67" s="45"/>
@@ -3244,7 +3236,7 @@
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="52"/>
+      <c r="E68" s="47"/>
       <c r="F68" s="45"/>
       <c r="G68" s="13"/>
       <c r="H68" s="45"/>
@@ -3279,7 +3271,7 @@
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="44"/>
-      <c r="E69" s="52"/>
+      <c r="E69" s="47"/>
       <c r="F69" s="45"/>
       <c r="G69" s="13"/>
       <c r="H69" s="45"/>
@@ -3314,7 +3306,7 @@
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="44"/>
-      <c r="E70" s="52"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="45"/>
       <c r="G70" s="13"/>
       <c r="H70" s="45"/>
@@ -3349,7 +3341,7 @@
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="44"/>
-      <c r="E71" s="52"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="45"/>
       <c r="G71" s="13"/>
       <c r="H71" s="45"/>
@@ -3384,7 +3376,7 @@
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="44"/>
-      <c r="E72" s="52"/>
+      <c r="E72" s="47"/>
       <c r="F72" s="45"/>
       <c r="G72" s="13"/>
       <c r="H72" s="45"/>
@@ -3419,7 +3411,7 @@
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="44"/>
-      <c r="E73" s="52"/>
+      <c r="E73" s="47"/>
       <c r="F73" s="45"/>
       <c r="G73" s="13"/>
       <c r="H73" s="45"/>
@@ -3454,7 +3446,7 @@
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="44"/>
-      <c r="E74" s="52"/>
+      <c r="E74" s="47"/>
       <c r="F74" s="45"/>
       <c r="G74" s="13"/>
       <c r="H74" s="45"/>
@@ -3489,7 +3481,7 @@
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="44"/>
-      <c r="E75" s="52"/>
+      <c r="E75" s="47"/>
       <c r="F75" s="45"/>
       <c r="G75" s="13"/>
       <c r="H75" s="45"/>
@@ -3524,7 +3516,7 @@
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="44"/>
-      <c r="E76" s="52"/>
+      <c r="E76" s="47"/>
       <c r="F76" s="45"/>
       <c r="G76" s="13"/>
       <c r="H76" s="45"/>
@@ -3559,7 +3551,7 @@
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="52"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="45"/>
       <c r="G77" s="13"/>
       <c r="H77" s="45"/>
@@ -3594,7 +3586,7 @@
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="44"/>
-      <c r="E78" s="52"/>
+      <c r="E78" s="47"/>
       <c r="F78" s="45"/>
       <c r="G78" s="13"/>
       <c r="H78" s="45"/>
@@ -3629,7 +3621,7 @@
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="44"/>
-      <c r="E79" s="52"/>
+      <c r="E79" s="47"/>
       <c r="F79" s="45"/>
       <c r="G79" s="13"/>
       <c r="H79" s="45"/>
@@ -3664,7 +3656,7 @@
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="44"/>
-      <c r="E80" s="52"/>
+      <c r="E80" s="47"/>
       <c r="F80" s="45"/>
       <c r="G80" s="13"/>
       <c r="H80" s="45"/>
@@ -3699,7 +3691,7 @@
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="44"/>
-      <c r="E81" s="52"/>
+      <c r="E81" s="47"/>
       <c r="F81" s="45"/>
       <c r="G81" s="13"/>
       <c r="H81" s="45"/>
@@ -3734,7 +3726,7 @@
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="44"/>
-      <c r="E82" s="52"/>
+      <c r="E82" s="47"/>
       <c r="F82" s="45"/>
       <c r="G82" s="13"/>
       <c r="H82" s="45"/>
@@ -3769,7 +3761,7 @@
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="44"/>
-      <c r="E83" s="52"/>
+      <c r="E83" s="47"/>
       <c r="F83" s="45"/>
       <c r="G83" s="13"/>
       <c r="H83" s="45"/>
@@ -3804,7 +3796,7 @@
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="44"/>
-      <c r="E84" s="52"/>
+      <c r="E84" s="47"/>
       <c r="F84" s="45"/>
       <c r="G84" s="13"/>
       <c r="H84" s="45"/>
@@ -3839,7 +3831,7 @@
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="44"/>
-      <c r="E85" s="52"/>
+      <c r="E85" s="47"/>
       <c r="F85" s="45"/>
       <c r="G85" s="13"/>
       <c r="H85" s="45"/>
@@ -3874,7 +3866,7 @@
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="44"/>
-      <c r="E86" s="52"/>
+      <c r="E86" s="47"/>
       <c r="F86" s="45"/>
       <c r="G86" s="13"/>
       <c r="H86" s="45"/>
@@ -3909,7 +3901,7 @@
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="44"/>
-      <c r="E87" s="52"/>
+      <c r="E87" s="47"/>
       <c r="F87" s="45"/>
       <c r="G87" s="13"/>
       <c r="H87" s="45"/>
@@ -3944,7 +3936,7 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="44"/>
-      <c r="E88" s="52"/>
+      <c r="E88" s="47"/>
       <c r="F88" s="45"/>
       <c r="G88" s="13"/>
       <c r="H88" s="45"/>
@@ -3979,7 +3971,7 @@
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="44"/>
-      <c r="E89" s="52"/>
+      <c r="E89" s="47"/>
       <c r="F89" s="45"/>
       <c r="G89" s="13"/>
       <c r="H89" s="45"/>
@@ -4014,7 +4006,7 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="44"/>
-      <c r="E90" s="52"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="45"/>
       <c r="G90" s="13"/>
       <c r="H90" s="45"/>
@@ -4049,7 +4041,7 @@
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="44"/>
-      <c r="E91" s="52"/>
+      <c r="E91" s="47"/>
       <c r="F91" s="45"/>
       <c r="G91" s="13"/>
       <c r="H91" s="45"/>
@@ -4084,7 +4076,7 @@
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="44"/>
-      <c r="E92" s="52"/>
+      <c r="E92" s="47"/>
       <c r="F92" s="45"/>
       <c r="G92" s="13"/>
       <c r="H92" s="45"/>
@@ -4119,7 +4111,7 @@
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="44"/>
-      <c r="E93" s="52"/>
+      <c r="E93" s="47"/>
       <c r="F93" s="45"/>
       <c r="G93" s="13"/>
       <c r="H93" s="45"/>
@@ -4154,7 +4146,7 @@
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="44"/>
-      <c r="E94" s="52"/>
+      <c r="E94" s="47"/>
       <c r="F94" s="45"/>
       <c r="G94" s="13"/>
       <c r="H94" s="45"/>
@@ -4189,7 +4181,7 @@
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="44"/>
-      <c r="E95" s="52"/>
+      <c r="E95" s="47"/>
       <c r="F95" s="45"/>
       <c r="G95" s="13"/>
       <c r="H95" s="45"/>
@@ -4224,7 +4216,7 @@
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="44"/>
-      <c r="E96" s="52"/>
+      <c r="E96" s="47"/>
       <c r="F96" s="45"/>
       <c r="G96" s="13"/>
       <c r="H96" s="45"/>
@@ -4259,7 +4251,7 @@
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="44"/>
-      <c r="E97" s="52"/>
+      <c r="E97" s="47"/>
       <c r="F97" s="45"/>
       <c r="G97" s="13"/>
       <c r="H97" s="45"/>
@@ -4294,7 +4286,7 @@
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="44"/>
-      <c r="E98" s="52"/>
+      <c r="E98" s="47"/>
       <c r="F98" s="45"/>
       <c r="G98" s="13"/>
       <c r="H98" s="45"/>
@@ -4329,7 +4321,7 @@
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="44"/>
-      <c r="E99" s="52"/>
+      <c r="E99" s="47"/>
       <c r="F99" s="45"/>
       <c r="G99" s="13"/>
       <c r="H99" s="45"/>
@@ -4364,7 +4356,7 @@
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="44"/>
-      <c r="E100" s="52"/>
+      <c r="E100" s="47"/>
       <c r="F100" s="45"/>
       <c r="G100" s="13"/>
       <c r="H100" s="45"/>
@@ -4399,7 +4391,7 @@
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="44"/>
-      <c r="E101" s="52"/>
+      <c r="E101" s="47"/>
       <c r="F101" s="45"/>
       <c r="G101" s="13"/>
       <c r="H101" s="45"/>
@@ -4434,7 +4426,7 @@
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="44"/>
-      <c r="E102" s="52"/>
+      <c r="E102" s="47"/>
       <c r="F102" s="45"/>
       <c r="G102" s="13"/>
       <c r="H102" s="45"/>
@@ -4469,7 +4461,7 @@
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="44"/>
-      <c r="E103" s="52"/>
+      <c r="E103" s="47"/>
       <c r="F103" s="45"/>
       <c r="G103" s="13"/>
       <c r="H103" s="45"/>
@@ -4504,7 +4496,7 @@
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="44"/>
-      <c r="E104" s="52"/>
+      <c r="E104" s="47"/>
       <c r="F104" s="45"/>
       <c r="G104" s="13"/>
       <c r="H104" s="45"/>
@@ -4539,7 +4531,7 @@
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="44"/>
-      <c r="E105" s="52"/>
+      <c r="E105" s="47"/>
       <c r="F105" s="45"/>
       <c r="G105" s="13"/>
       <c r="H105" s="45"/>
@@ -4574,7 +4566,7 @@
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="44"/>
-      <c r="E106" s="52"/>
+      <c r="E106" s="47"/>
       <c r="F106" s="45"/>
       <c r="G106" s="13"/>
       <c r="H106" s="45"/>
@@ -4609,7 +4601,7 @@
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="44"/>
-      <c r="E107" s="52"/>
+      <c r="E107" s="47"/>
       <c r="F107" s="45"/>
       <c r="G107" s="13"/>
       <c r="H107" s="45"/>
@@ -4644,7 +4636,7 @@
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="44"/>
-      <c r="E108" s="52"/>
+      <c r="E108" s="47"/>
       <c r="F108" s="45"/>
       <c r="G108" s="13"/>
       <c r="H108" s="45"/>
@@ -4679,7 +4671,7 @@
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
       <c r="D109" s="44"/>
-      <c r="E109" s="52"/>
+      <c r="E109" s="47"/>
       <c r="F109" s="45"/>
       <c r="G109" s="13"/>
       <c r="H109" s="45"/>
@@ -4714,7 +4706,7 @@
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="44"/>
-      <c r="E110" s="52"/>
+      <c r="E110" s="47"/>
       <c r="F110" s="45"/>
       <c r="G110" s="13"/>
       <c r="H110" s="45"/>
@@ -4749,7 +4741,7 @@
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="44"/>
-      <c r="E111" s="52"/>
+      <c r="E111" s="47"/>
       <c r="F111" s="45"/>
       <c r="G111" s="13"/>
       <c r="H111" s="45"/>
@@ -4784,7 +4776,7 @@
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="44"/>
-      <c r="E112" s="52"/>
+      <c r="E112" s="47"/>
       <c r="F112" s="45"/>
       <c r="G112" s="13"/>
       <c r="H112" s="45"/>
@@ -4819,7 +4811,7 @@
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="44"/>
-      <c r="E113" s="52"/>
+      <c r="E113" s="47"/>
       <c r="F113" s="45"/>
       <c r="G113" s="13"/>
       <c r="H113" s="45"/>
@@ -4854,7 +4846,7 @@
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="44"/>
-      <c r="E114" s="52"/>
+      <c r="E114" s="47"/>
       <c r="F114" s="45"/>
       <c r="G114" s="13"/>
       <c r="H114" s="45"/>
@@ -4889,7 +4881,7 @@
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="44"/>
-      <c r="E115" s="52"/>
+      <c r="E115" s="47"/>
       <c r="F115" s="45"/>
       <c r="G115" s="13"/>
       <c r="H115" s="45"/>
@@ -4924,7 +4916,7 @@
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="44"/>
-      <c r="E116" s="52"/>
+      <c r="E116" s="47"/>
       <c r="F116" s="45"/>
       <c r="G116" s="13"/>
       <c r="H116" s="45"/>
@@ -4959,7 +4951,7 @@
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="44"/>
-      <c r="E117" s="52"/>
+      <c r="E117" s="47"/>
       <c r="F117" s="45"/>
       <c r="G117" s="13"/>
       <c r="H117" s="45"/>
@@ -4994,7 +4986,7 @@
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="44"/>
-      <c r="E118" s="52"/>
+      <c r="E118" s="47"/>
       <c r="F118" s="45"/>
       <c r="G118" s="13"/>
       <c r="H118" s="45"/>
@@ -5029,7 +5021,7 @@
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="44"/>
-      <c r="E119" s="52"/>
+      <c r="E119" s="47"/>
       <c r="F119" s="45"/>
       <c r="G119" s="13"/>
       <c r="H119" s="45"/>
@@ -5064,7 +5056,7 @@
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="44"/>
-      <c r="E120" s="52"/>
+      <c r="E120" s="47"/>
       <c r="F120" s="45"/>
       <c r="G120" s="13"/>
       <c r="H120" s="45"/>
@@ -5099,7 +5091,7 @@
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="44"/>
-      <c r="E121" s="52"/>
+      <c r="E121" s="47"/>
       <c r="F121" s="45"/>
       <c r="G121" s="13"/>
       <c r="H121" s="45"/>
@@ -5134,7 +5126,7 @@
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="44"/>
-      <c r="E122" s="52"/>
+      <c r="E122" s="47"/>
       <c r="F122" s="45"/>
       <c r="G122" s="13"/>
       <c r="H122" s="45"/>
@@ -5169,7 +5161,7 @@
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="44"/>
-      <c r="E123" s="52"/>
+      <c r="E123" s="47"/>
       <c r="F123" s="45"/>
       <c r="G123" s="13"/>
       <c r="H123" s="45"/>
@@ -5204,7 +5196,7 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="44"/>
-      <c r="E124" s="52"/>
+      <c r="E124" s="47"/>
       <c r="F124" s="45"/>
       <c r="G124" s="13"/>
       <c r="H124" s="45"/>
@@ -5239,7 +5231,7 @@
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="44"/>
-      <c r="E125" s="52"/>
+      <c r="E125" s="47"/>
       <c r="F125" s="45"/>
       <c r="G125" s="13"/>
       <c r="H125" s="45"/>
@@ -5274,7 +5266,7 @@
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="44"/>
-      <c r="E126" s="52"/>
+      <c r="E126" s="47"/>
       <c r="F126" s="45"/>
       <c r="G126" s="13"/>
       <c r="H126" s="45"/>
@@ -5309,7 +5301,7 @@
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="44"/>
-      <c r="E127" s="52"/>
+      <c r="E127" s="47"/>
       <c r="F127" s="45"/>
       <c r="G127" s="13"/>
       <c r="H127" s="45"/>
@@ -5344,7 +5336,7 @@
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="44"/>
-      <c r="E128" s="52"/>
+      <c r="E128" s="47"/>
       <c r="F128" s="45"/>
       <c r="G128" s="13"/>
       <c r="H128" s="45"/>
@@ -5379,7 +5371,7 @@
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="44"/>
-      <c r="E129" s="52"/>
+      <c r="E129" s="47"/>
       <c r="F129" s="45"/>
       <c r="G129" s="13"/>
       <c r="H129" s="45"/>
@@ -5414,7 +5406,7 @@
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="44"/>
-      <c r="E130" s="52"/>
+      <c r="E130" s="47"/>
       <c r="F130" s="45"/>
       <c r="G130" s="13"/>
       <c r="H130" s="45"/>
@@ -5449,7 +5441,7 @@
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="44"/>
-      <c r="E131" s="52"/>
+      <c r="E131" s="47"/>
       <c r="F131" s="45"/>
       <c r="G131" s="13"/>
       <c r="H131" s="45"/>
@@ -5484,7 +5476,7 @@
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="44"/>
-      <c r="E132" s="52"/>
+      <c r="E132" s="47"/>
       <c r="F132" s="45"/>
       <c r="G132" s="13"/>
       <c r="H132" s="45"/>
@@ -5519,7 +5511,7 @@
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
       <c r="D133" s="44"/>
-      <c r="E133" s="52"/>
+      <c r="E133" s="47"/>
       <c r="F133" s="45"/>
       <c r="G133" s="13"/>
       <c r="H133" s="45"/>
@@ -5554,7 +5546,7 @@
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
       <c r="D134" s="44"/>
-      <c r="E134" s="52"/>
+      <c r="E134" s="47"/>
       <c r="F134" s="45"/>
       <c r="G134" s="13"/>
       <c r="H134" s="45"/>
@@ -5589,7 +5581,7 @@
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
       <c r="D135" s="44"/>
-      <c r="E135" s="52"/>
+      <c r="E135" s="47"/>
       <c r="F135" s="45"/>
       <c r="G135" s="13"/>
       <c r="H135" s="45"/>
@@ -5624,7 +5616,7 @@
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
       <c r="D136" s="44"/>
-      <c r="E136" s="52"/>
+      <c r="E136" s="47"/>
       <c r="F136" s="45"/>
       <c r="G136" s="13"/>
       <c r="H136" s="45"/>
@@ -5659,7 +5651,7 @@
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
       <c r="D137" s="44"/>
-      <c r="E137" s="52"/>
+      <c r="E137" s="47"/>
       <c r="F137" s="45"/>
       <c r="G137" s="13"/>
       <c r="H137" s="45"/>
@@ -5694,7 +5686,7 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="44"/>
-      <c r="E138" s="52"/>
+      <c r="E138" s="47"/>
       <c r="F138" s="45"/>
       <c r="G138" s="13"/>
       <c r="H138" s="45"/>
@@ -5729,7 +5721,7 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="44"/>
-      <c r="E139" s="52"/>
+      <c r="E139" s="47"/>
       <c r="F139" s="45"/>
       <c r="G139" s="13"/>
       <c r="H139" s="45"/>
@@ -5764,7 +5756,7 @@
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
       <c r="D140" s="44"/>
-      <c r="E140" s="52"/>
+      <c r="E140" s="47"/>
       <c r="F140" s="45"/>
       <c r="G140" s="13"/>
       <c r="H140" s="45"/>
@@ -5799,7 +5791,7 @@
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
       <c r="D141" s="44"/>
-      <c r="E141" s="52"/>
+      <c r="E141" s="47"/>
       <c r="F141" s="45"/>
       <c r="G141" s="13"/>
       <c r="H141" s="45"/>
@@ -5834,7 +5826,7 @@
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
       <c r="D142" s="44"/>
-      <c r="E142" s="52"/>
+      <c r="E142" s="47"/>
       <c r="F142" s="45"/>
       <c r="G142" s="13"/>
       <c r="H142" s="45"/>
@@ -5869,7 +5861,7 @@
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
       <c r="D143" s="44"/>
-      <c r="E143" s="52"/>
+      <c r="E143" s="47"/>
       <c r="F143" s="45"/>
       <c r="G143" s="13"/>
       <c r="H143" s="45"/>
@@ -5904,7 +5896,7 @@
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
       <c r="D144" s="44"/>
-      <c r="E144" s="52"/>
+      <c r="E144" s="47"/>
       <c r="F144" s="45"/>
       <c r="G144" s="13"/>
       <c r="H144" s="45"/>
@@ -5939,7 +5931,7 @@
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
       <c r="D145" s="44"/>
-      <c r="E145" s="52"/>
+      <c r="E145" s="47"/>
       <c r="F145" s="45"/>
       <c r="G145" s="13"/>
       <c r="H145" s="45"/>
@@ -5974,7 +5966,7 @@
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
       <c r="D146" s="44"/>
-      <c r="E146" s="52"/>
+      <c r="E146" s="47"/>
       <c r="F146" s="45"/>
       <c r="G146" s="13"/>
       <c r="H146" s="45"/>
@@ -6009,7 +6001,7 @@
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
       <c r="D147" s="44"/>
-      <c r="E147" s="52"/>
+      <c r="E147" s="47"/>
       <c r="F147" s="45"/>
       <c r="G147" s="13"/>
       <c r="H147" s="45"/>
@@ -6044,7 +6036,7 @@
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="52"/>
+      <c r="E148" s="47"/>
       <c r="F148" s="45"/>
       <c r="G148" s="13"/>
       <c r="H148" s="45"/>
@@ -6079,7 +6071,7 @@
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
       <c r="D149" s="44"/>
-      <c r="E149" s="52"/>
+      <c r="E149" s="47"/>
       <c r="F149" s="45"/>
       <c r="G149" s="13"/>
       <c r="H149" s="45"/>
@@ -6114,7 +6106,7 @@
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
       <c r="D150" s="44"/>
-      <c r="E150" s="52"/>
+      <c r="E150" s="47"/>
       <c r="F150" s="45"/>
       <c r="G150" s="13"/>
       <c r="H150" s="45"/>
@@ -6149,7 +6141,7 @@
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
       <c r="D151" s="44"/>
-      <c r="E151" s="52"/>
+      <c r="E151" s="47"/>
       <c r="F151" s="45"/>
       <c r="G151" s="13"/>
       <c r="H151" s="45"/>
@@ -6184,7 +6176,7 @@
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="44"/>
-      <c r="E152" s="52"/>
+      <c r="E152" s="47"/>
       <c r="F152" s="45"/>
       <c r="G152" s="13"/>
       <c r="H152" s="45"/>
@@ -6219,7 +6211,7 @@
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="44"/>
-      <c r="E153" s="52"/>
+      <c r="E153" s="47"/>
       <c r="F153" s="45"/>
       <c r="G153" s="13"/>
       <c r="H153" s="45"/>
@@ -6254,7 +6246,7 @@
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
       <c r="D154" s="44"/>
-      <c r="E154" s="52"/>
+      <c r="E154" s="47"/>
       <c r="F154" s="45"/>
       <c r="G154" s="13"/>
       <c r="H154" s="45"/>
@@ -6289,7 +6281,7 @@
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="44"/>
-      <c r="E155" s="52"/>
+      <c r="E155" s="47"/>
       <c r="F155" s="45"/>
       <c r="G155" s="13"/>
       <c r="H155" s="45"/>
@@ -6324,7 +6316,7 @@
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="44"/>
-      <c r="E156" s="52"/>
+      <c r="E156" s="47"/>
       <c r="F156" s="45"/>
       <c r="G156" s="13"/>
       <c r="H156" s="45"/>
@@ -6359,7 +6351,7 @@
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="44"/>
-      <c r="E157" s="52"/>
+      <c r="E157" s="47"/>
       <c r="F157" s="45"/>
       <c r="G157" s="13"/>
       <c r="H157" s="45"/>
@@ -6394,7 +6386,7 @@
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="44"/>
-      <c r="E158" s="52"/>
+      <c r="E158" s="47"/>
       <c r="F158" s="45"/>
       <c r="G158" s="13"/>
       <c r="H158" s="45"/>
@@ -6429,7 +6421,7 @@
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
       <c r="D159" s="44"/>
-      <c r="E159" s="52"/>
+      <c r="E159" s="47"/>
       <c r="F159" s="45"/>
       <c r="G159" s="13"/>
       <c r="H159" s="45"/>
@@ -6464,7 +6456,7 @@
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
       <c r="D160" s="44"/>
-      <c r="E160" s="52"/>
+      <c r="E160" s="47"/>
       <c r="F160" s="45"/>
       <c r="G160" s="13"/>
       <c r="H160" s="45"/>
@@ -6499,7 +6491,7 @@
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
       <c r="D161" s="44"/>
-      <c r="E161" s="52"/>
+      <c r="E161" s="47"/>
       <c r="F161" s="45"/>
       <c r="G161" s="13"/>
       <c r="H161" s="45"/>
@@ -6534,7 +6526,7 @@
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
       <c r="D162" s="44"/>
-      <c r="E162" s="52"/>
+      <c r="E162" s="47"/>
       <c r="F162" s="45"/>
       <c r="G162" s="13"/>
       <c r="H162" s="45"/>
@@ -6569,7 +6561,7 @@
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
       <c r="D163" s="44"/>
-      <c r="E163" s="52"/>
+      <c r="E163" s="47"/>
       <c r="F163" s="45"/>
       <c r="G163" s="13"/>
       <c r="H163" s="45"/>
@@ -6604,7 +6596,7 @@
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
       <c r="D164" s="44"/>
-      <c r="E164" s="52"/>
+      <c r="E164" s="47"/>
       <c r="F164" s="45"/>
       <c r="G164" s="13"/>
       <c r="H164" s="45"/>
@@ -6639,7 +6631,7 @@
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
       <c r="D165" s="44"/>
-      <c r="E165" s="52"/>
+      <c r="E165" s="47"/>
       <c r="F165" s="45"/>
       <c r="G165" s="13"/>
       <c r="H165" s="45"/>
@@ -6674,7 +6666,7 @@
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="44"/>
-      <c r="E166" s="52"/>
+      <c r="E166" s="47"/>
       <c r="F166" s="45"/>
       <c r="G166" s="13"/>
       <c r="H166" s="45"/>
@@ -6709,7 +6701,7 @@
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="44"/>
-      <c r="E167" s="52"/>
+      <c r="E167" s="47"/>
       <c r="F167" s="45"/>
       <c r="G167" s="13"/>
       <c r="H167" s="45"/>
@@ -6744,7 +6736,7 @@
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="44"/>
-      <c r="E168" s="52"/>
+      <c r="E168" s="47"/>
       <c r="F168" s="45"/>
       <c r="G168" s="13"/>
       <c r="H168" s="45"/>
@@ -6779,7 +6771,7 @@
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
       <c r="D169" s="44"/>
-      <c r="E169" s="52"/>
+      <c r="E169" s="47"/>
       <c r="F169" s="45"/>
       <c r="G169" s="13"/>
       <c r="H169" s="45"/>
@@ -6814,7 +6806,7 @@
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
       <c r="D170" s="44"/>
-      <c r="E170" s="52"/>
+      <c r="E170" s="47"/>
       <c r="F170" s="45"/>
       <c r="G170" s="13"/>
       <c r="H170" s="45"/>
@@ -6849,7 +6841,7 @@
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
       <c r="D171" s="44"/>
-      <c r="E171" s="52"/>
+      <c r="E171" s="47"/>
       <c r="F171" s="45"/>
       <c r="G171" s="13"/>
       <c r="H171" s="45"/>
@@ -6884,7 +6876,7 @@
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="44"/>
-      <c r="E172" s="52"/>
+      <c r="E172" s="47"/>
       <c r="F172" s="45"/>
       <c r="G172" s="13"/>
       <c r="H172" s="45"/>
@@ -6919,7 +6911,7 @@
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="44"/>
-      <c r="E173" s="52"/>
+      <c r="E173" s="47"/>
       <c r="F173" s="45"/>
       <c r="G173" s="13"/>
       <c r="H173" s="45"/>
@@ -6954,7 +6946,7 @@
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
       <c r="D174" s="44"/>
-      <c r="E174" s="52"/>
+      <c r="E174" s="47"/>
       <c r="F174" s="45"/>
       <c r="G174" s="13"/>
       <c r="H174" s="45"/>
@@ -6989,7 +6981,7 @@
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="44"/>
-      <c r="E175" s="52"/>
+      <c r="E175" s="47"/>
       <c r="F175" s="45"/>
       <c r="G175" s="13"/>
       <c r="H175" s="45"/>
@@ -7024,7 +7016,7 @@
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="44"/>
-      <c r="E176" s="52"/>
+      <c r="E176" s="47"/>
       <c r="F176" s="45"/>
       <c r="G176" s="13"/>
       <c r="H176" s="45"/>
@@ -7059,7 +7051,7 @@
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
       <c r="D177" s="44"/>
-      <c r="E177" s="52"/>
+      <c r="E177" s="47"/>
       <c r="F177" s="45"/>
       <c r="G177" s="13"/>
       <c r="H177" s="45"/>
@@ -7094,7 +7086,7 @@
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="44"/>
-      <c r="E178" s="52"/>
+      <c r="E178" s="47"/>
       <c r="F178" s="45"/>
       <c r="G178" s="13"/>
       <c r="H178" s="45"/>
@@ -7129,7 +7121,7 @@
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
       <c r="D179" s="44"/>
-      <c r="E179" s="52"/>
+      <c r="E179" s="47"/>
       <c r="F179" s="45"/>
       <c r="G179" s="13"/>
       <c r="H179" s="45"/>
@@ -7164,7 +7156,7 @@
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
       <c r="D180" s="44"/>
-      <c r="E180" s="52"/>
+      <c r="E180" s="47"/>
       <c r="F180" s="45"/>
       <c r="G180" s="13"/>
       <c r="H180" s="45"/>
@@ -7199,7 +7191,7 @@
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
       <c r="D181" s="44"/>
-      <c r="E181" s="52"/>
+      <c r="E181" s="47"/>
       <c r="F181" s="45"/>
       <c r="G181" s="13"/>
       <c r="H181" s="45"/>
@@ -7234,7 +7226,7 @@
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="44"/>
-      <c r="E182" s="52"/>
+      <c r="E182" s="47"/>
       <c r="F182" s="45"/>
       <c r="G182" s="13"/>
       <c r="H182" s="45"/>
@@ -7269,7 +7261,7 @@
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="44"/>
-      <c r="E183" s="52"/>
+      <c r="E183" s="47"/>
       <c r="F183" s="45"/>
       <c r="G183" s="13"/>
       <c r="H183" s="45"/>
@@ -7304,7 +7296,7 @@
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="44"/>
-      <c r="E184" s="52"/>
+      <c r="E184" s="47"/>
       <c r="F184" s="45"/>
       <c r="G184" s="13"/>
       <c r="H184" s="45"/>
@@ -7339,7 +7331,7 @@
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="44"/>
-      <c r="E185" s="52"/>
+      <c r="E185" s="47"/>
       <c r="F185" s="45"/>
       <c r="G185" s="13"/>
       <c r="H185" s="45"/>
@@ -7374,7 +7366,7 @@
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="44"/>
-      <c r="E186" s="52"/>
+      <c r="E186" s="47"/>
       <c r="F186" s="45"/>
       <c r="G186" s="13"/>
       <c r="H186" s="45"/>
@@ -7409,7 +7401,7 @@
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
       <c r="D187" s="44"/>
-      <c r="E187" s="52"/>
+      <c r="E187" s="47"/>
       <c r="F187" s="45"/>
       <c r="G187" s="13"/>
       <c r="H187" s="45"/>
@@ -7444,7 +7436,7 @@
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="44"/>
-      <c r="E188" s="52"/>
+      <c r="E188" s="47"/>
       <c r="F188" s="45"/>
       <c r="G188" s="13"/>
       <c r="H188" s="45"/>
@@ -7479,7 +7471,7 @@
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="44"/>
-      <c r="E189" s="52"/>
+      <c r="E189" s="47"/>
       <c r="F189" s="45"/>
       <c r="G189" s="13"/>
       <c r="H189" s="45"/>
@@ -7514,7 +7506,7 @@
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="44"/>
-      <c r="E190" s="52"/>
+      <c r="E190" s="47"/>
       <c r="F190" s="45"/>
       <c r="G190" s="13"/>
       <c r="H190" s="45"/>
@@ -7549,7 +7541,7 @@
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="44"/>
-      <c r="E191" s="52"/>
+      <c r="E191" s="47"/>
       <c r="F191" s="45"/>
       <c r="G191" s="13"/>
       <c r="H191" s="45"/>
@@ -7584,7 +7576,7 @@
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="44"/>
-      <c r="E192" s="52"/>
+      <c r="E192" s="47"/>
       <c r="F192" s="45"/>
       <c r="G192" s="13"/>
       <c r="H192" s="45"/>
@@ -7619,7 +7611,7 @@
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="44"/>
-      <c r="E193" s="52"/>
+      <c r="E193" s="47"/>
       <c r="F193" s="45"/>
       <c r="G193" s="13"/>
       <c r="H193" s="45"/>
@@ -7654,7 +7646,7 @@
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
       <c r="D194" s="44"/>
-      <c r="E194" s="52"/>
+      <c r="E194" s="47"/>
       <c r="F194" s="45"/>
       <c r="G194" s="13"/>
       <c r="H194" s="45"/>
@@ -7689,7 +7681,7 @@
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="44"/>
-      <c r="E195" s="52"/>
+      <c r="E195" s="47"/>
       <c r="F195" s="45"/>
       <c r="G195" s="13"/>
       <c r="H195" s="45"/>
@@ -7724,7 +7716,7 @@
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
       <c r="D196" s="44"/>
-      <c r="E196" s="52"/>
+      <c r="E196" s="47"/>
       <c r="F196" s="45"/>
       <c r="G196" s="13"/>
       <c r="H196" s="45"/>
@@ -7759,7 +7751,7 @@
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="44"/>
-      <c r="E197" s="52"/>
+      <c r="E197" s="47"/>
       <c r="F197" s="45"/>
       <c r="G197" s="13"/>
       <c r="H197" s="45"/>
@@ -7794,7 +7786,7 @@
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="44"/>
-      <c r="E198" s="52"/>
+      <c r="E198" s="47"/>
       <c r="F198" s="45"/>
       <c r="G198" s="13"/>
       <c r="H198" s="45"/>
@@ -7829,7 +7821,7 @@
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
       <c r="D199" s="44"/>
-      <c r="E199" s="52"/>
+      <c r="E199" s="47"/>
       <c r="F199" s="45"/>
       <c r="G199" s="13"/>
       <c r="H199" s="45"/>
@@ -7864,7 +7856,7 @@
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
       <c r="D200" s="44"/>
-      <c r="E200" s="52"/>
+      <c r="E200" s="47"/>
       <c r="F200" s="45"/>
       <c r="G200" s="13"/>
       <c r="H200" s="45"/>
@@ -7899,7 +7891,7 @@
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
       <c r="D201" s="44"/>
-      <c r="E201" s="52"/>
+      <c r="E201" s="47"/>
       <c r="F201" s="45"/>
       <c r="G201" s="13"/>
       <c r="H201" s="45"/>
@@ -7934,7 +7926,7 @@
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
       <c r="D202" s="44"/>
-      <c r="E202" s="52"/>
+      <c r="E202" s="47"/>
       <c r="F202" s="45"/>
       <c r="G202" s="13"/>
       <c r="H202" s="45"/>
@@ -7969,7 +7961,7 @@
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
       <c r="D203" s="44"/>
-      <c r="E203" s="52"/>
+      <c r="E203" s="47"/>
       <c r="F203" s="45"/>
       <c r="G203" s="13"/>
       <c r="H203" s="45"/>
@@ -8004,7 +7996,7 @@
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
       <c r="D204" s="44"/>
-      <c r="E204" s="52"/>
+      <c r="E204" s="47"/>
       <c r="F204" s="45"/>
       <c r="G204" s="13"/>
       <c r="H204" s="45"/>
@@ -8039,7 +8031,7 @@
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="44"/>
-      <c r="E205" s="52"/>
+      <c r="E205" s="47"/>
       <c r="F205" s="45"/>
       <c r="G205" s="13"/>
       <c r="H205" s="45"/>
@@ -8072,7 +8064,7 @@
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="53"/>
+      <c r="E206" s="1"/>
       <c r="F206" s="2"/>
       <c r="G206" s="1"/>
       <c r="H206" s="2"/>
@@ -8105,7 +8097,7 @@
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="53"/>
+      <c r="E207" s="1"/>
       <c r="F207" s="2"/>
       <c r="G207" s="1"/>
       <c r="H207" s="2"/>
@@ -8138,7 +8130,7 @@
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="53"/>
+      <c r="E208" s="1"/>
       <c r="F208" s="2"/>
       <c r="G208" s="1"/>
       <c r="H208" s="2"/>
@@ -8171,7 +8163,7 @@
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="53"/>
+      <c r="E209" s="1"/>
       <c r="F209" s="2"/>
       <c r="G209" s="1"/>
       <c r="H209" s="2"/>
@@ -8204,7 +8196,7 @@
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="53"/>
+      <c r="E210" s="1"/>
       <c r="F210" s="2"/>
       <c r="G210" s="1"/>
       <c r="H210" s="2"/>
@@ -8237,7 +8229,7 @@
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="53"/>
+      <c r="E211" s="1"/>
       <c r="F211" s="2"/>
       <c r="G211" s="1"/>
       <c r="H211" s="2"/>
@@ -8270,7 +8262,7 @@
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="53"/>
+      <c r="E212" s="1"/>
       <c r="F212" s="2"/>
       <c r="G212" s="1"/>
       <c r="H212" s="2"/>
@@ -8303,7 +8295,7 @@
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="53"/>
+      <c r="E213" s="1"/>
       <c r="F213" s="2"/>
       <c r="G213" s="1"/>
       <c r="H213" s="2"/>
@@ -8336,7 +8328,7 @@
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="53"/>
+      <c r="E214" s="1"/>
       <c r="F214" s="2"/>
       <c r="G214" s="1"/>
       <c r="H214" s="2"/>
@@ -8369,7 +8361,7 @@
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="53"/>
+      <c r="E215" s="1"/>
       <c r="F215" s="2"/>
       <c r="G215" s="1"/>
       <c r="H215" s="2"/>
@@ -8402,7 +8394,7 @@
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="53"/>
+      <c r="E216" s="1"/>
       <c r="F216" s="2"/>
       <c r="G216" s="1"/>
       <c r="H216" s="2"/>
@@ -8435,7 +8427,7 @@
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="53"/>
+      <c r="E217" s="1"/>
       <c r="F217" s="2"/>
       <c r="G217" s="1"/>
       <c r="H217" s="2"/>
@@ -8468,7 +8460,7 @@
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="53"/>
+      <c r="E218" s="1"/>
       <c r="F218" s="2"/>
       <c r="G218" s="1"/>
       <c r="H218" s="2"/>
@@ -8501,7 +8493,7 @@
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="53"/>
+      <c r="E219" s="1"/>
       <c r="F219" s="2"/>
       <c r="G219" s="1"/>
       <c r="H219" s="2"/>
@@ -8534,7 +8526,7 @@
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="53"/>
+      <c r="E220" s="1"/>
       <c r="F220" s="2"/>
       <c r="G220" s="1"/>
       <c r="H220" s="2"/>
@@ -8567,7 +8559,7 @@
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="53"/>
+      <c r="E221" s="1"/>
       <c r="F221" s="2"/>
       <c r="G221" s="1"/>
       <c r="H221" s="2"/>
@@ -8600,7 +8592,7 @@
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="53"/>
+      <c r="E222" s="1"/>
       <c r="F222" s="2"/>
       <c r="G222" s="1"/>
       <c r="H222" s="2"/>
@@ -8633,7 +8625,7 @@
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="53"/>
+      <c r="E223" s="1"/>
       <c r="F223" s="2"/>
       <c r="G223" s="1"/>
       <c r="H223" s="2"/>
@@ -8666,7 +8658,7 @@
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="53"/>
+      <c r="E224" s="1"/>
       <c r="F224" s="2"/>
       <c r="G224" s="1"/>
       <c r="H224" s="2"/>
@@ -8699,7 +8691,7 @@
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="53"/>
+      <c r="E225" s="1"/>
       <c r="F225" s="2"/>
       <c r="G225" s="1"/>
       <c r="H225" s="2"/>
@@ -8732,7 +8724,7 @@
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="53"/>
+      <c r="E226" s="1"/>
       <c r="F226" s="2"/>
       <c r="G226" s="1"/>
       <c r="H226" s="2"/>
@@ -8765,7 +8757,7 @@
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="53"/>
+      <c r="E227" s="1"/>
       <c r="F227" s="2"/>
       <c r="G227" s="1"/>
       <c r="H227" s="2"/>
@@ -8798,7 +8790,7 @@
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="53"/>
+      <c r="E228" s="1"/>
       <c r="F228" s="2"/>
       <c r="G228" s="1"/>
       <c r="H228" s="2"/>
@@ -8831,7 +8823,7 @@
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="53"/>
+      <c r="E229" s="1"/>
       <c r="F229" s="2"/>
       <c r="G229" s="1"/>
       <c r="H229" s="2"/>
@@ -8864,7 +8856,7 @@
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="53"/>
+      <c r="E230" s="1"/>
       <c r="F230" s="2"/>
       <c r="G230" s="1"/>
       <c r="H230" s="2"/>
@@ -8897,7 +8889,7 @@
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="53"/>
+      <c r="E231" s="1"/>
       <c r="F231" s="2"/>
       <c r="G231" s="1"/>
       <c r="H231" s="2"/>
@@ -8930,7 +8922,7 @@
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="53"/>
+      <c r="E232" s="1"/>
       <c r="F232" s="2"/>
       <c r="G232" s="1"/>
       <c r="H232" s="2"/>
@@ -8963,7 +8955,7 @@
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="53"/>
+      <c r="E233" s="1"/>
       <c r="F233" s="2"/>
       <c r="G233" s="1"/>
       <c r="H233" s="2"/>
@@ -8996,7 +8988,7 @@
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="53"/>
+      <c r="E234" s="1"/>
       <c r="F234" s="2"/>
       <c r="G234" s="1"/>
       <c r="H234" s="2"/>
@@ -9029,7 +9021,7 @@
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="53"/>
+      <c r="E235" s="1"/>
       <c r="F235" s="2"/>
       <c r="G235" s="1"/>
       <c r="H235" s="2"/>
@@ -9062,7 +9054,7 @@
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="53"/>
+      <c r="E236" s="1"/>
       <c r="F236" s="2"/>
       <c r="G236" s="1"/>
       <c r="H236" s="2"/>
@@ -9095,7 +9087,7 @@
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="53"/>
+      <c r="E237" s="1"/>
       <c r="F237" s="2"/>
       <c r="G237" s="1"/>
       <c r="H237" s="2"/>
@@ -9128,7 +9120,7 @@
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="53"/>
+      <c r="E238" s="1"/>
       <c r="F238" s="2"/>
       <c r="G238" s="1"/>
       <c r="H238" s="2"/>
@@ -9161,7 +9153,7 @@
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="53"/>
+      <c r="E239" s="1"/>
       <c r="F239" s="2"/>
       <c r="G239" s="1"/>
       <c r="H239" s="2"/>
@@ -9194,7 +9186,7 @@
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="53"/>
+      <c r="E240" s="1"/>
       <c r="F240" s="2"/>
       <c r="G240" s="1"/>
       <c r="H240" s="2"/>
@@ -9227,7 +9219,7 @@
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="53"/>
+      <c r="E241" s="1"/>
       <c r="F241" s="2"/>
       <c r="G241" s="1"/>
       <c r="H241" s="2"/>
@@ -9260,7 +9252,7 @@
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="53"/>
+      <c r="E242" s="1"/>
       <c r="F242" s="2"/>
       <c r="G242" s="1"/>
       <c r="H242" s="2"/>
@@ -9293,7 +9285,7 @@
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="53"/>
+      <c r="E243" s="1"/>
       <c r="F243" s="2"/>
       <c r="G243" s="1"/>
       <c r="H243" s="2"/>
@@ -9326,7 +9318,7 @@
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="53"/>
+      <c r="E244" s="1"/>
       <c r="F244" s="2"/>
       <c r="G244" s="1"/>
       <c r="H244" s="2"/>
@@ -9359,7 +9351,7 @@
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="53"/>
+      <c r="E245" s="1"/>
       <c r="F245" s="2"/>
       <c r="G245" s="1"/>
       <c r="H245" s="2"/>
@@ -9392,7 +9384,7 @@
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="53"/>
+      <c r="E246" s="1"/>
       <c r="F246" s="2"/>
       <c r="G246" s="1"/>
       <c r="H246" s="2"/>
@@ -9425,7 +9417,7 @@
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="53"/>
+      <c r="E247" s="1"/>
       <c r="F247" s="2"/>
       <c r="G247" s="1"/>
       <c r="H247" s="2"/>
@@ -9458,7 +9450,7 @@
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="53"/>
+      <c r="E248" s="1"/>
       <c r="F248" s="2"/>
       <c r="G248" s="1"/>
       <c r="H248" s="2"/>
@@ -9491,7 +9483,7 @@
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="53"/>
+      <c r="E249" s="1"/>
       <c r="F249" s="2"/>
       <c r="G249" s="1"/>
       <c r="H249" s="2"/>
@@ -9524,7 +9516,7 @@
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="53"/>
+      <c r="E250" s="1"/>
       <c r="F250" s="2"/>
       <c r="G250" s="1"/>
       <c r="H250" s="2"/>
@@ -9557,7 +9549,7 @@
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="53"/>
+      <c r="E251" s="1"/>
       <c r="F251" s="2"/>
       <c r="G251" s="1"/>
       <c r="H251" s="2"/>
@@ -9590,7 +9582,7 @@
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="53"/>
+      <c r="E252" s="1"/>
       <c r="F252" s="2"/>
       <c r="G252" s="1"/>
       <c r="H252" s="2"/>
@@ -9623,7 +9615,7 @@
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="53"/>
+      <c r="E253" s="1"/>
       <c r="F253" s="2"/>
       <c r="G253" s="1"/>
       <c r="H253" s="2"/>
@@ -9656,7 +9648,7 @@
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="53"/>
+      <c r="E254" s="1"/>
       <c r="F254" s="2"/>
       <c r="G254" s="1"/>
       <c r="H254" s="2"/>
@@ -9689,7 +9681,7 @@
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="53"/>
+      <c r="E255" s="1"/>
       <c r="F255" s="2"/>
       <c r="G255" s="1"/>
       <c r="H255" s="2"/>
@@ -9722,7 +9714,7 @@
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="53"/>
+      <c r="E256" s="1"/>
       <c r="F256" s="2"/>
       <c r="G256" s="1"/>
       <c r="H256" s="2"/>
@@ -9755,7 +9747,7 @@
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="53"/>
+      <c r="E257" s="1"/>
       <c r="F257" s="2"/>
       <c r="G257" s="1"/>
       <c r="H257" s="2"/>
@@ -9788,7 +9780,7 @@
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="53"/>
+      <c r="E258" s="1"/>
       <c r="F258" s="2"/>
       <c r="G258" s="1"/>
       <c r="H258" s="2"/>
@@ -9821,7 +9813,7 @@
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="53"/>
+      <c r="E259" s="1"/>
       <c r="F259" s="2"/>
       <c r="G259" s="1"/>
       <c r="H259" s="2"/>
@@ -9854,7 +9846,7 @@
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="53"/>
+      <c r="E260" s="1"/>
       <c r="F260" s="2"/>
       <c r="G260" s="1"/>
       <c r="H260" s="2"/>
@@ -9887,7 +9879,7 @@
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="53"/>
+      <c r="E261" s="1"/>
       <c r="F261" s="2"/>
       <c r="G261" s="1"/>
       <c r="H261" s="2"/>
@@ -9920,7 +9912,7 @@
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="53"/>
+      <c r="E262" s="1"/>
       <c r="F262" s="2"/>
       <c r="G262" s="1"/>
       <c r="H262" s="2"/>
@@ -9953,7 +9945,7 @@
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="53"/>
+      <c r="E263" s="1"/>
       <c r="F263" s="2"/>
       <c r="G263" s="1"/>
       <c r="H263" s="2"/>
@@ -9986,7 +9978,7 @@
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="53"/>
+      <c r="E264" s="1"/>
       <c r="F264" s="2"/>
       <c r="G264" s="1"/>
       <c r="H264" s="2"/>
@@ -10019,7 +10011,7 @@
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="53"/>
+      <c r="E265" s="1"/>
       <c r="F265" s="2"/>
       <c r="G265" s="1"/>
       <c r="H265" s="2"/>
@@ -10052,7 +10044,7 @@
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="53"/>
+      <c r="E266" s="1"/>
       <c r="F266" s="2"/>
       <c r="G266" s="1"/>
       <c r="H266" s="2"/>
@@ -10085,7 +10077,7 @@
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="53"/>
+      <c r="E267" s="1"/>
       <c r="F267" s="2"/>
       <c r="G267" s="1"/>
       <c r="H267" s="2"/>
@@ -10118,7 +10110,7 @@
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="53"/>
+      <c r="E268" s="1"/>
       <c r="F268" s="2"/>
       <c r="G268" s="1"/>
       <c r="H268" s="2"/>
@@ -10151,7 +10143,7 @@
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="53"/>
+      <c r="E269" s="1"/>
       <c r="F269" s="2"/>
       <c r="G269" s="1"/>
       <c r="H269" s="2"/>
@@ -10184,7 +10176,7 @@
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="53"/>
+      <c r="E270" s="1"/>
       <c r="F270" s="2"/>
       <c r="G270" s="1"/>
       <c r="H270" s="2"/>
@@ -10217,7 +10209,7 @@
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="53"/>
+      <c r="E271" s="1"/>
       <c r="F271" s="2"/>
       <c r="G271" s="1"/>
       <c r="H271" s="2"/>
@@ -10250,7 +10242,7 @@
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="53"/>
+      <c r="E272" s="1"/>
       <c r="F272" s="2"/>
       <c r="G272" s="1"/>
       <c r="H272" s="2"/>
@@ -10283,7 +10275,7 @@
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="53"/>
+      <c r="E273" s="1"/>
       <c r="F273" s="2"/>
       <c r="G273" s="1"/>
       <c r="H273" s="2"/>
@@ -10316,7 +10308,7 @@
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="53"/>
+      <c r="E274" s="1"/>
       <c r="F274" s="2"/>
       <c r="G274" s="1"/>
       <c r="H274" s="2"/>
@@ -10349,7 +10341,7 @@
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="53"/>
+      <c r="E275" s="1"/>
       <c r="F275" s="2"/>
       <c r="G275" s="1"/>
       <c r="H275" s="2"/>
@@ -10382,7 +10374,7 @@
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="53"/>
+      <c r="E276" s="1"/>
       <c r="F276" s="2"/>
       <c r="G276" s="1"/>
       <c r="H276" s="2"/>
@@ -10415,7 +10407,7 @@
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="53"/>
+      <c r="E277" s="1"/>
       <c r="F277" s="2"/>
       <c r="G277" s="1"/>
       <c r="H277" s="2"/>
@@ -10448,7 +10440,7 @@
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="53"/>
+      <c r="E278" s="1"/>
       <c r="F278" s="2"/>
       <c r="G278" s="1"/>
       <c r="H278" s="2"/>
@@ -10481,7 +10473,7 @@
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="53"/>
+      <c r="E279" s="1"/>
       <c r="F279" s="2"/>
       <c r="G279" s="1"/>
       <c r="H279" s="2"/>
@@ -10514,7 +10506,7 @@
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="53"/>
+      <c r="E280" s="1"/>
       <c r="F280" s="2"/>
       <c r="G280" s="1"/>
       <c r="H280" s="2"/>
@@ -10547,7 +10539,7 @@
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="1"/>
-      <c r="E281" s="53"/>
+      <c r="E281" s="1"/>
       <c r="F281" s="2"/>
       <c r="G281" s="1"/>
       <c r="H281" s="2"/>
@@ -10580,7 +10572,7 @@
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="1"/>
-      <c r="E282" s="53"/>
+      <c r="E282" s="1"/>
       <c r="F282" s="2"/>
       <c r="G282" s="1"/>
       <c r="H282" s="2"/>
@@ -10613,7 +10605,7 @@
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="53"/>
+      <c r="E283" s="1"/>
       <c r="F283" s="2"/>
       <c r="G283" s="1"/>
       <c r="H283" s="2"/>
@@ -10646,7 +10638,7 @@
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="1"/>
-      <c r="E284" s="53"/>
+      <c r="E284" s="1"/>
       <c r="F284" s="2"/>
       <c r="G284" s="1"/>
       <c r="H284" s="2"/>
@@ -10679,7 +10671,7 @@
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="53"/>
+      <c r="E285" s="1"/>
       <c r="F285" s="2"/>
       <c r="G285" s="1"/>
       <c r="H285" s="2"/>
@@ -10712,7 +10704,7 @@
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="53"/>
+      <c r="E286" s="1"/>
       <c r="F286" s="2"/>
       <c r="G286" s="1"/>
       <c r="H286" s="2"/>
@@ -10745,7 +10737,7 @@
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="53"/>
+      <c r="E287" s="1"/>
       <c r="F287" s="2"/>
       <c r="G287" s="1"/>
       <c r="H287" s="2"/>
@@ -10778,7 +10770,7 @@
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="53"/>
+      <c r="E288" s="1"/>
       <c r="F288" s="2"/>
       <c r="G288" s="1"/>
       <c r="H288" s="2"/>
@@ -10811,7 +10803,7 @@
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="53"/>
+      <c r="E289" s="1"/>
       <c r="F289" s="2"/>
       <c r="G289" s="1"/>
       <c r="H289" s="2"/>
@@ -10844,7 +10836,7 @@
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="53"/>
+      <c r="E290" s="1"/>
       <c r="F290" s="2"/>
       <c r="G290" s="1"/>
       <c r="H290" s="2"/>
@@ -10877,7 +10869,7 @@
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="1"/>
-      <c r="E291" s="53"/>
+      <c r="E291" s="1"/>
       <c r="F291" s="2"/>
       <c r="G291" s="1"/>
       <c r="H291" s="2"/>
@@ -10910,7 +10902,7 @@
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="1"/>
-      <c r="E292" s="53"/>
+      <c r="E292" s="1"/>
       <c r="F292" s="2"/>
       <c r="G292" s="1"/>
       <c r="H292" s="2"/>
@@ -10943,7 +10935,7 @@
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="1"/>
-      <c r="E293" s="53"/>
+      <c r="E293" s="1"/>
       <c r="F293" s="2"/>
       <c r="G293" s="1"/>
       <c r="H293" s="2"/>
@@ -10976,7 +10968,7 @@
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="53"/>
+      <c r="E294" s="1"/>
       <c r="F294" s="2"/>
       <c r="G294" s="1"/>
       <c r="H294" s="2"/>
@@ -11009,7 +11001,7 @@
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="1"/>
-      <c r="E295" s="53"/>
+      <c r="E295" s="1"/>
       <c r="F295" s="2"/>
       <c r="G295" s="1"/>
       <c r="H295" s="2"/>
@@ -11042,7 +11034,7 @@
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="1"/>
-      <c r="E296" s="53"/>
+      <c r="E296" s="1"/>
       <c r="F296" s="2"/>
       <c r="G296" s="1"/>
       <c r="H296" s="2"/>
@@ -11075,7 +11067,7 @@
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="53"/>
+      <c r="E297" s="1"/>
       <c r="F297" s="2"/>
       <c r="G297" s="1"/>
       <c r="H297" s="2"/>
@@ -11108,7 +11100,7 @@
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="53"/>
+      <c r="E298" s="1"/>
       <c r="F298" s="2"/>
       <c r="G298" s="1"/>
       <c r="H298" s="2"/>
@@ -11141,7 +11133,7 @@
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="53"/>
+      <c r="E299" s="1"/>
       <c r="F299" s="2"/>
       <c r="G299" s="1"/>
       <c r="H299" s="2"/>
@@ -11174,7 +11166,7 @@
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="1"/>
-      <c r="E300" s="53"/>
+      <c r="E300" s="1"/>
       <c r="F300" s="2"/>
       <c r="G300" s="1"/>
       <c r="H300" s="2"/>
@@ -11207,7 +11199,7 @@
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="53"/>
+      <c r="E301" s="1"/>
       <c r="F301" s="2"/>
       <c r="G301" s="1"/>
       <c r="H301" s="2"/>
@@ -11240,7 +11232,7 @@
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="1"/>
-      <c r="E302" s="53"/>
+      <c r="E302" s="1"/>
       <c r="F302" s="2"/>
       <c r="G302" s="1"/>
       <c r="H302" s="2"/>
@@ -11273,7 +11265,7 @@
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="1"/>
-      <c r="E303" s="53"/>
+      <c r="E303" s="1"/>
       <c r="F303" s="2"/>
       <c r="G303" s="1"/>
       <c r="H303" s="2"/>
@@ -11306,7 +11298,7 @@
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="53"/>
+      <c r="E304" s="1"/>
       <c r="F304" s="2"/>
       <c r="G304" s="1"/>
       <c r="H304" s="2"/>
@@ -11339,7 +11331,7 @@
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="1"/>
-      <c r="E305" s="53"/>
+      <c r="E305" s="1"/>
       <c r="F305" s="2"/>
       <c r="G305" s="1"/>
       <c r="H305" s="2"/>
@@ -11372,7 +11364,7 @@
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="1"/>
-      <c r="E306" s="53"/>
+      <c r="E306" s="1"/>
       <c r="F306" s="2"/>
       <c r="G306" s="1"/>
       <c r="H306" s="2"/>
@@ -11405,7 +11397,7 @@
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="1"/>
-      <c r="E307" s="53"/>
+      <c r="E307" s="1"/>
       <c r="F307" s="2"/>
       <c r="G307" s="1"/>
       <c r="H307" s="2"/>
@@ -11438,7 +11430,7 @@
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="1"/>
-      <c r="E308" s="53"/>
+      <c r="E308" s="1"/>
       <c r="F308" s="2"/>
       <c r="G308" s="1"/>
       <c r="H308" s="2"/>
@@ -11471,7 +11463,7 @@
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="1"/>
-      <c r="E309" s="53"/>
+      <c r="E309" s="1"/>
       <c r="F309" s="2"/>
       <c r="G309" s="1"/>
       <c r="H309" s="2"/>
@@ -11504,7 +11496,7 @@
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="1"/>
-      <c r="E310" s="53"/>
+      <c r="E310" s="1"/>
       <c r="F310" s="2"/>
       <c r="G310" s="1"/>
       <c r="H310" s="2"/>
@@ -11537,7 +11529,7 @@
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="53"/>
+      <c r="E311" s="1"/>
       <c r="F311" s="2"/>
       <c r="G311" s="1"/>
       <c r="H311" s="2"/>
@@ -11570,7 +11562,7 @@
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="1"/>
-      <c r="E312" s="53"/>
+      <c r="E312" s="1"/>
       <c r="F312" s="2"/>
       <c r="G312" s="1"/>
       <c r="H312" s="2"/>
@@ -11603,7 +11595,7 @@
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="1"/>
-      <c r="E313" s="53"/>
+      <c r="E313" s="1"/>
       <c r="F313" s="2"/>
       <c r="G313" s="1"/>
       <c r="H313" s="2"/>
@@ -11636,7 +11628,7 @@
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="1"/>
-      <c r="E314" s="53"/>
+      <c r="E314" s="1"/>
       <c r="F314" s="2"/>
       <c r="G314" s="1"/>
       <c r="H314" s="2"/>
@@ -11669,7 +11661,7 @@
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="1"/>
-      <c r="E315" s="53"/>
+      <c r="E315" s="1"/>
       <c r="F315" s="2"/>
       <c r="G315" s="1"/>
       <c r="H315" s="2"/>
@@ -11702,7 +11694,7 @@
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="1"/>
-      <c r="E316" s="53"/>
+      <c r="E316" s="1"/>
       <c r="F316" s="2"/>
       <c r="G316" s="1"/>
       <c r="H316" s="2"/>
@@ -11735,7 +11727,7 @@
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="1"/>
-      <c r="E317" s="53"/>
+      <c r="E317" s="1"/>
       <c r="F317" s="2"/>
       <c r="G317" s="1"/>
       <c r="H317" s="2"/>
@@ -11768,7 +11760,7 @@
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="53"/>
+      <c r="E318" s="1"/>
       <c r="F318" s="2"/>
       <c r="G318" s="1"/>
       <c r="H318" s="2"/>
@@ -11801,7 +11793,7 @@
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="1"/>
-      <c r="E319" s="53"/>
+      <c r="E319" s="1"/>
       <c r="F319" s="2"/>
       <c r="G319" s="1"/>
       <c r="H319" s="2"/>
@@ -11834,7 +11826,7 @@
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="1"/>
-      <c r="E320" s="53"/>
+      <c r="E320" s="1"/>
       <c r="F320" s="2"/>
       <c r="G320" s="1"/>
       <c r="H320" s="2"/>
@@ -11867,7 +11859,7 @@
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="53"/>
+      <c r="E321" s="1"/>
       <c r="F321" s="2"/>
       <c r="G321" s="1"/>
       <c r="H321" s="2"/>
@@ -11900,7 +11892,7 @@
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="53"/>
+      <c r="E322" s="1"/>
       <c r="F322" s="2"/>
       <c r="G322" s="1"/>
       <c r="H322" s="2"/>
@@ -11933,7 +11925,7 @@
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="53"/>
+      <c r="E323" s="1"/>
       <c r="F323" s="2"/>
       <c r="G323" s="1"/>
       <c r="H323" s="2"/>
@@ -11966,7 +11958,7 @@
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="1"/>
-      <c r="E324" s="53"/>
+      <c r="E324" s="1"/>
       <c r="F324" s="2"/>
       <c r="G324" s="1"/>
       <c r="H324" s="2"/>
@@ -11999,7 +11991,7 @@
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="53"/>
+      <c r="E325" s="1"/>
       <c r="F325" s="2"/>
       <c r="G325" s="1"/>
       <c r="H325" s="2"/>
@@ -12032,7 +12024,7 @@
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="53"/>
+      <c r="E326" s="1"/>
       <c r="F326" s="2"/>
       <c r="G326" s="1"/>
       <c r="H326" s="2"/>
@@ -12065,7 +12057,7 @@
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="53"/>
+      <c r="E327" s="1"/>
       <c r="F327" s="2"/>
       <c r="G327" s="1"/>
       <c r="H327" s="2"/>
@@ -12098,7 +12090,7 @@
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="1"/>
-      <c r="E328" s="53"/>
+      <c r="E328" s="1"/>
       <c r="F328" s="2"/>
       <c r="G328" s="1"/>
       <c r="H328" s="2"/>
@@ -12131,7 +12123,7 @@
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="1"/>
-      <c r="E329" s="53"/>
+      <c r="E329" s="1"/>
       <c r="F329" s="2"/>
       <c r="G329" s="1"/>
       <c r="H329" s="2"/>
@@ -12164,7 +12156,7 @@
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="1"/>
-      <c r="E330" s="53"/>
+      <c r="E330" s="1"/>
       <c r="F330" s="2"/>
       <c r="G330" s="1"/>
       <c r="H330" s="2"/>
@@ -12197,7 +12189,7 @@
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="1"/>
-      <c r="E331" s="53"/>
+      <c r="E331" s="1"/>
       <c r="F331" s="2"/>
       <c r="G331" s="1"/>
       <c r="H331" s="2"/>
@@ -12230,7 +12222,7 @@
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="1"/>
-      <c r="E332" s="53"/>
+      <c r="E332" s="1"/>
       <c r="F332" s="2"/>
       <c r="G332" s="1"/>
       <c r="H332" s="2"/>
@@ -12263,7 +12255,7 @@
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="1"/>
-      <c r="E333" s="53"/>
+      <c r="E333" s="1"/>
       <c r="F333" s="2"/>
       <c r="G333" s="1"/>
       <c r="H333" s="2"/>
@@ -12296,7 +12288,7 @@
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="1"/>
-      <c r="E334" s="53"/>
+      <c r="E334" s="1"/>
       <c r="F334" s="2"/>
       <c r="G334" s="1"/>
       <c r="H334" s="2"/>
@@ -12329,7 +12321,7 @@
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="1"/>
-      <c r="E335" s="53"/>
+      <c r="E335" s="1"/>
       <c r="F335" s="2"/>
       <c r="G335" s="1"/>
       <c r="H335" s="2"/>
@@ -12362,7 +12354,7 @@
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="1"/>
-      <c r="E336" s="53"/>
+      <c r="E336" s="1"/>
       <c r="F336" s="2"/>
       <c r="G336" s="1"/>
       <c r="H336" s="2"/>
@@ -12395,7 +12387,7 @@
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="1"/>
-      <c r="E337" s="53"/>
+      <c r="E337" s="1"/>
       <c r="F337" s="2"/>
       <c r="G337" s="1"/>
       <c r="H337" s="2"/>
@@ -12428,7 +12420,7 @@
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="1"/>
-      <c r="E338" s="53"/>
+      <c r="E338" s="1"/>
       <c r="F338" s="2"/>
       <c r="G338" s="1"/>
       <c r="H338" s="2"/>
@@ -12461,7 +12453,7 @@
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="1"/>
-      <c r="E339" s="53"/>
+      <c r="E339" s="1"/>
       <c r="F339" s="2"/>
       <c r="G339" s="1"/>
       <c r="H339" s="2"/>
@@ -12494,7 +12486,7 @@
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="1"/>
-      <c r="E340" s="53"/>
+      <c r="E340" s="1"/>
       <c r="F340" s="2"/>
       <c r="G340" s="1"/>
       <c r="H340" s="2"/>
@@ -12527,7 +12519,7 @@
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="1"/>
-      <c r="E341" s="53"/>
+      <c r="E341" s="1"/>
       <c r="F341" s="2"/>
       <c r="G341" s="1"/>
       <c r="H341" s="2"/>
@@ -12560,7 +12552,7 @@
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="1"/>
-      <c r="E342" s="53"/>
+      <c r="E342" s="1"/>
       <c r="F342" s="2"/>
       <c r="G342" s="1"/>
       <c r="H342" s="2"/>
@@ -12593,7 +12585,7 @@
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="1"/>
-      <c r="E343" s="53"/>
+      <c r="E343" s="1"/>
       <c r="F343" s="2"/>
       <c r="G343" s="1"/>
       <c r="H343" s="2"/>
@@ -12626,7 +12618,7 @@
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="1"/>
-      <c r="E344" s="53"/>
+      <c r="E344" s="1"/>
       <c r="F344" s="2"/>
       <c r="G344" s="1"/>
       <c r="H344" s="2"/>
@@ -12659,7 +12651,7 @@
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="1"/>
-      <c r="E345" s="53"/>
+      <c r="E345" s="1"/>
       <c r="F345" s="2"/>
       <c r="G345" s="1"/>
       <c r="H345" s="2"/>
@@ -12692,7 +12684,7 @@
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="1"/>
-      <c r="E346" s="53"/>
+      <c r="E346" s="1"/>
       <c r="F346" s="2"/>
       <c r="G346" s="1"/>
       <c r="H346" s="2"/>
@@ -12725,7 +12717,7 @@
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="1"/>
-      <c r="E347" s="53"/>
+      <c r="E347" s="1"/>
       <c r="F347" s="2"/>
       <c r="G347" s="1"/>
       <c r="H347" s="2"/>
@@ -12758,7 +12750,7 @@
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="1"/>
-      <c r="E348" s="53"/>
+      <c r="E348" s="1"/>
       <c r="F348" s="2"/>
       <c r="G348" s="1"/>
       <c r="H348" s="2"/>
@@ -12791,7 +12783,7 @@
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="1"/>
-      <c r="E349" s="53"/>
+      <c r="E349" s="1"/>
       <c r="F349" s="2"/>
       <c r="G349" s="1"/>
       <c r="H349" s="2"/>
@@ -12824,7 +12816,7 @@
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="1"/>
-      <c r="E350" s="53"/>
+      <c r="E350" s="1"/>
       <c r="F350" s="2"/>
       <c r="G350" s="1"/>
       <c r="H350" s="2"/>
@@ -12857,7 +12849,7 @@
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="1"/>
-      <c r="E351" s="53"/>
+      <c r="E351" s="1"/>
       <c r="F351" s="2"/>
       <c r="G351" s="1"/>
       <c r="H351" s="2"/>
@@ -12890,7 +12882,7 @@
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="1"/>
-      <c r="E352" s="53"/>
+      <c r="E352" s="1"/>
       <c r="F352" s="2"/>
       <c r="G352" s="1"/>
       <c r="H352" s="2"/>
@@ -12923,7 +12915,7 @@
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="1"/>
-      <c r="E353" s="53"/>
+      <c r="E353" s="1"/>
       <c r="F353" s="2"/>
       <c r="G353" s="1"/>
       <c r="H353" s="2"/>
@@ -12956,7 +12948,7 @@
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="1"/>
-      <c r="E354" s="53"/>
+      <c r="E354" s="1"/>
       <c r="F354" s="2"/>
       <c r="G354" s="1"/>
       <c r="H354" s="2"/>
@@ -12989,7 +12981,7 @@
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="1"/>
-      <c r="E355" s="53"/>
+      <c r="E355" s="1"/>
       <c r="F355" s="2"/>
       <c r="G355" s="1"/>
       <c r="H355" s="2"/>
@@ -13022,7 +13014,7 @@
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="1"/>
-      <c r="E356" s="53"/>
+      <c r="E356" s="1"/>
       <c r="F356" s="2"/>
       <c r="G356" s="1"/>
       <c r="H356" s="2"/>
@@ -13055,7 +13047,7 @@
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="1"/>
-      <c r="E357" s="53"/>
+      <c r="E357" s="1"/>
       <c r="F357" s="2"/>
       <c r="G357" s="1"/>
       <c r="H357" s="2"/>
@@ -13088,7 +13080,7 @@
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="1"/>
-      <c r="E358" s="53"/>
+      <c r="E358" s="1"/>
       <c r="F358" s="2"/>
       <c r="G358" s="1"/>
       <c r="H358" s="2"/>
@@ -13121,7 +13113,7 @@
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="1"/>
-      <c r="E359" s="53"/>
+      <c r="E359" s="1"/>
       <c r="F359" s="2"/>
       <c r="G359" s="1"/>
       <c r="H359" s="2"/>
@@ -13154,7 +13146,7 @@
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="1"/>
-      <c r="E360" s="53"/>
+      <c r="E360" s="1"/>
       <c r="F360" s="2"/>
       <c r="G360" s="1"/>
       <c r="H360" s="2"/>
@@ -13187,7 +13179,7 @@
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="1"/>
-      <c r="E361" s="53"/>
+      <c r="E361" s="1"/>
       <c r="F361" s="2"/>
       <c r="G361" s="1"/>
       <c r="H361" s="2"/>
@@ -13220,7 +13212,7 @@
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="1"/>
-      <c r="E362" s="53"/>
+      <c r="E362" s="1"/>
       <c r="F362" s="2"/>
       <c r="G362" s="1"/>
       <c r="H362" s="2"/>
@@ -13253,7 +13245,7 @@
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="1"/>
-      <c r="E363" s="53"/>
+      <c r="E363" s="1"/>
       <c r="F363" s="2"/>
       <c r="G363" s="1"/>
       <c r="H363" s="2"/>
@@ -13286,7 +13278,7 @@
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="1"/>
-      <c r="E364" s="53"/>
+      <c r="E364" s="1"/>
       <c r="F364" s="2"/>
       <c r="G364" s="1"/>
       <c r="H364" s="2"/>
@@ -13319,7 +13311,7 @@
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="1"/>
-      <c r="E365" s="53"/>
+      <c r="E365" s="1"/>
       <c r="F365" s="2"/>
       <c r="G365" s="1"/>
       <c r="H365" s="2"/>
@@ -13352,7 +13344,7 @@
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="1"/>
-      <c r="E366" s="53"/>
+      <c r="E366" s="1"/>
       <c r="F366" s="2"/>
       <c r="G366" s="1"/>
       <c r="H366" s="2"/>
@@ -13385,7 +13377,7 @@
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="1"/>
-      <c r="E367" s="53"/>
+      <c r="E367" s="1"/>
       <c r="F367" s="2"/>
       <c r="G367" s="1"/>
       <c r="H367" s="2"/>
@@ -13418,7 +13410,7 @@
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="1"/>
-      <c r="E368" s="53"/>
+      <c r="E368" s="1"/>
       <c r="F368" s="2"/>
       <c r="G368" s="1"/>
       <c r="H368" s="2"/>
@@ -13451,7 +13443,7 @@
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="1"/>
-      <c r="E369" s="53"/>
+      <c r="E369" s="1"/>
       <c r="F369" s="2"/>
       <c r="G369" s="1"/>
       <c r="H369" s="2"/>
@@ -13484,7 +13476,7 @@
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="1"/>
-      <c r="E370" s="53"/>
+      <c r="E370" s="1"/>
       <c r="F370" s="2"/>
       <c r="G370" s="1"/>
       <c r="H370" s="2"/>
@@ -13517,7 +13509,7 @@
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="1"/>
-      <c r="E371" s="53"/>
+      <c r="E371" s="1"/>
       <c r="F371" s="2"/>
       <c r="G371" s="1"/>
       <c r="H371" s="2"/>
@@ -13550,7 +13542,7 @@
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="1"/>
-      <c r="E372" s="53"/>
+      <c r="E372" s="1"/>
       <c r="F372" s="2"/>
       <c r="G372" s="1"/>
       <c r="H372" s="2"/>
@@ -13583,7 +13575,7 @@
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="1"/>
-      <c r="E373" s="53"/>
+      <c r="E373" s="1"/>
       <c r="F373" s="2"/>
       <c r="G373" s="1"/>
       <c r="H373" s="2"/>
@@ -13616,7 +13608,7 @@
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="1"/>
-      <c r="E374" s="53"/>
+      <c r="E374" s="1"/>
       <c r="F374" s="2"/>
       <c r="G374" s="1"/>
       <c r="H374" s="2"/>
@@ -13649,7 +13641,7 @@
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="1"/>
-      <c r="E375" s="53"/>
+      <c r="E375" s="1"/>
       <c r="F375" s="2"/>
       <c r="G375" s="1"/>
       <c r="H375" s="2"/>
@@ -13682,7 +13674,7 @@
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="1"/>
-      <c r="E376" s="53"/>
+      <c r="E376" s="1"/>
       <c r="F376" s="2"/>
       <c r="G376" s="1"/>
       <c r="H376" s="2"/>
@@ -13715,7 +13707,7 @@
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="1"/>
-      <c r="E377" s="53"/>
+      <c r="E377" s="1"/>
       <c r="F377" s="2"/>
       <c r="G377" s="1"/>
       <c r="H377" s="2"/>
@@ -13748,7 +13740,7 @@
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="1"/>
-      <c r="E378" s="53"/>
+      <c r="E378" s="1"/>
       <c r="F378" s="2"/>
       <c r="G378" s="1"/>
       <c r="H378" s="2"/>
@@ -13781,7 +13773,7 @@
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="1"/>
-      <c r="E379" s="53"/>
+      <c r="E379" s="1"/>
       <c r="F379" s="2"/>
       <c r="G379" s="1"/>
       <c r="H379" s="2"/>
@@ -13814,7 +13806,7 @@
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="1"/>
-      <c r="E380" s="53"/>
+      <c r="E380" s="1"/>
       <c r="F380" s="2"/>
       <c r="G380" s="1"/>
       <c r="H380" s="2"/>
@@ -13847,7 +13839,7 @@
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="1"/>
-      <c r="E381" s="53"/>
+      <c r="E381" s="1"/>
       <c r="F381" s="2"/>
       <c r="G381" s="1"/>
       <c r="H381" s="2"/>
@@ -13880,7 +13872,7 @@
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="1"/>
-      <c r="E382" s="53"/>
+      <c r="E382" s="1"/>
       <c r="F382" s="2"/>
       <c r="G382" s="1"/>
       <c r="H382" s="2"/>
@@ -13913,7 +13905,7 @@
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="1"/>
-      <c r="E383" s="53"/>
+      <c r="E383" s="1"/>
       <c r="F383" s="2"/>
       <c r="G383" s="1"/>
       <c r="H383" s="2"/>
@@ -13946,7 +13938,7 @@
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="1"/>
-      <c r="E384" s="53"/>
+      <c r="E384" s="1"/>
       <c r="F384" s="2"/>
       <c r="G384" s="1"/>
       <c r="H384" s="2"/>
@@ -13979,7 +13971,7 @@
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="1"/>
-      <c r="E385" s="53"/>
+      <c r="E385" s="1"/>
       <c r="F385" s="2"/>
       <c r="G385" s="1"/>
       <c r="H385" s="2"/>
@@ -14012,7 +14004,7 @@
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="1"/>
-      <c r="E386" s="53"/>
+      <c r="E386" s="1"/>
       <c r="F386" s="2"/>
       <c r="G386" s="1"/>
       <c r="H386" s="2"/>
@@ -14045,7 +14037,7 @@
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="1"/>
-      <c r="E387" s="53"/>
+      <c r="E387" s="1"/>
       <c r="F387" s="2"/>
       <c r="G387" s="1"/>
       <c r="H387" s="2"/>
@@ -14078,7 +14070,7 @@
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="1"/>
-      <c r="E388" s="53"/>
+      <c r="E388" s="1"/>
       <c r="F388" s="2"/>
       <c r="G388" s="1"/>
       <c r="H388" s="2"/>
@@ -14111,7 +14103,7 @@
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="1"/>
-      <c r="E389" s="53"/>
+      <c r="E389" s="1"/>
       <c r="F389" s="2"/>
       <c r="G389" s="1"/>
       <c r="H389" s="2"/>
@@ -14144,7 +14136,7 @@
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="1"/>
-      <c r="E390" s="53"/>
+      <c r="E390" s="1"/>
       <c r="F390" s="2"/>
       <c r="G390" s="1"/>
       <c r="H390" s="2"/>
@@ -14177,7 +14169,7 @@
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="1"/>
-      <c r="E391" s="53"/>
+      <c r="E391" s="1"/>
       <c r="F391" s="2"/>
       <c r="G391" s="1"/>
       <c r="H391" s="2"/>
@@ -14210,7 +14202,7 @@
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="1"/>
-      <c r="E392" s="53"/>
+      <c r="E392" s="1"/>
       <c r="F392" s="2"/>
       <c r="G392" s="1"/>
       <c r="H392" s="2"/>
@@ -14243,7 +14235,7 @@
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="1"/>
-      <c r="E393" s="53"/>
+      <c r="E393" s="1"/>
       <c r="F393" s="2"/>
       <c r="G393" s="1"/>
       <c r="H393" s="2"/>
@@ -14276,7 +14268,7 @@
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="1"/>
-      <c r="E394" s="53"/>
+      <c r="E394" s="1"/>
       <c r="F394" s="2"/>
       <c r="G394" s="1"/>
       <c r="H394" s="2"/>
@@ -14309,7 +14301,7 @@
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="1"/>
-      <c r="E395" s="53"/>
+      <c r="E395" s="1"/>
       <c r="F395" s="2"/>
       <c r="G395" s="1"/>
       <c r="H395" s="2"/>
@@ -14342,7 +14334,7 @@
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="1"/>
-      <c r="E396" s="53"/>
+      <c r="E396" s="1"/>
       <c r="F396" s="2"/>
       <c r="G396" s="1"/>
       <c r="H396" s="2"/>
@@ -14375,7 +14367,7 @@
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="1"/>
-      <c r="E397" s="53"/>
+      <c r="E397" s="1"/>
       <c r="F397" s="2"/>
       <c r="G397" s="1"/>
       <c r="H397" s="2"/>
@@ -14408,7 +14400,7 @@
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="1"/>
-      <c r="E398" s="53"/>
+      <c r="E398" s="1"/>
       <c r="F398" s="2"/>
       <c r="G398" s="1"/>
       <c r="H398" s="2"/>
@@ -14441,7 +14433,7 @@
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="1"/>
-      <c r="E399" s="53"/>
+      <c r="E399" s="1"/>
       <c r="F399" s="2"/>
       <c r="G399" s="1"/>
       <c r="H399" s="2"/>
@@ -14474,7 +14466,7 @@
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="1"/>
-      <c r="E400" s="53"/>
+      <c r="E400" s="1"/>
       <c r="F400" s="2"/>
       <c r="G400" s="1"/>
       <c r="H400" s="2"/>
@@ -14507,7 +14499,7 @@
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="1"/>
-      <c r="E401" s="53"/>
+      <c r="E401" s="1"/>
       <c r="F401" s="2"/>
       <c r="G401" s="1"/>
       <c r="H401" s="2"/>
@@ -14540,7 +14532,7 @@
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="1"/>
-      <c r="E402" s="53"/>
+      <c r="E402" s="1"/>
       <c r="F402" s="2"/>
       <c r="G402" s="1"/>
       <c r="H402" s="2"/>
@@ -14573,7 +14565,7 @@
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="1"/>
-      <c r="E403" s="53"/>
+      <c r="E403" s="1"/>
       <c r="F403" s="2"/>
       <c r="G403" s="1"/>
       <c r="H403" s="2"/>
@@ -14606,7 +14598,7 @@
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="1"/>
-      <c r="E404" s="53"/>
+      <c r="E404" s="1"/>
       <c r="F404" s="2"/>
       <c r="G404" s="1"/>
       <c r="H404" s="2"/>
@@ -14639,7 +14631,7 @@
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="1"/>
-      <c r="E405" s="53"/>
+      <c r="E405" s="1"/>
       <c r="F405" s="2"/>
       <c r="G405" s="1"/>
       <c r="H405" s="2"/>
@@ -14672,7 +14664,7 @@
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="1"/>
-      <c r="E406" s="53"/>
+      <c r="E406" s="1"/>
       <c r="F406" s="2"/>
       <c r="G406" s="1"/>
       <c r="H406" s="2"/>
@@ -14705,7 +14697,7 @@
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="1"/>
-      <c r="E407" s="53"/>
+      <c r="E407" s="1"/>
       <c r="F407" s="2"/>
       <c r="G407" s="1"/>
       <c r="H407" s="2"/>
@@ -14738,7 +14730,7 @@
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="1"/>
-      <c r="E408" s="53"/>
+      <c r="E408" s="1"/>
       <c r="F408" s="2"/>
       <c r="G408" s="1"/>
       <c r="H408" s="2"/>
@@ -14771,7 +14763,7 @@
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="1"/>
-      <c r="E409" s="53"/>
+      <c r="E409" s="1"/>
       <c r="F409" s="2"/>
       <c r="G409" s="1"/>
       <c r="H409" s="2"/>
@@ -14804,7 +14796,7 @@
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="1"/>
-      <c r="E410" s="53"/>
+      <c r="E410" s="1"/>
       <c r="F410" s="2"/>
       <c r="G410" s="1"/>
       <c r="H410" s="2"/>
@@ -14837,7 +14829,7 @@
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="1"/>
-      <c r="E411" s="53"/>
+      <c r="E411" s="1"/>
       <c r="F411" s="2"/>
       <c r="G411" s="1"/>
       <c r="H411" s="2"/>
@@ -14870,7 +14862,7 @@
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="1"/>
-      <c r="E412" s="53"/>
+      <c r="E412" s="1"/>
       <c r="F412" s="2"/>
       <c r="G412" s="1"/>
       <c r="H412" s="2"/>
@@ -14903,7 +14895,7 @@
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="1"/>
-      <c r="E413" s="53"/>
+      <c r="E413" s="1"/>
       <c r="F413" s="2"/>
       <c r="G413" s="1"/>
       <c r="H413" s="2"/>
@@ -14936,7 +14928,7 @@
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="1"/>
-      <c r="E414" s="53"/>
+      <c r="E414" s="1"/>
       <c r="F414" s="2"/>
       <c r="G414" s="1"/>
       <c r="H414" s="2"/>
@@ -14969,7 +14961,7 @@
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="1"/>
-      <c r="E415" s="53"/>
+      <c r="E415" s="1"/>
       <c r="F415" s="2"/>
       <c r="G415" s="1"/>
       <c r="H415" s="2"/>
@@ -15002,7 +14994,7 @@
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="1"/>
-      <c r="E416" s="53"/>
+      <c r="E416" s="1"/>
       <c r="F416" s="2"/>
       <c r="G416" s="1"/>
       <c r="H416" s="2"/>
@@ -15035,7 +15027,7 @@
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="1"/>
-      <c r="E417" s="53"/>
+      <c r="E417" s="1"/>
       <c r="F417" s="2"/>
       <c r="G417" s="1"/>
       <c r="H417" s="2"/>
@@ -15068,7 +15060,7 @@
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="1"/>
-      <c r="E418" s="53"/>
+      <c r="E418" s="1"/>
       <c r="F418" s="2"/>
       <c r="G418" s="1"/>
       <c r="H418" s="2"/>
@@ -15101,7 +15093,7 @@
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="1"/>
-      <c r="E419" s="53"/>
+      <c r="E419" s="1"/>
       <c r="F419" s="2"/>
       <c r="G419" s="1"/>
       <c r="H419" s="2"/>
@@ -15134,7 +15126,7 @@
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="1"/>
-      <c r="E420" s="53"/>
+      <c r="E420" s="1"/>
       <c r="F420" s="2"/>
       <c r="G420" s="1"/>
       <c r="H420" s="2"/>
@@ -15167,7 +15159,7 @@
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="1"/>
-      <c r="E421" s="53"/>
+      <c r="E421" s="1"/>
       <c r="F421" s="2"/>
       <c r="G421" s="1"/>
       <c r="H421" s="2"/>
@@ -15200,7 +15192,7 @@
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="1"/>
-      <c r="E422" s="53"/>
+      <c r="E422" s="1"/>
       <c r="F422" s="2"/>
       <c r="G422" s="1"/>
       <c r="H422" s="2"/>
@@ -15233,7 +15225,7 @@
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="1"/>
-      <c r="E423" s="53"/>
+      <c r="E423" s="1"/>
       <c r="F423" s="2"/>
       <c r="G423" s="1"/>
       <c r="H423" s="2"/>
@@ -15266,7 +15258,7 @@
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="1"/>
-      <c r="E424" s="53"/>
+      <c r="E424" s="1"/>
       <c r="F424" s="2"/>
       <c r="G424" s="1"/>
       <c r="H424" s="2"/>
@@ -15299,7 +15291,7 @@
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="1"/>
-      <c r="E425" s="53"/>
+      <c r="E425" s="1"/>
       <c r="F425" s="2"/>
       <c r="G425" s="1"/>
       <c r="H425" s="2"/>
@@ -15332,7 +15324,7 @@
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="1"/>
-      <c r="E426" s="53"/>
+      <c r="E426" s="1"/>
       <c r="F426" s="2"/>
       <c r="G426" s="1"/>
       <c r="H426" s="2"/>
@@ -15365,7 +15357,7 @@
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="1"/>
-      <c r="E427" s="53"/>
+      <c r="E427" s="1"/>
       <c r="F427" s="2"/>
       <c r="G427" s="1"/>
       <c r="H427" s="2"/>
@@ -15398,7 +15390,7 @@
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="1"/>
-      <c r="E428" s="53"/>
+      <c r="E428" s="1"/>
       <c r="F428" s="2"/>
       <c r="G428" s="1"/>
       <c r="H428" s="2"/>
@@ -15431,7 +15423,7 @@
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="1"/>
-      <c r="E429" s="53"/>
+      <c r="E429" s="1"/>
       <c r="F429" s="2"/>
       <c r="G429" s="1"/>
       <c r="H429" s="2"/>
@@ -15464,7 +15456,7 @@
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="1"/>
-      <c r="E430" s="53"/>
+      <c r="E430" s="1"/>
       <c r="F430" s="2"/>
       <c r="G430" s="1"/>
       <c r="H430" s="2"/>
@@ -15497,7 +15489,7 @@
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="1"/>
-      <c r="E431" s="53"/>
+      <c r="E431" s="1"/>
       <c r="F431" s="2"/>
       <c r="G431" s="1"/>
       <c r="H431" s="2"/>
@@ -15530,7 +15522,7 @@
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="1"/>
-      <c r="E432" s="53"/>
+      <c r="E432" s="1"/>
       <c r="F432" s="2"/>
       <c r="G432" s="1"/>
       <c r="H432" s="2"/>
@@ -15563,7 +15555,7 @@
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="1"/>
-      <c r="E433" s="53"/>
+      <c r="E433" s="1"/>
       <c r="F433" s="2"/>
       <c r="G433" s="1"/>
       <c r="H433" s="2"/>
@@ -15596,7 +15588,7 @@
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="1"/>
-      <c r="E434" s="53"/>
+      <c r="E434" s="1"/>
       <c r="F434" s="2"/>
       <c r="G434" s="1"/>
       <c r="H434" s="2"/>
@@ -15629,7 +15621,7 @@
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="1"/>
-      <c r="E435" s="53"/>
+      <c r="E435" s="1"/>
       <c r="F435" s="2"/>
       <c r="G435" s="1"/>
       <c r="H435" s="2"/>
@@ -15662,7 +15654,7 @@
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="1"/>
-      <c r="E436" s="53"/>
+      <c r="E436" s="1"/>
       <c r="F436" s="2"/>
       <c r="G436" s="1"/>
       <c r="H436" s="2"/>
@@ -15695,7 +15687,7 @@
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="1"/>
-      <c r="E437" s="53"/>
+      <c r="E437" s="1"/>
       <c r="F437" s="2"/>
       <c r="G437" s="1"/>
       <c r="H437" s="2"/>
@@ -15728,7 +15720,7 @@
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="1"/>
-      <c r="E438" s="53"/>
+      <c r="E438" s="1"/>
       <c r="F438" s="2"/>
       <c r="G438" s="1"/>
       <c r="H438" s="2"/>
@@ -15761,7 +15753,7 @@
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="1"/>
-      <c r="E439" s="53"/>
+      <c r="E439" s="1"/>
       <c r="F439" s="2"/>
       <c r="G439" s="1"/>
       <c r="H439" s="2"/>
@@ -15794,7 +15786,7 @@
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="1"/>
-      <c r="E440" s="53"/>
+      <c r="E440" s="1"/>
       <c r="F440" s="2"/>
       <c r="G440" s="1"/>
       <c r="H440" s="2"/>
@@ -15827,7 +15819,7 @@
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="1"/>
-      <c r="E441" s="53"/>
+      <c r="E441" s="1"/>
       <c r="F441" s="2"/>
       <c r="G441" s="1"/>
       <c r="H441" s="2"/>
@@ -15860,7 +15852,7 @@
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="1"/>
-      <c r="E442" s="53"/>
+      <c r="E442" s="1"/>
       <c r="F442" s="2"/>
       <c r="G442" s="1"/>
       <c r="H442" s="2"/>
@@ -15893,7 +15885,7 @@
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="1"/>
-      <c r="E443" s="53"/>
+      <c r="E443" s="1"/>
       <c r="F443" s="2"/>
       <c r="G443" s="1"/>
       <c r="H443" s="2"/>
@@ -15926,7 +15918,7 @@
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="1"/>
-      <c r="E444" s="53"/>
+      <c r="E444" s="1"/>
       <c r="F444" s="2"/>
       <c r="G444" s="1"/>
       <c r="H444" s="2"/>
@@ -15959,7 +15951,7 @@
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="1"/>
-      <c r="E445" s="53"/>
+      <c r="E445" s="1"/>
       <c r="F445" s="2"/>
       <c r="G445" s="1"/>
       <c r="H445" s="2"/>
@@ -15992,7 +15984,7 @@
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="1"/>
-      <c r="E446" s="53"/>
+      <c r="E446" s="1"/>
       <c r="F446" s="2"/>
       <c r="G446" s="1"/>
       <c r="H446" s="2"/>
@@ -16025,7 +16017,7 @@
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="1"/>
-      <c r="E447" s="53"/>
+      <c r="E447" s="1"/>
       <c r="F447" s="2"/>
       <c r="G447" s="1"/>
       <c r="H447" s="2"/>
@@ -16058,7 +16050,7 @@
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="1"/>
-      <c r="E448" s="53"/>
+      <c r="E448" s="1"/>
       <c r="F448" s="2"/>
       <c r="G448" s="1"/>
       <c r="H448" s="2"/>
@@ -16091,7 +16083,7 @@
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="1"/>
-      <c r="E449" s="53"/>
+      <c r="E449" s="1"/>
       <c r="F449" s="2"/>
       <c r="G449" s="1"/>
       <c r="H449" s="2"/>
@@ -16124,7 +16116,7 @@
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="1"/>
-      <c r="E450" s="53"/>
+      <c r="E450" s="1"/>
       <c r="F450" s="2"/>
       <c r="G450" s="1"/>
       <c r="H450" s="2"/>
@@ -16157,7 +16149,7 @@
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="1"/>
-      <c r="E451" s="53"/>
+      <c r="E451" s="1"/>
       <c r="F451" s="2"/>
       <c r="G451" s="1"/>
       <c r="H451" s="2"/>
@@ -16190,7 +16182,7 @@
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="1"/>
-      <c r="E452" s="53"/>
+      <c r="E452" s="1"/>
       <c r="F452" s="2"/>
       <c r="G452" s="1"/>
       <c r="H452" s="2"/>
@@ -16223,7 +16215,7 @@
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="1"/>
-      <c r="E453" s="53"/>
+      <c r="E453" s="1"/>
       <c r="F453" s="2"/>
       <c r="G453" s="1"/>
       <c r="H453" s="2"/>
@@ -16256,7 +16248,7 @@
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="1"/>
-      <c r="E454" s="53"/>
+      <c r="E454" s="1"/>
       <c r="F454" s="2"/>
       <c r="G454" s="1"/>
       <c r="H454" s="2"/>
@@ -16289,7 +16281,7 @@
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="1"/>
-      <c r="E455" s="53"/>
+      <c r="E455" s="1"/>
       <c r="F455" s="2"/>
       <c r="G455" s="1"/>
       <c r="H455" s="2"/>
@@ -16322,7 +16314,7 @@
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="1"/>
-      <c r="E456" s="53"/>
+      <c r="E456" s="1"/>
       <c r="F456" s="2"/>
       <c r="G456" s="1"/>
       <c r="H456" s="2"/>
@@ -16355,7 +16347,7 @@
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="1"/>
-      <c r="E457" s="53"/>
+      <c r="E457" s="1"/>
       <c r="F457" s="2"/>
       <c r="G457" s="1"/>
       <c r="H457" s="2"/>
@@ -16388,7 +16380,7 @@
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="1"/>
-      <c r="E458" s="53"/>
+      <c r="E458" s="1"/>
       <c r="F458" s="2"/>
       <c r="G458" s="1"/>
       <c r="H458" s="2"/>
@@ -16421,7 +16413,7 @@
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="1"/>
-      <c r="E459" s="53"/>
+      <c r="E459" s="1"/>
       <c r="F459" s="2"/>
       <c r="G459" s="1"/>
       <c r="H459" s="2"/>
@@ -16454,7 +16446,7 @@
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="1"/>
-      <c r="E460" s="53"/>
+      <c r="E460" s="1"/>
       <c r="F460" s="2"/>
       <c r="G460" s="1"/>
       <c r="H460" s="2"/>
@@ -16487,7 +16479,7 @@
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="1"/>
-      <c r="E461" s="53"/>
+      <c r="E461" s="1"/>
       <c r="F461" s="2"/>
       <c r="G461" s="1"/>
       <c r="H461" s="2"/>
@@ -16520,7 +16512,7 @@
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="1"/>
-      <c r="E462" s="53"/>
+      <c r="E462" s="1"/>
       <c r="F462" s="2"/>
       <c r="G462" s="1"/>
       <c r="H462" s="2"/>
@@ -16553,7 +16545,7 @@
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="1"/>
-      <c r="E463" s="53"/>
+      <c r="E463" s="1"/>
       <c r="F463" s="2"/>
       <c r="G463" s="1"/>
       <c r="H463" s="2"/>
@@ -16586,7 +16578,7 @@
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="1"/>
-      <c r="E464" s="53"/>
+      <c r="E464" s="1"/>
       <c r="F464" s="2"/>
       <c r="G464" s="1"/>
       <c r="H464" s="2"/>
@@ -16619,7 +16611,7 @@
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="1"/>
-      <c r="E465" s="53"/>
+      <c r="E465" s="1"/>
       <c r="F465" s="2"/>
       <c r="G465" s="1"/>
       <c r="H465" s="2"/>
@@ -16652,7 +16644,7 @@
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="1"/>
-      <c r="E466" s="53"/>
+      <c r="E466" s="1"/>
       <c r="F466" s="2"/>
       <c r="G466" s="1"/>
       <c r="H466" s="2"/>
@@ -16685,7 +16677,7 @@
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="1"/>
-      <c r="E467" s="53"/>
+      <c r="E467" s="1"/>
       <c r="F467" s="2"/>
       <c r="G467" s="1"/>
       <c r="H467" s="2"/>
@@ -16718,7 +16710,7 @@
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="1"/>
-      <c r="E468" s="53"/>
+      <c r="E468" s="1"/>
       <c r="F468" s="2"/>
       <c r="G468" s="1"/>
       <c r="H468" s="2"/>
@@ -16751,7 +16743,7 @@
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="1"/>
-      <c r="E469" s="53"/>
+      <c r="E469" s="1"/>
       <c r="F469" s="2"/>
       <c r="G469" s="1"/>
       <c r="H469" s="2"/>
@@ -16784,7 +16776,7 @@
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="1"/>
-      <c r="E470" s="53"/>
+      <c r="E470" s="1"/>
       <c r="F470" s="2"/>
       <c r="G470" s="1"/>
       <c r="H470" s="2"/>
@@ -16817,7 +16809,7 @@
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="1"/>
-      <c r="E471" s="53"/>
+      <c r="E471" s="1"/>
       <c r="F471" s="2"/>
       <c r="G471" s="1"/>
       <c r="H471" s="2"/>
@@ -16850,7 +16842,7 @@
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="1"/>
-      <c r="E472" s="53"/>
+      <c r="E472" s="1"/>
       <c r="F472" s="2"/>
       <c r="G472" s="1"/>
       <c r="H472" s="2"/>
@@ -16883,7 +16875,7 @@
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="1"/>
-      <c r="E473" s="53"/>
+      <c r="E473" s="1"/>
       <c r="F473" s="2"/>
       <c r="G473" s="1"/>
       <c r="H473" s="2"/>
@@ -16916,7 +16908,7 @@
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="1"/>
-      <c r="E474" s="53"/>
+      <c r="E474" s="1"/>
       <c r="F474" s="2"/>
       <c r="G474" s="1"/>
       <c r="H474" s="2"/>
@@ -16949,7 +16941,7 @@
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="1"/>
-      <c r="E475" s="53"/>
+      <c r="E475" s="1"/>
       <c r="F475" s="2"/>
       <c r="G475" s="1"/>
       <c r="H475" s="2"/>
@@ -16982,7 +16974,7 @@
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="1"/>
-      <c r="E476" s="53"/>
+      <c r="E476" s="1"/>
       <c r="F476" s="2"/>
       <c r="G476" s="1"/>
       <c r="H476" s="2"/>
@@ -17015,7 +17007,7 @@
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="1"/>
-      <c r="E477" s="53"/>
+      <c r="E477" s="1"/>
       <c r="F477" s="2"/>
       <c r="G477" s="1"/>
       <c r="H477" s="2"/>
@@ -17048,7 +17040,7 @@
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="1"/>
-      <c r="E478" s="53"/>
+      <c r="E478" s="1"/>
       <c r="F478" s="2"/>
       <c r="G478" s="1"/>
       <c r="H478" s="2"/>
@@ -17081,7 +17073,7 @@
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="1"/>
-      <c r="E479" s="53"/>
+      <c r="E479" s="1"/>
       <c r="F479" s="2"/>
       <c r="G479" s="1"/>
       <c r="H479" s="2"/>
@@ -17114,7 +17106,7 @@
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="1"/>
-      <c r="E480" s="53"/>
+      <c r="E480" s="1"/>
       <c r="F480" s="2"/>
       <c r="G480" s="1"/>
       <c r="H480" s="2"/>
@@ -17147,7 +17139,7 @@
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="1"/>
-      <c r="E481" s="53"/>
+      <c r="E481" s="1"/>
       <c r="F481" s="2"/>
       <c r="G481" s="1"/>
       <c r="H481" s="2"/>
@@ -17180,7 +17172,7 @@
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="1"/>
-      <c r="E482" s="53"/>
+      <c r="E482" s="1"/>
       <c r="F482" s="2"/>
       <c r="G482" s="1"/>
       <c r="H482" s="2"/>
@@ -17213,7 +17205,7 @@
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="1"/>
-      <c r="E483" s="53"/>
+      <c r="E483" s="1"/>
       <c r="F483" s="2"/>
       <c r="G483" s="1"/>
       <c r="H483" s="2"/>
@@ -17246,7 +17238,7 @@
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="1"/>
-      <c r="E484" s="53"/>
+      <c r="E484" s="1"/>
       <c r="F484" s="2"/>
       <c r="G484" s="1"/>
       <c r="H484" s="2"/>
@@ -17279,7 +17271,7 @@
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="1"/>
-      <c r="E485" s="53"/>
+      <c r="E485" s="1"/>
       <c r="F485" s="2"/>
       <c r="G485" s="1"/>
       <c r="H485" s="2"/>
@@ -17312,7 +17304,7 @@
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="1"/>
-      <c r="E486" s="53"/>
+      <c r="E486" s="1"/>
       <c r="F486" s="2"/>
       <c r="G486" s="1"/>
       <c r="H486" s="2"/>
@@ -17345,7 +17337,7 @@
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="1"/>
-      <c r="E487" s="53"/>
+      <c r="E487" s="1"/>
       <c r="F487" s="2"/>
       <c r="G487" s="1"/>
       <c r="H487" s="2"/>
@@ -17378,7 +17370,7 @@
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="1"/>
-      <c r="E488" s="53"/>
+      <c r="E488" s="1"/>
       <c r="F488" s="2"/>
       <c r="G488" s="1"/>
       <c r="H488" s="2"/>
@@ -17411,7 +17403,7 @@
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="1"/>
-      <c r="E489" s="53"/>
+      <c r="E489" s="1"/>
       <c r="F489" s="2"/>
       <c r="G489" s="1"/>
       <c r="H489" s="2"/>
@@ -17444,7 +17436,7 @@
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="1"/>
-      <c r="E490" s="53"/>
+      <c r="E490" s="1"/>
       <c r="F490" s="2"/>
       <c r="G490" s="1"/>
       <c r="H490" s="2"/>
@@ -17477,7 +17469,7 @@
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="1"/>
-      <c r="E491" s="53"/>
+      <c r="E491" s="1"/>
       <c r="F491" s="2"/>
       <c r="G491" s="1"/>
       <c r="H491" s="2"/>
@@ -17510,7 +17502,7 @@
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="1"/>
-      <c r="E492" s="53"/>
+      <c r="E492" s="1"/>
       <c r="F492" s="2"/>
       <c r="G492" s="1"/>
       <c r="H492" s="2"/>
@@ -17543,7 +17535,7 @@
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="1"/>
-      <c r="E493" s="53"/>
+      <c r="E493" s="1"/>
       <c r="F493" s="2"/>
       <c r="G493" s="1"/>
       <c r="H493" s="2"/>
@@ -17576,7 +17568,7 @@
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="1"/>
-      <c r="E494" s="53"/>
+      <c r="E494" s="1"/>
       <c r="F494" s="2"/>
       <c r="G494" s="1"/>
       <c r="H494" s="2"/>
@@ -17609,7 +17601,7 @@
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="1"/>
-      <c r="E495" s="53"/>
+      <c r="E495" s="1"/>
       <c r="F495" s="2"/>
       <c r="G495" s="1"/>
       <c r="H495" s="2"/>
@@ -17642,7 +17634,7 @@
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="1"/>
-      <c r="E496" s="53"/>
+      <c r="E496" s="1"/>
       <c r="F496" s="2"/>
       <c r="G496" s="1"/>
       <c r="H496" s="2"/>
@@ -17675,7 +17667,7 @@
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="1"/>
-      <c r="E497" s="53"/>
+      <c r="E497" s="1"/>
       <c r="F497" s="2"/>
       <c r="G497" s="1"/>
       <c r="H497" s="2"/>
@@ -17708,7 +17700,7 @@
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="1"/>
-      <c r="E498" s="53"/>
+      <c r="E498" s="1"/>
       <c r="F498" s="2"/>
       <c r="G498" s="1"/>
       <c r="H498" s="2"/>
@@ -17741,7 +17733,7 @@
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="1"/>
-      <c r="E499" s="53"/>
+      <c r="E499" s="1"/>
       <c r="F499" s="2"/>
       <c r="G499" s="1"/>
       <c r="H499" s="2"/>
@@ -17774,7 +17766,7 @@
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="1"/>
-      <c r="E500" s="53"/>
+      <c r="E500" s="1"/>
       <c r="F500" s="2"/>
       <c r="G500" s="1"/>
       <c r="H500" s="2"/>
@@ -17807,7 +17799,7 @@
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="1"/>
-      <c r="E501" s="53"/>
+      <c r="E501" s="1"/>
       <c r="F501" s="2"/>
       <c r="G501" s="1"/>
       <c r="H501" s="2"/>
@@ -17840,7 +17832,7 @@
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="1"/>
-      <c r="E502" s="53"/>
+      <c r="E502" s="1"/>
       <c r="F502" s="2"/>
       <c r="G502" s="1"/>
       <c r="H502" s="2"/>
@@ -17873,7 +17865,7 @@
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="1"/>
-      <c r="E503" s="53"/>
+      <c r="E503" s="1"/>
       <c r="F503" s="2"/>
       <c r="G503" s="1"/>
       <c r="H503" s="2"/>
@@ -17906,7 +17898,7 @@
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="1"/>
-      <c r="E504" s="53"/>
+      <c r="E504" s="1"/>
       <c r="F504" s="2"/>
       <c r="G504" s="1"/>
       <c r="H504" s="2"/>
@@ -17939,7 +17931,7 @@
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="1"/>
-      <c r="E505" s="53"/>
+      <c r="E505" s="1"/>
       <c r="F505" s="2"/>
       <c r="G505" s="1"/>
       <c r="H505" s="2"/>
@@ -17972,7 +17964,7 @@
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="1"/>
-      <c r="E506" s="53"/>
+      <c r="E506" s="1"/>
       <c r="F506" s="2"/>
       <c r="G506" s="1"/>
       <c r="H506" s="2"/>
@@ -18005,7 +17997,7 @@
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="1"/>
-      <c r="E507" s="53"/>
+      <c r="E507" s="1"/>
       <c r="F507" s="2"/>
       <c r="G507" s="1"/>
       <c r="H507" s="2"/>
@@ -18038,7 +18030,7 @@
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="1"/>
-      <c r="E508" s="53"/>
+      <c r="E508" s="1"/>
       <c r="F508" s="2"/>
       <c r="G508" s="1"/>
       <c r="H508" s="2"/>
@@ -18071,7 +18063,7 @@
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="1"/>
-      <c r="E509" s="53"/>
+      <c r="E509" s="1"/>
       <c r="F509" s="2"/>
       <c r="G509" s="1"/>
       <c r="H509" s="2"/>
@@ -18104,7 +18096,7 @@
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="1"/>
-      <c r="E510" s="53"/>
+      <c r="E510" s="1"/>
       <c r="F510" s="2"/>
       <c r="G510" s="1"/>
       <c r="H510" s="2"/>
@@ -18137,7 +18129,7 @@
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="1"/>
-      <c r="E511" s="53"/>
+      <c r="E511" s="1"/>
       <c r="F511" s="2"/>
       <c r="G511" s="1"/>
       <c r="H511" s="2"/>
@@ -18170,7 +18162,7 @@
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="1"/>
-      <c r="E512" s="53"/>
+      <c r="E512" s="1"/>
       <c r="F512" s="2"/>
       <c r="G512" s="1"/>
       <c r="H512" s="2"/>
@@ -18203,7 +18195,7 @@
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="1"/>
-      <c r="E513" s="53"/>
+      <c r="E513" s="1"/>
       <c r="F513" s="2"/>
       <c r="G513" s="1"/>
       <c r="H513" s="2"/>
@@ -18236,7 +18228,7 @@
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="1"/>
-      <c r="E514" s="53"/>
+      <c r="E514" s="1"/>
       <c r="F514" s="2"/>
       <c r="G514" s="1"/>
       <c r="H514" s="2"/>
@@ -18269,7 +18261,7 @@
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="1"/>
-      <c r="E515" s="53"/>
+      <c r="E515" s="1"/>
       <c r="F515" s="2"/>
       <c r="G515" s="1"/>
       <c r="H515" s="2"/>
@@ -18302,7 +18294,7 @@
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="1"/>
-      <c r="E516" s="53"/>
+      <c r="E516" s="1"/>
       <c r="F516" s="2"/>
       <c r="G516" s="1"/>
       <c r="H516" s="2"/>
@@ -18335,7 +18327,7 @@
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="1"/>
-      <c r="E517" s="53"/>
+      <c r="E517" s="1"/>
       <c r="F517" s="2"/>
       <c r="G517" s="1"/>
       <c r="H517" s="2"/>
@@ -18368,7 +18360,7 @@
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="1"/>
-      <c r="E518" s="53"/>
+      <c r="E518" s="1"/>
       <c r="F518" s="2"/>
       <c r="G518" s="1"/>
       <c r="H518" s="2"/>
@@ -18401,7 +18393,7 @@
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="1"/>
-      <c r="E519" s="53"/>
+      <c r="E519" s="1"/>
       <c r="F519" s="2"/>
       <c r="G519" s="1"/>
       <c r="H519" s="2"/>
@@ -18434,7 +18426,7 @@
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="1"/>
-      <c r="E520" s="53"/>
+      <c r="E520" s="1"/>
       <c r="F520" s="2"/>
       <c r="G520" s="1"/>
       <c r="H520" s="2"/>
@@ -18467,7 +18459,7 @@
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="1"/>
-      <c r="E521" s="53"/>
+      <c r="E521" s="1"/>
       <c r="F521" s="2"/>
       <c r="G521" s="1"/>
       <c r="H521" s="2"/>
@@ -18500,7 +18492,7 @@
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="1"/>
-      <c r="E522" s="53"/>
+      <c r="E522" s="1"/>
       <c r="F522" s="2"/>
       <c r="G522" s="1"/>
       <c r="H522" s="2"/>
@@ -18533,7 +18525,7 @@
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="1"/>
-      <c r="E523" s="53"/>
+      <c r="E523" s="1"/>
       <c r="F523" s="2"/>
       <c r="G523" s="1"/>
       <c r="H523" s="2"/>
@@ -18566,7 +18558,7 @@
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="1"/>
-      <c r="E524" s="53"/>
+      <c r="E524" s="1"/>
       <c r="F524" s="2"/>
       <c r="G524" s="1"/>
       <c r="H524" s="2"/>
@@ -18599,7 +18591,7 @@
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="1"/>
-      <c r="E525" s="53"/>
+      <c r="E525" s="1"/>
       <c r="F525" s="2"/>
       <c r="G525" s="1"/>
       <c r="H525" s="2"/>
@@ -18632,7 +18624,7 @@
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="1"/>
-      <c r="E526" s="53"/>
+      <c r="E526" s="1"/>
       <c r="F526" s="2"/>
       <c r="G526" s="1"/>
       <c r="H526" s="2"/>
@@ -18665,7 +18657,7 @@
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="1"/>
-      <c r="E527" s="53"/>
+      <c r="E527" s="1"/>
       <c r="F527" s="2"/>
       <c r="G527" s="1"/>
       <c r="H527" s="2"/>
@@ -18698,7 +18690,7 @@
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="1"/>
-      <c r="E528" s="53"/>
+      <c r="E528" s="1"/>
       <c r="F528" s="2"/>
       <c r="G528" s="1"/>
       <c r="H528" s="2"/>
@@ -18731,7 +18723,7 @@
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="1"/>
-      <c r="E529" s="53"/>
+      <c r="E529" s="1"/>
       <c r="F529" s="2"/>
       <c r="G529" s="1"/>
       <c r="H529" s="2"/>
@@ -18764,7 +18756,7 @@
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="1"/>
-      <c r="E530" s="53"/>
+      <c r="E530" s="1"/>
       <c r="F530" s="2"/>
       <c r="G530" s="1"/>
       <c r="H530" s="2"/>
@@ -18797,7 +18789,7 @@
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="1"/>
-      <c r="E531" s="53"/>
+      <c r="E531" s="1"/>
       <c r="F531" s="2"/>
       <c r="G531" s="1"/>
       <c r="H531" s="2"/>
@@ -18830,7 +18822,7 @@
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="1"/>
-      <c r="E532" s="53"/>
+      <c r="E532" s="1"/>
       <c r="F532" s="2"/>
       <c r="G532" s="1"/>
       <c r="H532" s="2"/>
@@ -18863,7 +18855,7 @@
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="1"/>
-      <c r="E533" s="53"/>
+      <c r="E533" s="1"/>
       <c r="F533" s="2"/>
       <c r="G533" s="1"/>
       <c r="H533" s="2"/>
@@ -18896,7 +18888,7 @@
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="1"/>
-      <c r="E534" s="53"/>
+      <c r="E534" s="1"/>
       <c r="F534" s="2"/>
       <c r="G534" s="1"/>
       <c r="H534" s="2"/>
@@ -18929,7 +18921,7 @@
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="1"/>
-      <c r="E535" s="53"/>
+      <c r="E535" s="1"/>
       <c r="F535" s="2"/>
       <c r="G535" s="1"/>
       <c r="H535" s="2"/>
@@ -18962,7 +18954,7 @@
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="1"/>
-      <c r="E536" s="53"/>
+      <c r="E536" s="1"/>
       <c r="F536" s="2"/>
       <c r="G536" s="1"/>
       <c r="H536" s="2"/>
@@ -18995,7 +18987,7 @@
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="1"/>
-      <c r="E537" s="53"/>
+      <c r="E537" s="1"/>
       <c r="F537" s="2"/>
       <c r="G537" s="1"/>
       <c r="H537" s="2"/>
@@ -19028,7 +19020,7 @@
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="1"/>
-      <c r="E538" s="53"/>
+      <c r="E538" s="1"/>
       <c r="F538" s="2"/>
       <c r="G538" s="1"/>
       <c r="H538" s="2"/>
@@ -19061,7 +19053,7 @@
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="1"/>
-      <c r="E539" s="53"/>
+      <c r="E539" s="1"/>
       <c r="F539" s="2"/>
       <c r="G539" s="1"/>
       <c r="H539" s="2"/>
@@ -19094,7 +19086,7 @@
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="1"/>
-      <c r="E540" s="53"/>
+      <c r="E540" s="1"/>
       <c r="F540" s="2"/>
       <c r="G540" s="1"/>
       <c r="H540" s="2"/>
@@ -19127,7 +19119,7 @@
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="1"/>
-      <c r="E541" s="53"/>
+      <c r="E541" s="1"/>
       <c r="F541" s="2"/>
       <c r="G541" s="1"/>
       <c r="H541" s="2"/>
@@ -19160,7 +19152,7 @@
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="1"/>
-      <c r="E542" s="53"/>
+      <c r="E542" s="1"/>
       <c r="F542" s="2"/>
       <c r="G542" s="1"/>
       <c r="H542" s="2"/>
@@ -19193,7 +19185,7 @@
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="1"/>
-      <c r="E543" s="53"/>
+      <c r="E543" s="1"/>
       <c r="F543" s="2"/>
       <c r="G543" s="1"/>
       <c r="H543" s="2"/>
@@ -19226,7 +19218,7 @@
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="1"/>
-      <c r="E544" s="53"/>
+      <c r="E544" s="1"/>
       <c r="F544" s="2"/>
       <c r="G544" s="1"/>
       <c r="H544" s="2"/>
@@ -19259,7 +19251,7 @@
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="1"/>
-      <c r="E545" s="53"/>
+      <c r="E545" s="1"/>
       <c r="F545" s="2"/>
       <c r="G545" s="1"/>
       <c r="H545" s="2"/>
@@ -19292,7 +19284,7 @@
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="1"/>
-      <c r="E546" s="53"/>
+      <c r="E546" s="1"/>
       <c r="F546" s="2"/>
       <c r="G546" s="1"/>
       <c r="H546" s="2"/>
@@ -19325,7 +19317,7 @@
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="1"/>
-      <c r="E547" s="53"/>
+      <c r="E547" s="1"/>
       <c r="F547" s="2"/>
       <c r="G547" s="1"/>
       <c r="H547" s="2"/>
@@ -19358,7 +19350,7 @@
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="1"/>
-      <c r="E548" s="53"/>
+      <c r="E548" s="1"/>
       <c r="F548" s="2"/>
       <c r="G548" s="1"/>
       <c r="H548" s="2"/>
@@ -19391,7 +19383,7 @@
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="1"/>
-      <c r="E549" s="53"/>
+      <c r="E549" s="1"/>
       <c r="F549" s="2"/>
       <c r="G549" s="1"/>
       <c r="H549" s="2"/>
@@ -19424,7 +19416,7 @@
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="1"/>
-      <c r="E550" s="53"/>
+      <c r="E550" s="1"/>
       <c r="F550" s="2"/>
       <c r="G550" s="1"/>
       <c r="H550" s="2"/>
@@ -19457,7 +19449,7 @@
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="1"/>
-      <c r="E551" s="53"/>
+      <c r="E551" s="1"/>
       <c r="F551" s="2"/>
       <c r="G551" s="1"/>
       <c r="H551" s="2"/>
@@ -19490,7 +19482,7 @@
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="1"/>
-      <c r="E552" s="53"/>
+      <c r="E552" s="1"/>
       <c r="F552" s="2"/>
       <c r="G552" s="1"/>
       <c r="H552" s="2"/>
@@ -19523,7 +19515,7 @@
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="1"/>
-      <c r="E553" s="53"/>
+      <c r="E553" s="1"/>
       <c r="F553" s="2"/>
       <c r="G553" s="1"/>
       <c r="H553" s="2"/>
@@ -19556,7 +19548,7 @@
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="1"/>
-      <c r="E554" s="53"/>
+      <c r="E554" s="1"/>
       <c r="F554" s="2"/>
       <c r="G554" s="1"/>
       <c r="H554" s="2"/>
@@ -19589,7 +19581,7 @@
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="1"/>
-      <c r="E555" s="53"/>
+      <c r="E555" s="1"/>
       <c r="F555" s="2"/>
       <c r="G555" s="1"/>
       <c r="H555" s="2"/>
@@ -19622,7 +19614,7 @@
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="1"/>
-      <c r="E556" s="53"/>
+      <c r="E556" s="1"/>
       <c r="F556" s="2"/>
       <c r="G556" s="1"/>
       <c r="H556" s="2"/>
@@ -19655,7 +19647,7 @@
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="1"/>
-      <c r="E557" s="53"/>
+      <c r="E557" s="1"/>
       <c r="F557" s="2"/>
       <c r="G557" s="1"/>
       <c r="H557" s="2"/>
@@ -19688,7 +19680,7 @@
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="1"/>
-      <c r="E558" s="53"/>
+      <c r="E558" s="1"/>
       <c r="F558" s="2"/>
       <c r="G558" s="1"/>
       <c r="H558" s="2"/>
@@ -19721,7 +19713,7 @@
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="1"/>
-      <c r="E559" s="53"/>
+      <c r="E559" s="1"/>
       <c r="F559" s="2"/>
       <c r="G559" s="1"/>
       <c r="H559" s="2"/>
@@ -19754,7 +19746,7 @@
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="1"/>
-      <c r="E560" s="53"/>
+      <c r="E560" s="1"/>
       <c r="F560" s="2"/>
       <c r="G560" s="1"/>
       <c r="H560" s="2"/>
@@ -19787,7 +19779,7 @@
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="1"/>
-      <c r="E561" s="53"/>
+      <c r="E561" s="1"/>
       <c r="F561" s="2"/>
       <c r="G561" s="1"/>
       <c r="H561" s="2"/>
@@ -19820,7 +19812,7 @@
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="1"/>
-      <c r="E562" s="53"/>
+      <c r="E562" s="1"/>
       <c r="F562" s="2"/>
       <c r="G562" s="1"/>
       <c r="H562" s="2"/>
@@ -19853,7 +19845,7 @@
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="1"/>
-      <c r="E563" s="53"/>
+      <c r="E563" s="1"/>
       <c r="F563" s="2"/>
       <c r="G563" s="1"/>
       <c r="H563" s="2"/>
@@ -19886,7 +19878,7 @@
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="1"/>
-      <c r="E564" s="53"/>
+      <c r="E564" s="1"/>
       <c r="F564" s="2"/>
       <c r="G564" s="1"/>
       <c r="H564" s="2"/>
@@ -19919,7 +19911,7 @@
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="1"/>
-      <c r="E565" s="53"/>
+      <c r="E565" s="1"/>
       <c r="F565" s="2"/>
       <c r="G565" s="1"/>
       <c r="H565" s="2"/>
@@ -19952,7 +19944,7 @@
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="1"/>
-      <c r="E566" s="53"/>
+      <c r="E566" s="1"/>
       <c r="F566" s="2"/>
       <c r="G566" s="1"/>
       <c r="H566" s="2"/>
@@ -19985,7 +19977,7 @@
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="1"/>
-      <c r="E567" s="53"/>
+      <c r="E567" s="1"/>
       <c r="F567" s="2"/>
       <c r="G567" s="1"/>
       <c r="H567" s="2"/>
@@ -20018,7 +20010,7 @@
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="1"/>
-      <c r="E568" s="53"/>
+      <c r="E568" s="1"/>
       <c r="F568" s="2"/>
       <c r="G568" s="1"/>
       <c r="H568" s="2"/>
@@ -20051,7 +20043,7 @@
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="1"/>
-      <c r="E569" s="53"/>
+      <c r="E569" s="1"/>
       <c r="F569" s="2"/>
       <c r="G569" s="1"/>
       <c r="H569" s="2"/>
@@ -20084,7 +20076,7 @@
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="1"/>
-      <c r="E570" s="53"/>
+      <c r="E570" s="1"/>
       <c r="F570" s="2"/>
       <c r="G570" s="1"/>
       <c r="H570" s="2"/>
@@ -20117,7 +20109,7 @@
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="1"/>
-      <c r="E571" s="53"/>
+      <c r="E571" s="1"/>
       <c r="F571" s="2"/>
       <c r="G571" s="1"/>
       <c r="H571" s="2"/>
@@ -20150,7 +20142,7 @@
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="1"/>
-      <c r="E572" s="53"/>
+      <c r="E572" s="1"/>
       <c r="F572" s="2"/>
       <c r="G572" s="1"/>
       <c r="H572" s="2"/>
@@ -20183,7 +20175,7 @@
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="1"/>
-      <c r="E573" s="53"/>
+      <c r="E573" s="1"/>
       <c r="F573" s="2"/>
       <c r="G573" s="1"/>
       <c r="H573" s="2"/>
@@ -20216,7 +20208,7 @@
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="1"/>
-      <c r="E574" s="53"/>
+      <c r="E574" s="1"/>
       <c r="F574" s="2"/>
       <c r="G574" s="1"/>
       <c r="H574" s="2"/>
@@ -20249,7 +20241,7 @@
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="1"/>
-      <c r="E575" s="53"/>
+      <c r="E575" s="1"/>
       <c r="F575" s="2"/>
       <c r="G575" s="1"/>
       <c r="H575" s="2"/>
@@ -20282,7 +20274,7 @@
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="1"/>
-      <c r="E576" s="53"/>
+      <c r="E576" s="1"/>
       <c r="F576" s="2"/>
       <c r="G576" s="1"/>
       <c r="H576" s="2"/>
@@ -20315,7 +20307,7 @@
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="1"/>
-      <c r="E577" s="53"/>
+      <c r="E577" s="1"/>
       <c r="F577" s="2"/>
       <c r="G577" s="1"/>
       <c r="H577" s="2"/>
@@ -20348,7 +20340,7 @@
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="1"/>
-      <c r="E578" s="53"/>
+      <c r="E578" s="1"/>
       <c r="F578" s="2"/>
       <c r="G578" s="1"/>
       <c r="H578" s="2"/>
@@ -20381,7 +20373,7 @@
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="1"/>
-      <c r="E579" s="53"/>
+      <c r="E579" s="1"/>
       <c r="F579" s="2"/>
       <c r="G579" s="1"/>
       <c r="H579" s="2"/>
@@ -20414,7 +20406,7 @@
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="1"/>
-      <c r="E580" s="53"/>
+      <c r="E580" s="1"/>
       <c r="F580" s="2"/>
       <c r="G580" s="1"/>
       <c r="H580" s="2"/>
@@ -20447,7 +20439,7 @@
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="1"/>
-      <c r="E581" s="53"/>
+      <c r="E581" s="1"/>
       <c r="F581" s="2"/>
       <c r="G581" s="1"/>
       <c r="H581" s="2"/>
@@ -20480,7 +20472,7 @@
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="1"/>
-      <c r="E582" s="53"/>
+      <c r="E582" s="1"/>
       <c r="F582" s="2"/>
       <c r="G582" s="1"/>
       <c r="H582" s="2"/>
@@ -20513,7 +20505,7 @@
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="1"/>
-      <c r="E583" s="53"/>
+      <c r="E583" s="1"/>
       <c r="F583" s="2"/>
       <c r="G583" s="1"/>
       <c r="H583" s="2"/>
@@ -20546,7 +20538,7 @@
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="1"/>
-      <c r="E584" s="53"/>
+      <c r="E584" s="1"/>
       <c r="F584" s="2"/>
       <c r="G584" s="1"/>
       <c r="H584" s="2"/>
@@ -20579,7 +20571,7 @@
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="1"/>
-      <c r="E585" s="53"/>
+      <c r="E585" s="1"/>
       <c r="F585" s="2"/>
       <c r="G585" s="1"/>
       <c r="H585" s="2"/>
@@ -20612,7 +20604,7 @@
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="1"/>
-      <c r="E586" s="53"/>
+      <c r="E586" s="1"/>
       <c r="F586" s="2"/>
       <c r="G586" s="1"/>
       <c r="H586" s="2"/>
@@ -20645,7 +20637,7 @@
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="1"/>
-      <c r="E587" s="53"/>
+      <c r="E587" s="1"/>
       <c r="F587" s="2"/>
       <c r="G587" s="1"/>
       <c r="H587" s="2"/>
@@ -20678,7 +20670,7 @@
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="1"/>
-      <c r="E588" s="53"/>
+      <c r="E588" s="1"/>
       <c r="F588" s="2"/>
       <c r="G588" s="1"/>
       <c r="H588" s="2"/>
@@ -20711,7 +20703,7 @@
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="1"/>
-      <c r="E589" s="53"/>
+      <c r="E589" s="1"/>
       <c r="F589" s="2"/>
       <c r="G589" s="1"/>
       <c r="H589" s="2"/>
@@ -20744,7 +20736,7 @@
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="1"/>
-      <c r="E590" s="53"/>
+      <c r="E590" s="1"/>
       <c r="F590" s="2"/>
       <c r="G590" s="1"/>
       <c r="H590" s="2"/>
@@ -20777,7 +20769,7 @@
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="1"/>
-      <c r="E591" s="53"/>
+      <c r="E591" s="1"/>
       <c r="F591" s="2"/>
       <c r="G591" s="1"/>
       <c r="H591" s="2"/>
@@ -20810,7 +20802,7 @@
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="1"/>
-      <c r="E592" s="53"/>
+      <c r="E592" s="1"/>
       <c r="F592" s="2"/>
       <c r="G592" s="1"/>
       <c r="H592" s="2"/>
@@ -20843,7 +20835,7 @@
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="1"/>
-      <c r="E593" s="53"/>
+      <c r="E593" s="1"/>
       <c r="F593" s="2"/>
       <c r="G593" s="1"/>
       <c r="H593" s="2"/>
@@ -20876,7 +20868,7 @@
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="1"/>
-      <c r="E594" s="53"/>
+      <c r="E594" s="1"/>
       <c r="F594" s="2"/>
       <c r="G594" s="1"/>
       <c r="H594" s="2"/>
@@ -20909,7 +20901,7 @@
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="1"/>
-      <c r="E595" s="53"/>
+      <c r="E595" s="1"/>
       <c r="F595" s="2"/>
       <c r="G595" s="1"/>
       <c r="H595" s="2"/>
@@ -20942,7 +20934,7 @@
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="1"/>
-      <c r="E596" s="53"/>
+      <c r="E596" s="1"/>
       <c r="F596" s="2"/>
       <c r="G596" s="1"/>
       <c r="H596" s="2"/>
@@ -20975,7 +20967,7 @@
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="1"/>
-      <c r="E597" s="53"/>
+      <c r="E597" s="1"/>
       <c r="F597" s="2"/>
       <c r="G597" s="1"/>
       <c r="H597" s="2"/>
@@ -21008,7 +21000,7 @@
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="1"/>
-      <c r="E598" s="53"/>
+      <c r="E598" s="1"/>
       <c r="F598" s="2"/>
       <c r="G598" s="1"/>
       <c r="H598" s="2"/>
@@ -21041,7 +21033,7 @@
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="1"/>
-      <c r="E599" s="53"/>
+      <c r="E599" s="1"/>
       <c r="F599" s="2"/>
       <c r="G599" s="1"/>
       <c r="H599" s="2"/>
@@ -21074,7 +21066,7 @@
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="1"/>
-      <c r="E600" s="53"/>
+      <c r="E600" s="1"/>
       <c r="F600" s="2"/>
       <c r="G600" s="1"/>
       <c r="H600" s="2"/>
@@ -21107,7 +21099,7 @@
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="1"/>
-      <c r="E601" s="53"/>
+      <c r="E601" s="1"/>
       <c r="F601" s="2"/>
       <c r="G601" s="1"/>
       <c r="H601" s="2"/>
@@ -21140,7 +21132,7 @@
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="1"/>
-      <c r="E602" s="53"/>
+      <c r="E602" s="1"/>
       <c r="F602" s="2"/>
       <c r="G602" s="1"/>
       <c r="H602" s="2"/>
@@ -21173,7 +21165,7 @@
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="1"/>
-      <c r="E603" s="53"/>
+      <c r="E603" s="1"/>
       <c r="F603" s="2"/>
       <c r="G603" s="1"/>
       <c r="H603" s="2"/>
@@ -21206,7 +21198,7 @@
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="1"/>
-      <c r="E604" s="53"/>
+      <c r="E604" s="1"/>
       <c r="F604" s="2"/>
       <c r="G604" s="1"/>
       <c r="H604" s="2"/>
@@ -21239,7 +21231,7 @@
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="1"/>
-      <c r="E605" s="53"/>
+      <c r="E605" s="1"/>
       <c r="F605" s="2"/>
       <c r="G605" s="1"/>
       <c r="H605" s="2"/>
@@ -21272,7 +21264,7 @@
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="1"/>
-      <c r="E606" s="53"/>
+      <c r="E606" s="1"/>
       <c r="F606" s="2"/>
       <c r="G606" s="1"/>
       <c r="H606" s="2"/>
@@ -21305,7 +21297,7 @@
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="1"/>
-      <c r="E607" s="53"/>
+      <c r="E607" s="1"/>
       <c r="F607" s="2"/>
       <c r="G607" s="1"/>
       <c r="H607" s="2"/>
@@ -21338,7 +21330,7 @@
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="1"/>
-      <c r="E608" s="53"/>
+      <c r="E608" s="1"/>
       <c r="F608" s="2"/>
       <c r="G608" s="1"/>
       <c r="H608" s="2"/>
@@ -21371,7 +21363,7 @@
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="1"/>
-      <c r="E609" s="53"/>
+      <c r="E609" s="1"/>
       <c r="F609" s="2"/>
       <c r="G609" s="1"/>
       <c r="H609" s="2"/>
@@ -21404,7 +21396,7 @@
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="1"/>
-      <c r="E610" s="53"/>
+      <c r="E610" s="1"/>
       <c r="F610" s="2"/>
       <c r="G610" s="1"/>
       <c r="H610" s="2"/>
@@ -21437,7 +21429,7 @@
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="1"/>
-      <c r="E611" s="53"/>
+      <c r="E611" s="1"/>
       <c r="F611" s="2"/>
       <c r="G611" s="1"/>
       <c r="H611" s="2"/>
@@ -21470,7 +21462,7 @@
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="1"/>
-      <c r="E612" s="53"/>
+      <c r="E612" s="1"/>
       <c r="F612" s="2"/>
       <c r="G612" s="1"/>
       <c r="H612" s="2"/>
@@ -21503,7 +21495,7 @@
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="1"/>
-      <c r="E613" s="53"/>
+      <c r="E613" s="1"/>
       <c r="F613" s="2"/>
       <c r="G613" s="1"/>
       <c r="H613" s="2"/>
@@ -21536,7 +21528,7 @@
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="1"/>
-      <c r="E614" s="53"/>
+      <c r="E614" s="1"/>
       <c r="F614" s="2"/>
       <c r="G614" s="1"/>
       <c r="H614" s="2"/>
@@ -21569,7 +21561,7 @@
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="1"/>
-      <c r="E615" s="53"/>
+      <c r="E615" s="1"/>
       <c r="F615" s="2"/>
       <c r="G615" s="1"/>
       <c r="H615" s="2"/>
@@ -21602,7 +21594,7 @@
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="1"/>
-      <c r="E616" s="53"/>
+      <c r="E616" s="1"/>
       <c r="F616" s="2"/>
       <c r="G616" s="1"/>
       <c r="H616" s="2"/>
@@ -21635,7 +21627,7 @@
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="1"/>
-      <c r="E617" s="53"/>
+      <c r="E617" s="1"/>
       <c r="F617" s="2"/>
       <c r="G617" s="1"/>
       <c r="H617" s="2"/>
@@ -21668,7 +21660,7 @@
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="1"/>
-      <c r="E618" s="53"/>
+      <c r="E618" s="1"/>
       <c r="F618" s="2"/>
       <c r="G618" s="1"/>
       <c r="H618" s="2"/>
@@ -21701,7 +21693,7 @@
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="1"/>
-      <c r="E619" s="53"/>
+      <c r="E619" s="1"/>
       <c r="F619" s="2"/>
       <c r="G619" s="1"/>
       <c r="H619" s="2"/>
@@ -21734,7 +21726,7 @@
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="1"/>
-      <c r="E620" s="53"/>
+      <c r="E620" s="1"/>
       <c r="F620" s="2"/>
       <c r="G620" s="1"/>
       <c r="H620" s="2"/>
@@ -21767,7 +21759,7 @@
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="1"/>
-      <c r="E621" s="53"/>
+      <c r="E621" s="1"/>
       <c r="F621" s="2"/>
       <c r="G621" s="1"/>
       <c r="H621" s="2"/>
@@ -21800,7 +21792,7 @@
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="1"/>
-      <c r="E622" s="53"/>
+      <c r="E622" s="1"/>
       <c r="F622" s="2"/>
       <c r="G622" s="1"/>
       <c r="H622" s="2"/>
@@ -21833,7 +21825,7 @@
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="1"/>
-      <c r="E623" s="53"/>
+      <c r="E623" s="1"/>
       <c r="F623" s="2"/>
       <c r="G623" s="1"/>
       <c r="H623" s="2"/>
@@ -21866,7 +21858,7 @@
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="1"/>
-      <c r="E624" s="53"/>
+      <c r="E624" s="1"/>
       <c r="F624" s="2"/>
       <c r="G624" s="1"/>
       <c r="H624" s="2"/>
@@ -21899,7 +21891,7 @@
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="1"/>
-      <c r="E625" s="53"/>
+      <c r="E625" s="1"/>
       <c r="F625" s="2"/>
       <c r="G625" s="1"/>
       <c r="H625" s="2"/>
@@ -21932,7 +21924,7 @@
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="1"/>
-      <c r="E626" s="53"/>
+      <c r="E626" s="1"/>
       <c r="F626" s="2"/>
       <c r="G626" s="1"/>
       <c r="H626" s="2"/>
@@ -21965,7 +21957,7 @@
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="1"/>
-      <c r="E627" s="53"/>
+      <c r="E627" s="1"/>
       <c r="F627" s="2"/>
       <c r="G627" s="1"/>
       <c r="H627" s="2"/>
@@ -21998,7 +21990,7 @@
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="1"/>
-      <c r="E628" s="53"/>
+      <c r="E628" s="1"/>
       <c r="F628" s="2"/>
       <c r="G628" s="1"/>
       <c r="H628" s="2"/>
@@ -22031,7 +22023,7 @@
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="1"/>
-      <c r="E629" s="53"/>
+      <c r="E629" s="1"/>
       <c r="F629" s="2"/>
       <c r="G629" s="1"/>
       <c r="H629" s="2"/>
@@ -22064,7 +22056,7 @@
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="1"/>
-      <c r="E630" s="53"/>
+      <c r="E630" s="1"/>
       <c r="F630" s="2"/>
       <c r="G630" s="1"/>
       <c r="H630" s="2"/>
@@ -22097,7 +22089,7 @@
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="1"/>
-      <c r="E631" s="53"/>
+      <c r="E631" s="1"/>
       <c r="F631" s="2"/>
       <c r="G631" s="1"/>
       <c r="H631" s="2"/>
@@ -22130,7 +22122,7 @@
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="1"/>
-      <c r="E632" s="53"/>
+      <c r="E632" s="1"/>
       <c r="F632" s="2"/>
       <c r="G632" s="1"/>
       <c r="H632" s="2"/>
@@ -22163,7 +22155,7 @@
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="1"/>
-      <c r="E633" s="53"/>
+      <c r="E633" s="1"/>
       <c r="F633" s="2"/>
       <c r="G633" s="1"/>
       <c r="H633" s="2"/>
@@ -22196,7 +22188,7 @@
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="1"/>
-      <c r="E634" s="53"/>
+      <c r="E634" s="1"/>
       <c r="F634" s="2"/>
       <c r="G634" s="1"/>
       <c r="H634" s="2"/>
@@ -22229,7 +22221,7 @@
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="1"/>
-      <c r="E635" s="53"/>
+      <c r="E635" s="1"/>
       <c r="F635" s="2"/>
       <c r="G635" s="1"/>
       <c r="H635" s="2"/>
@@ -22262,7 +22254,7 @@
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="1"/>
-      <c r="E636" s="53"/>
+      <c r="E636" s="1"/>
       <c r="F636" s="2"/>
       <c r="G636" s="1"/>
       <c r="H636" s="2"/>
@@ -22295,7 +22287,7 @@
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="1"/>
-      <c r="E637" s="53"/>
+      <c r="E637" s="1"/>
       <c r="F637" s="2"/>
       <c r="G637" s="1"/>
       <c r="H637" s="2"/>
@@ -22328,7 +22320,7 @@
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="1"/>
-      <c r="E638" s="53"/>
+      <c r="E638" s="1"/>
       <c r="F638" s="2"/>
       <c r="G638" s="1"/>
       <c r="H638" s="2"/>
@@ -22361,7 +22353,7 @@
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="1"/>
-      <c r="E639" s="53"/>
+      <c r="E639" s="1"/>
       <c r="F639" s="2"/>
       <c r="G639" s="1"/>
       <c r="H639" s="2"/>
@@ -22394,7 +22386,7 @@
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="1"/>
-      <c r="E640" s="53"/>
+      <c r="E640" s="1"/>
       <c r="F640" s="2"/>
       <c r="G640" s="1"/>
       <c r="H640" s="2"/>
@@ -22427,7 +22419,7 @@
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="1"/>
-      <c r="E641" s="53"/>
+      <c r="E641" s="1"/>
       <c r="F641" s="2"/>
       <c r="G641" s="1"/>
       <c r="H641" s="2"/>
@@ -22460,7 +22452,7 @@
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="1"/>
-      <c r="E642" s="53"/>
+      <c r="E642" s="1"/>
       <c r="F642" s="2"/>
       <c r="G642" s="1"/>
       <c r="H642" s="2"/>
@@ -22493,7 +22485,7 @@
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="1"/>
-      <c r="E643" s="53"/>
+      <c r="E643" s="1"/>
       <c r="F643" s="2"/>
       <c r="G643" s="1"/>
       <c r="H643" s="2"/>
@@ -22526,7 +22518,7 @@
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="1"/>
-      <c r="E644" s="53"/>
+      <c r="E644" s="1"/>
       <c r="F644" s="2"/>
       <c r="G644" s="1"/>
       <c r="H644" s="2"/>
@@ -22559,7 +22551,7 @@
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="1"/>
-      <c r="E645" s="53"/>
+      <c r="E645" s="1"/>
       <c r="F645" s="2"/>
       <c r="G645" s="1"/>
       <c r="H645" s="2"/>
@@ -22592,7 +22584,7 @@
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="1"/>
-      <c r="E646" s="53"/>
+      <c r="E646" s="1"/>
       <c r="F646" s="2"/>
       <c r="G646" s="1"/>
       <c r="H646" s="2"/>
@@ -22625,7 +22617,7 @@
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="1"/>
-      <c r="E647" s="53"/>
+      <c r="E647" s="1"/>
       <c r="F647" s="2"/>
       <c r="G647" s="1"/>
       <c r="H647" s="2"/>
@@ -22658,7 +22650,7 @@
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="1"/>
-      <c r="E648" s="53"/>
+      <c r="E648" s="1"/>
       <c r="F648" s="2"/>
       <c r="G648" s="1"/>
       <c r="H648" s="2"/>
@@ -22691,7 +22683,7 @@
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="1"/>
-      <c r="E649" s="53"/>
+      <c r="E649" s="1"/>
       <c r="F649" s="2"/>
       <c r="G649" s="1"/>
       <c r="H649" s="2"/>
@@ -22724,7 +22716,7 @@
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="1"/>
-      <c r="E650" s="53"/>
+      <c r="E650" s="1"/>
       <c r="F650" s="2"/>
       <c r="G650" s="1"/>
       <c r="H650" s="2"/>
@@ -22757,7 +22749,7 @@
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="1"/>
-      <c r="E651" s="53"/>
+      <c r="E651" s="1"/>
       <c r="F651" s="2"/>
       <c r="G651" s="1"/>
       <c r="H651" s="2"/>
@@ -22790,7 +22782,7 @@
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="1"/>
-      <c r="E652" s="53"/>
+      <c r="E652" s="1"/>
       <c r="F652" s="2"/>
       <c r="G652" s="1"/>
       <c r="H652" s="2"/>
@@ -22823,7 +22815,7 @@
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="1"/>
-      <c r="E653" s="53"/>
+      <c r="E653" s="1"/>
       <c r="F653" s="2"/>
       <c r="G653" s="1"/>
       <c r="H653" s="2"/>
@@ -22856,7 +22848,7 @@
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="1"/>
-      <c r="E654" s="53"/>
+      <c r="E654" s="1"/>
       <c r="F654" s="2"/>
       <c r="G654" s="1"/>
       <c r="H654" s="2"/>
@@ -22889,7 +22881,7 @@
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="1"/>
-      <c r="E655" s="53"/>
+      <c r="E655" s="1"/>
       <c r="F655" s="2"/>
       <c r="G655" s="1"/>
       <c r="H655" s="2"/>
@@ -22922,7 +22914,7 @@
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="1"/>
-      <c r="E656" s="53"/>
+      <c r="E656" s="1"/>
       <c r="F656" s="2"/>
       <c r="G656" s="1"/>
       <c r="H656" s="2"/>
@@ -22955,7 +22947,7 @@
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="1"/>
-      <c r="E657" s="53"/>
+      <c r="E657" s="1"/>
       <c r="F657" s="2"/>
       <c r="G657" s="1"/>
       <c r="H657" s="2"/>
@@ -22988,7 +22980,7 @@
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="1"/>
-      <c r="E658" s="53"/>
+      <c r="E658" s="1"/>
       <c r="F658" s="2"/>
       <c r="G658" s="1"/>
       <c r="H658" s="2"/>
@@ -23021,7 +23013,7 @@
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="1"/>
-      <c r="E659" s="53"/>
+      <c r="E659" s="1"/>
       <c r="F659" s="2"/>
       <c r="G659" s="1"/>
       <c r="H659" s="2"/>
@@ -23054,7 +23046,7 @@
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="1"/>
-      <c r="E660" s="53"/>
+      <c r="E660" s="1"/>
       <c r="F660" s="2"/>
       <c r="G660" s="1"/>
       <c r="H660" s="2"/>
@@ -23087,7 +23079,7 @@
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="1"/>
-      <c r="E661" s="53"/>
+      <c r="E661" s="1"/>
       <c r="F661" s="2"/>
       <c r="G661" s="1"/>
       <c r="H661" s="2"/>
@@ -23120,7 +23112,7 @@
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="1"/>
-      <c r="E662" s="53"/>
+      <c r="E662" s="1"/>
       <c r="F662" s="2"/>
       <c r="G662" s="1"/>
       <c r="H662" s="2"/>
@@ -23153,7 +23145,7 @@
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="1"/>
-      <c r="E663" s="53"/>
+      <c r="E663" s="1"/>
       <c r="F663" s="2"/>
       <c r="G663" s="1"/>
       <c r="H663" s="2"/>
@@ -23186,7 +23178,7 @@
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="1"/>
-      <c r="E664" s="53"/>
+      <c r="E664" s="1"/>
       <c r="F664" s="2"/>
       <c r="G664" s="1"/>
       <c r="H664" s="2"/>
@@ -23219,7 +23211,7 @@
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="1"/>
-      <c r="E665" s="53"/>
+      <c r="E665" s="1"/>
       <c r="F665" s="2"/>
       <c r="G665" s="1"/>
       <c r="H665" s="2"/>
@@ -23252,7 +23244,7 @@
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="1"/>
-      <c r="E666" s="53"/>
+      <c r="E666" s="1"/>
       <c r="F666" s="2"/>
       <c r="G666" s="1"/>
       <c r="H666" s="2"/>
@@ -23285,7 +23277,7 @@
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="1"/>
-      <c r="E667" s="53"/>
+      <c r="E667" s="1"/>
       <c r="F667" s="2"/>
       <c r="G667" s="1"/>
       <c r="H667" s="2"/>
@@ -23318,7 +23310,7 @@
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="1"/>
-      <c r="E668" s="53"/>
+      <c r="E668" s="1"/>
       <c r="F668" s="2"/>
       <c r="G668" s="1"/>
       <c r="H668" s="2"/>
@@ -23351,7 +23343,7 @@
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="1"/>
-      <c r="E669" s="53"/>
+      <c r="E669" s="1"/>
       <c r="F669" s="2"/>
       <c r="G669" s="1"/>
       <c r="H669" s="2"/>
@@ -23384,7 +23376,7 @@
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="1"/>
-      <c r="E670" s="53"/>
+      <c r="E670" s="1"/>
       <c r="F670" s="2"/>
       <c r="G670" s="1"/>
       <c r="H670" s="2"/>
@@ -23417,7 +23409,7 @@
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="1"/>
-      <c r="E671" s="53"/>
+      <c r="E671" s="1"/>
       <c r="F671" s="2"/>
       <c r="G671" s="1"/>
       <c r="H671" s="2"/>
@@ -23450,7 +23442,7 @@
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="1"/>
-      <c r="E672" s="53"/>
+      <c r="E672" s="1"/>
       <c r="F672" s="2"/>
       <c r="G672" s="1"/>
       <c r="H672" s="2"/>
@@ -23483,7 +23475,7 @@
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="1"/>
-      <c r="E673" s="53"/>
+      <c r="E673" s="1"/>
       <c r="F673" s="2"/>
       <c r="G673" s="1"/>
       <c r="H673" s="2"/>
@@ -23516,7 +23508,7 @@
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="1"/>
-      <c r="E674" s="53"/>
+      <c r="E674" s="1"/>
       <c r="F674" s="2"/>
       <c r="G674" s="1"/>
       <c r="H674" s="2"/>
@@ -23549,7 +23541,7 @@
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="1"/>
-      <c r="E675" s="53"/>
+      <c r="E675" s="1"/>
       <c r="F675" s="2"/>
       <c r="G675" s="1"/>
       <c r="H675" s="2"/>
@@ -23582,7 +23574,7 @@
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="1"/>
-      <c r="E676" s="53"/>
+      <c r="E676" s="1"/>
       <c r="F676" s="2"/>
       <c r="G676" s="1"/>
       <c r="H676" s="2"/>
@@ -23615,7 +23607,7 @@
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="1"/>
-      <c r="E677" s="53"/>
+      <c r="E677" s="1"/>
       <c r="F677" s="2"/>
       <c r="G677" s="1"/>
       <c r="H677" s="2"/>
@@ -23648,7 +23640,7 @@
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="1"/>
-      <c r="E678" s="53"/>
+      <c r="E678" s="1"/>
       <c r="F678" s="2"/>
       <c r="G678" s="1"/>
       <c r="H678" s="2"/>
@@ -23681,7 +23673,7 @@
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="1"/>
-      <c r="E679" s="53"/>
+      <c r="E679" s="1"/>
       <c r="F679" s="2"/>
       <c r="G679" s="1"/>
       <c r="H679" s="2"/>
@@ -23714,7 +23706,7 @@
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="1"/>
-      <c r="E680" s="53"/>
+      <c r="E680" s="1"/>
       <c r="F680" s="2"/>
       <c r="G680" s="1"/>
       <c r="H680" s="2"/>
@@ -23747,7 +23739,7 @@
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="1"/>
-      <c r="E681" s="53"/>
+      <c r="E681" s="1"/>
       <c r="F681" s="2"/>
       <c r="G681" s="1"/>
       <c r="H681" s="2"/>
@@ -23780,7 +23772,7 @@
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="1"/>
-      <c r="E682" s="53"/>
+      <c r="E682" s="1"/>
       <c r="F682" s="2"/>
       <c r="G682" s="1"/>
       <c r="H682" s="2"/>
@@ -23813,7 +23805,7 @@
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="1"/>
-      <c r="E683" s="53"/>
+      <c r="E683" s="1"/>
       <c r="F683" s="2"/>
       <c r="G683" s="1"/>
       <c r="H683" s="2"/>
@@ -23846,7 +23838,7 @@
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="1"/>
-      <c r="E684" s="53"/>
+      <c r="E684" s="1"/>
       <c r="F684" s="2"/>
       <c r="G684" s="1"/>
       <c r="H684" s="2"/>
@@ -23879,7 +23871,7 @@
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="1"/>
-      <c r="E685" s="53"/>
+      <c r="E685" s="1"/>
       <c r="F685" s="2"/>
       <c r="G685" s="1"/>
       <c r="H685" s="2"/>
@@ -23912,7 +23904,7 @@
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="1"/>
-      <c r="E686" s="53"/>
+      <c r="E686" s="1"/>
       <c r="F686" s="2"/>
       <c r="G686" s="1"/>
       <c r="H686" s="2"/>
@@ -23945,7 +23937,7 @@
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="1"/>
-      <c r="E687" s="53"/>
+      <c r="E687" s="1"/>
       <c r="F687" s="2"/>
       <c r="G687" s="1"/>
       <c r="H687" s="2"/>
@@ -23978,7 +23970,7 @@
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="1"/>
-      <c r="E688" s="53"/>
+      <c r="E688" s="1"/>
       <c r="F688" s="2"/>
       <c r="G688" s="1"/>
       <c r="H688" s="2"/>
@@ -24011,7 +24003,7 @@
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="1"/>
-      <c r="E689" s="53"/>
+      <c r="E689" s="1"/>
       <c r="F689" s="2"/>
       <c r="G689" s="1"/>
       <c r="H689" s="2"/>
@@ -24044,7 +24036,7 @@
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="1"/>
-      <c r="E690" s="53"/>
+      <c r="E690" s="1"/>
       <c r="F690" s="2"/>
       <c r="G690" s="1"/>
       <c r="H690" s="2"/>
@@ -24077,7 +24069,7 @@
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="1"/>
-      <c r="E691" s="53"/>
+      <c r="E691" s="1"/>
       <c r="F691" s="2"/>
       <c r="G691" s="1"/>
       <c r="H691" s="2"/>
@@ -24110,7 +24102,7 @@
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="1"/>
-      <c r="E692" s="53"/>
+      <c r="E692" s="1"/>
       <c r="F692" s="2"/>
       <c r="G692" s="1"/>
       <c r="H692" s="2"/>
@@ -24143,7 +24135,7 @@
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="1"/>
-      <c r="E693" s="53"/>
+      <c r="E693" s="1"/>
       <c r="F693" s="2"/>
       <c r="G693" s="1"/>
       <c r="H693" s="2"/>
@@ -24176,7 +24168,7 @@
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="1"/>
-      <c r="E694" s="53"/>
+      <c r="E694" s="1"/>
       <c r="F694" s="2"/>
       <c r="G694" s="1"/>
       <c r="H694" s="2"/>
@@ -24209,7 +24201,7 @@
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="1"/>
-      <c r="E695" s="53"/>
+      <c r="E695" s="1"/>
       <c r="F695" s="2"/>
       <c r="G695" s="1"/>
       <c r="H695" s="2"/>
@@ -24242,7 +24234,7 @@
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="1"/>
-      <c r="E696" s="53"/>
+      <c r="E696" s="1"/>
       <c r="F696" s="2"/>
       <c r="G696" s="1"/>
       <c r="H696" s="2"/>
@@ -24275,7 +24267,7 @@
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="1"/>
-      <c r="E697" s="53"/>
+      <c r="E697" s="1"/>
       <c r="F697" s="2"/>
       <c r="G697" s="1"/>
       <c r="H697" s="2"/>
@@ -24308,7 +24300,7 @@
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="1"/>
-      <c r="E698" s="53"/>
+      <c r="E698" s="1"/>
       <c r="F698" s="2"/>
       <c r="G698" s="1"/>
       <c r="H698" s="2"/>
@@ -24341,7 +24333,7 @@
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="1"/>
-      <c r="E699" s="53"/>
+      <c r="E699" s="1"/>
       <c r="F699" s="2"/>
       <c r="G699" s="1"/>
       <c r="H699" s="2"/>
@@ -24374,7 +24366,7 @@
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="1"/>
-      <c r="E700" s="53"/>
+      <c r="E700" s="1"/>
       <c r="F700" s="2"/>
       <c r="G700" s="1"/>
       <c r="H700" s="2"/>
@@ -24407,7 +24399,7 @@
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="1"/>
-      <c r="E701" s="53"/>
+      <c r="E701" s="1"/>
       <c r="F701" s="2"/>
       <c r="G701" s="1"/>
       <c r="H701" s="2"/>
@@ -24440,7 +24432,7 @@
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="1"/>
-      <c r="E702" s="53"/>
+      <c r="E702" s="1"/>
       <c r="F702" s="2"/>
       <c r="G702" s="1"/>
       <c r="H702" s="2"/>
@@ -24473,7 +24465,7 @@
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="1"/>
-      <c r="E703" s="53"/>
+      <c r="E703" s="1"/>
       <c r="F703" s="2"/>
       <c r="G703" s="1"/>
       <c r="H703" s="2"/>
@@ -24506,7 +24498,7 @@
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="1"/>
-      <c r="E704" s="53"/>
+      <c r="E704" s="1"/>
       <c r="F704" s="2"/>
       <c r="G704" s="1"/>
       <c r="H704" s="2"/>
@@ -24539,7 +24531,7 @@
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="1"/>
-      <c r="E705" s="53"/>
+      <c r="E705" s="1"/>
       <c r="F705" s="2"/>
       <c r="G705" s="1"/>
       <c r="H705" s="2"/>
@@ -24572,7 +24564,7 @@
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="1"/>
-      <c r="E706" s="53"/>
+      <c r="E706" s="1"/>
       <c r="F706" s="2"/>
       <c r="G706" s="1"/>
       <c r="H706" s="2"/>
@@ -24605,7 +24597,7 @@
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="1"/>
-      <c r="E707" s="53"/>
+      <c r="E707" s="1"/>
       <c r="F707" s="2"/>
       <c r="G707" s="1"/>
       <c r="H707" s="2"/>
@@ -24638,7 +24630,7 @@
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="1"/>
-      <c r="E708" s="53"/>
+      <c r="E708" s="1"/>
       <c r="F708" s="2"/>
       <c r="G708" s="1"/>
       <c r="H708" s="2"/>
@@ -24671,7 +24663,7 @@
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="1"/>
-      <c r="E709" s="53"/>
+      <c r="E709" s="1"/>
       <c r="F709" s="2"/>
       <c r="G709" s="1"/>
       <c r="H709" s="2"/>
@@ -24704,7 +24696,7 @@
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="1"/>
-      <c r="E710" s="53"/>
+      <c r="E710" s="1"/>
       <c r="F710" s="2"/>
       <c r="G710" s="1"/>
       <c r="H710" s="2"/>
@@ -24737,7 +24729,7 @@
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="1"/>
-      <c r="E711" s="53"/>
+      <c r="E711" s="1"/>
       <c r="F711" s="2"/>
       <c r="G711" s="1"/>
       <c r="H711" s="2"/>
@@ -24770,7 +24762,7 @@
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="1"/>
-      <c r="E712" s="53"/>
+      <c r="E712" s="1"/>
       <c r="F712" s="2"/>
       <c r="G712" s="1"/>
       <c r="H712" s="2"/>
@@ -24803,7 +24795,7 @@
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="1"/>
-      <c r="E713" s="53"/>
+      <c r="E713" s="1"/>
       <c r="F713" s="2"/>
       <c r="G713" s="1"/>
       <c r="H713" s="2"/>
@@ -24836,7 +24828,7 @@
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="1"/>
-      <c r="E714" s="53"/>
+      <c r="E714" s="1"/>
       <c r="F714" s="2"/>
       <c r="G714" s="1"/>
       <c r="H714" s="2"/>
@@ -24869,7 +24861,7 @@
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="1"/>
-      <c r="E715" s="53"/>
+      <c r="E715" s="1"/>
       <c r="F715" s="2"/>
       <c r="G715" s="1"/>
       <c r="H715" s="2"/>
@@ -24902,7 +24894,7 @@
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="1"/>
-      <c r="E716" s="53"/>
+      <c r="E716" s="1"/>
       <c r="F716" s="2"/>
       <c r="G716" s="1"/>
       <c r="H716" s="2"/>
@@ -24935,7 +24927,7 @@
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="1"/>
-      <c r="E717" s="53"/>
+      <c r="E717" s="1"/>
       <c r="F717" s="2"/>
       <c r="G717" s="1"/>
       <c r="H717" s="2"/>
@@ -24968,7 +24960,7 @@
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="1"/>
-      <c r="E718" s="53"/>
+      <c r="E718" s="1"/>
       <c r="F718" s="2"/>
       <c r="G718" s="1"/>
       <c r="H718" s="2"/>
@@ -25001,7 +24993,7 @@
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="1"/>
-      <c r="E719" s="53"/>
+      <c r="E719" s="1"/>
       <c r="F719" s="2"/>
       <c r="G719" s="1"/>
       <c r="H719" s="2"/>
@@ -25034,7 +25026,7 @@
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="1"/>
-      <c r="E720" s="53"/>
+      <c r="E720" s="1"/>
       <c r="F720" s="2"/>
       <c r="G720" s="1"/>
       <c r="H720" s="2"/>
@@ -25067,7 +25059,7 @@
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="1"/>
-      <c r="E721" s="53"/>
+      <c r="E721" s="1"/>
       <c r="F721" s="2"/>
       <c r="G721" s="1"/>
       <c r="H721" s="2"/>
@@ -25100,7 +25092,7 @@
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="1"/>
-      <c r="E722" s="53"/>
+      <c r="E722" s="1"/>
       <c r="F722" s="2"/>
       <c r="G722" s="1"/>
       <c r="H722" s="2"/>
@@ -25133,7 +25125,7 @@
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="1"/>
-      <c r="E723" s="53"/>
+      <c r="E723" s="1"/>
       <c r="F723" s="2"/>
       <c r="G723" s="1"/>
       <c r="H723" s="2"/>
@@ -25166,7 +25158,7 @@
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="1"/>
-      <c r="E724" s="53"/>
+      <c r="E724" s="1"/>
       <c r="F724" s="2"/>
       <c r="G724" s="1"/>
       <c r="H724" s="2"/>
@@ -25199,7 +25191,7 @@
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="1"/>
-      <c r="E725" s="53"/>
+      <c r="E725" s="1"/>
       <c r="F725" s="2"/>
       <c r="G725" s="1"/>
       <c r="H725" s="2"/>
@@ -25232,7 +25224,7 @@
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="1"/>
-      <c r="E726" s="53"/>
+      <c r="E726" s="1"/>
       <c r="F726" s="2"/>
       <c r="G726" s="1"/>
       <c r="H726" s="2"/>
@@ -25265,7 +25257,7 @@
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="1"/>
-      <c r="E727" s="53"/>
+      <c r="E727" s="1"/>
       <c r="F727" s="2"/>
       <c r="G727" s="1"/>
       <c r="H727" s="2"/>
@@ -25298,7 +25290,7 @@
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="1"/>
-      <c r="E728" s="53"/>
+      <c r="E728" s="1"/>
       <c r="F728" s="2"/>
       <c r="G728" s="1"/>
       <c r="H728" s="2"/>
@@ -25331,7 +25323,7 @@
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="1"/>
-      <c r="E729" s="53"/>
+      <c r="E729" s="1"/>
       <c r="F729" s="2"/>
       <c r="G729" s="1"/>
       <c r="H729" s="2"/>
@@ -25364,7 +25356,7 @@
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="1"/>
-      <c r="E730" s="53"/>
+      <c r="E730" s="1"/>
       <c r="F730" s="2"/>
       <c r="G730" s="1"/>
       <c r="H730" s="2"/>
@@ -25397,7 +25389,7 @@
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="1"/>
-      <c r="E731" s="53"/>
+      <c r="E731" s="1"/>
       <c r="F731" s="2"/>
       <c r="G731" s="1"/>
       <c r="H731" s="2"/>
@@ -25430,7 +25422,7 @@
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="1"/>
-      <c r="E732" s="53"/>
+      <c r="E732" s="1"/>
       <c r="F732" s="2"/>
       <c r="G732" s="1"/>
       <c r="H732" s="2"/>
@@ -25463,7 +25455,7 @@
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="1"/>
-      <c r="E733" s="53"/>
+      <c r="E733" s="1"/>
       <c r="F733" s="2"/>
       <c r="G733" s="1"/>
       <c r="H733" s="2"/>
@@ -25496,7 +25488,7 @@
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="1"/>
-      <c r="E734" s="53"/>
+      <c r="E734" s="1"/>
       <c r="F734" s="2"/>
       <c r="G734" s="1"/>
       <c r="H734" s="2"/>
@@ -25529,7 +25521,7 @@
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="1"/>
-      <c r="E735" s="53"/>
+      <c r="E735" s="1"/>
       <c r="F735" s="2"/>
       <c r="G735" s="1"/>
       <c r="H735" s="2"/>
@@ -25562,7 +25554,7 @@
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="1"/>
-      <c r="E736" s="53"/>
+      <c r="E736" s="1"/>
       <c r="F736" s="2"/>
       <c r="G736" s="1"/>
       <c r="H736" s="2"/>
@@ -25595,7 +25587,7 @@
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="1"/>
-      <c r="E737" s="53"/>
+      <c r="E737" s="1"/>
       <c r="F737" s="2"/>
       <c r="G737" s="1"/>
       <c r="H737" s="2"/>
@@ -25628,7 +25620,7 @@
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="1"/>
-      <c r="E738" s="53"/>
+      <c r="E738" s="1"/>
       <c r="F738" s="2"/>
       <c r="G738" s="1"/>
       <c r="H738" s="2"/>
@@ -25661,7 +25653,7 @@
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="1"/>
-      <c r="E739" s="53"/>
+      <c r="E739" s="1"/>
       <c r="F739" s="2"/>
       <c r="G739" s="1"/>
       <c r="H739" s="2"/>
@@ -25694,7 +25686,7 @@
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="1"/>
-      <c r="E740" s="53"/>
+      <c r="E740" s="1"/>
       <c r="F740" s="2"/>
       <c r="G740" s="1"/>
       <c r="H740" s="2"/>
@@ -25727,7 +25719,7 @@
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="1"/>
-      <c r="E741" s="53"/>
+      <c r="E741" s="1"/>
       <c r="F741" s="2"/>
       <c r="G741" s="1"/>
       <c r="H741" s="2"/>
@@ -25760,7 +25752,7 @@
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="1"/>
-      <c r="E742" s="53"/>
+      <c r="E742" s="1"/>
       <c r="F742" s="2"/>
       <c r="G742" s="1"/>
       <c r="H742" s="2"/>
@@ -25793,7 +25785,7 @@
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="1"/>
-      <c r="E743" s="53"/>
+      <c r="E743" s="1"/>
       <c r="F743" s="2"/>
       <c r="G743" s="1"/>
       <c r="H743" s="2"/>
@@ -25826,7 +25818,7 @@
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="1"/>
-      <c r="E744" s="53"/>
+      <c r="E744" s="1"/>
       <c r="F744" s="2"/>
       <c r="G744" s="1"/>
       <c r="H744" s="2"/>
@@ -25859,7 +25851,7 @@
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="1"/>
-      <c r="E745" s="53"/>
+      <c r="E745" s="1"/>
       <c r="F745" s="2"/>
       <c r="G745" s="1"/>
       <c r="H745" s="2"/>
@@ -25892,7 +25884,7 @@
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="1"/>
-      <c r="E746" s="53"/>
+      <c r="E746" s="1"/>
       <c r="F746" s="2"/>
       <c r="G746" s="1"/>
       <c r="H746" s="2"/>
@@ -25925,7 +25917,7 @@
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="1"/>
-      <c r="E747" s="53"/>
+      <c r="E747" s="1"/>
       <c r="F747" s="2"/>
       <c r="G747" s="1"/>
       <c r="H747" s="2"/>
@@ -25958,7 +25950,7 @@
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="1"/>
-      <c r="E748" s="53"/>
+      <c r="E748" s="1"/>
       <c r="F748" s="2"/>
       <c r="G748" s="1"/>
       <c r="H748" s="2"/>
@@ -25991,7 +25983,7 @@
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="1"/>
-      <c r="E749" s="53"/>
+      <c r="E749" s="1"/>
       <c r="F749" s="2"/>
       <c r="G749" s="1"/>
       <c r="H749" s="2"/>
@@ -26024,7 +26016,7 @@
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="1"/>
-      <c r="E750" s="53"/>
+      <c r="E750" s="1"/>
       <c r="F750" s="2"/>
       <c r="G750" s="1"/>
       <c r="H750" s="2"/>
@@ -26057,7 +26049,7 @@
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="1"/>
-      <c r="E751" s="53"/>
+      <c r="E751" s="1"/>
       <c r="F751" s="2"/>
       <c r="G751" s="1"/>
       <c r="H751" s="2"/>
@@ -26090,7 +26082,7 @@
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="1"/>
-      <c r="E752" s="53"/>
+      <c r="E752" s="1"/>
       <c r="F752" s="2"/>
       <c r="G752" s="1"/>
       <c r="H752" s="2"/>
@@ -26123,7 +26115,7 @@
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="1"/>
-      <c r="E753" s="53"/>
+      <c r="E753" s="1"/>
       <c r="F753" s="2"/>
       <c r="G753" s="1"/>
       <c r="H753" s="2"/>
@@ -26156,7 +26148,7 @@
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="1"/>
-      <c r="E754" s="53"/>
+      <c r="E754" s="1"/>
       <c r="F754" s="2"/>
       <c r="G754" s="1"/>
       <c r="H754" s="2"/>
@@ -26189,7 +26181,7 @@
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="1"/>
-      <c r="E755" s="53"/>
+      <c r="E755" s="1"/>
       <c r="F755" s="2"/>
       <c r="G755" s="1"/>
       <c r="H755" s="2"/>
@@ -26222,7 +26214,7 @@
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="1"/>
-      <c r="E756" s="53"/>
+      <c r="E756" s="1"/>
       <c r="F756" s="2"/>
       <c r="G756" s="1"/>
       <c r="H756" s="2"/>
@@ -26255,7 +26247,7 @@
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="1"/>
-      <c r="E757" s="53"/>
+      <c r="E757" s="1"/>
       <c r="F757" s="2"/>
       <c r="G757" s="1"/>
       <c r="H757" s="2"/>
@@ -26288,7 +26280,7 @@
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="1"/>
-      <c r="E758" s="53"/>
+      <c r="E758" s="1"/>
       <c r="F758" s="2"/>
       <c r="G758" s="1"/>
       <c r="H758" s="2"/>
@@ -26321,7 +26313,7 @@
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="1"/>
-      <c r="E759" s="53"/>
+      <c r="E759" s="1"/>
       <c r="F759" s="2"/>
       <c r="G759" s="1"/>
       <c r="H759" s="2"/>
@@ -26354,7 +26346,7 @@
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="1"/>
-      <c r="E760" s="53"/>
+      <c r="E760" s="1"/>
       <c r="F760" s="2"/>
       <c r="G760" s="1"/>
       <c r="H760" s="2"/>
@@ -26387,7 +26379,7 @@
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="1"/>
-      <c r="E761" s="53"/>
+      <c r="E761" s="1"/>
       <c r="F761" s="2"/>
       <c r="G761" s="1"/>
       <c r="H761" s="2"/>
@@ -26420,7 +26412,7 @@
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="1"/>
-      <c r="E762" s="53"/>
+      <c r="E762" s="1"/>
       <c r="F762" s="2"/>
       <c r="G762" s="1"/>
       <c r="H762" s="2"/>
@@ -26453,7 +26445,7 @@
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="1"/>
-      <c r="E763" s="53"/>
+      <c r="E763" s="1"/>
       <c r="F763" s="2"/>
       <c r="G763" s="1"/>
       <c r="H763" s="2"/>
@@ -26486,7 +26478,7 @@
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="1"/>
-      <c r="E764" s="53"/>
+      <c r="E764" s="1"/>
       <c r="F764" s="2"/>
       <c r="G764" s="1"/>
       <c r="H764" s="2"/>
@@ -26519,7 +26511,7 @@
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="1"/>
-      <c r="E765" s="53"/>
+      <c r="E765" s="1"/>
       <c r="F765" s="2"/>
       <c r="G765" s="1"/>
       <c r="H765" s="2"/>
@@ -26552,7 +26544,7 @@
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="1"/>
-      <c r="E766" s="53"/>
+      <c r="E766" s="1"/>
       <c r="F766" s="2"/>
       <c r="G766" s="1"/>
       <c r="H766" s="2"/>
@@ -26585,7 +26577,7 @@
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="1"/>
-      <c r="E767" s="53"/>
+      <c r="E767" s="1"/>
       <c r="F767" s="2"/>
       <c r="G767" s="1"/>
       <c r="H767" s="2"/>
@@ -26618,7 +26610,7 @@
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="1"/>
-      <c r="E768" s="53"/>
+      <c r="E768" s="1"/>
       <c r="F768" s="2"/>
       <c r="G768" s="1"/>
       <c r="H768" s="2"/>
@@ -26651,7 +26643,7 @@
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="1"/>
-      <c r="E769" s="53"/>
+      <c r="E769" s="1"/>
       <c r="F769" s="2"/>
       <c r="G769" s="1"/>
       <c r="H769" s="2"/>
@@ -26684,7 +26676,7 @@
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="1"/>
-      <c r="E770" s="53"/>
+      <c r="E770" s="1"/>
       <c r="F770" s="2"/>
       <c r="G770" s="1"/>
       <c r="H770" s="2"/>
@@ -26717,7 +26709,7 @@
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="1"/>
-      <c r="E771" s="53"/>
+      <c r="E771" s="1"/>
       <c r="F771" s="2"/>
       <c r="G771" s="1"/>
       <c r="H771" s="2"/>
@@ -26750,7 +26742,7 @@
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="1"/>
-      <c r="E772" s="53"/>
+      <c r="E772" s="1"/>
       <c r="F772" s="2"/>
       <c r="G772" s="1"/>
       <c r="H772" s="2"/>
@@ -26783,7 +26775,7 @@
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="1"/>
-      <c r="E773" s="53"/>
+      <c r="E773" s="1"/>
       <c r="F773" s="2"/>
       <c r="G773" s="1"/>
       <c r="H773" s="2"/>
@@ -26816,7 +26808,7 @@
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="1"/>
-      <c r="E774" s="53"/>
+      <c r="E774" s="1"/>
       <c r="F774" s="2"/>
       <c r="G774" s="1"/>
       <c r="H774" s="2"/>
@@ -26849,7 +26841,7 @@
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="1"/>
-      <c r="E775" s="53"/>
+      <c r="E775" s="1"/>
       <c r="F775" s="2"/>
       <c r="G775" s="1"/>
       <c r="H775" s="2"/>
@@ -26882,7 +26874,7 @@
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="1"/>
-      <c r="E776" s="53"/>
+      <c r="E776" s="1"/>
       <c r="F776" s="2"/>
       <c r="G776" s="1"/>
       <c r="H776" s="2"/>
@@ -26915,7 +26907,7 @@
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="1"/>
-      <c r="E777" s="53"/>
+      <c r="E777" s="1"/>
       <c r="F777" s="2"/>
       <c r="G777" s="1"/>
       <c r="H777" s="2"/>
@@ -26948,7 +26940,7 @@
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="1"/>
-      <c r="E778" s="53"/>
+      <c r="E778" s="1"/>
       <c r="F778" s="2"/>
       <c r="G778" s="1"/>
       <c r="H778" s="2"/>
@@ -26981,7 +26973,7 @@
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="1"/>
-      <c r="E779" s="53"/>
+      <c r="E779" s="1"/>
       <c r="F779" s="2"/>
       <c r="G779" s="1"/>
       <c r="H779" s="2"/>
@@ -27014,7 +27006,7 @@
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="1"/>
-      <c r="E780" s="53"/>
+      <c r="E780" s="1"/>
       <c r="F780" s="2"/>
       <c r="G780" s="1"/>
       <c r="H780" s="2"/>
@@ -27047,7 +27039,7 @@
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="1"/>
-      <c r="E781" s="53"/>
+      <c r="E781" s="1"/>
       <c r="F781" s="2"/>
       <c r="G781" s="1"/>
       <c r="H781" s="2"/>
@@ -27080,7 +27072,7 @@
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="1"/>
-      <c r="E782" s="53"/>
+      <c r="E782" s="1"/>
       <c r="F782" s="2"/>
       <c r="G782" s="1"/>
       <c r="H782" s="2"/>
@@ -27113,7 +27105,7 @@
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="1"/>
-      <c r="E783" s="53"/>
+      <c r="E783" s="1"/>
       <c r="F783" s="2"/>
       <c r="G783" s="1"/>
       <c r="H783" s="2"/>
@@ -27146,7 +27138,7 @@
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="1"/>
-      <c r="E784" s="53"/>
+      <c r="E784" s="1"/>
       <c r="F784" s="2"/>
       <c r="G784" s="1"/>
       <c r="H784" s="2"/>
@@ -27179,7 +27171,7 @@
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="1"/>
-      <c r="E785" s="53"/>
+      <c r="E785" s="1"/>
       <c r="F785" s="2"/>
       <c r="G785" s="1"/>
       <c r="H785" s="2"/>
@@ -27212,7 +27204,7 @@
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="1"/>
-      <c r="E786" s="53"/>
+      <c r="E786" s="1"/>
       <c r="F786" s="2"/>
       <c r="G786" s="1"/>
       <c r="H786" s="2"/>
@@ -27245,7 +27237,7 @@
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="1"/>
-      <c r="E787" s="53"/>
+      <c r="E787" s="1"/>
       <c r="F787" s="2"/>
       <c r="G787" s="1"/>
       <c r="H787" s="2"/>
@@ -27278,7 +27270,7 @@
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="1"/>
-      <c r="E788" s="53"/>
+      <c r="E788" s="1"/>
       <c r="F788" s="2"/>
       <c r="G788" s="1"/>
       <c r="H788" s="2"/>
@@ -27311,7 +27303,7 @@
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="1"/>
-      <c r="E789" s="53"/>
+      <c r="E789" s="1"/>
       <c r="F789" s="2"/>
       <c r="G789" s="1"/>
       <c r="H789" s="2"/>
@@ -27344,7 +27336,7 @@
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="1"/>
-      <c r="E790" s="53"/>
+      <c r="E790" s="1"/>
       <c r="F790" s="2"/>
       <c r="G790" s="1"/>
       <c r="H790" s="2"/>
@@ -27377,7 +27369,7 @@
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="1"/>
-      <c r="E791" s="53"/>
+      <c r="E791" s="1"/>
       <c r="F791" s="2"/>
       <c r="G791" s="1"/>
       <c r="H791" s="2"/>
@@ -27410,7 +27402,7 @@
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="1"/>
-      <c r="E792" s="53"/>
+      <c r="E792" s="1"/>
       <c r="F792" s="2"/>
       <c r="G792" s="1"/>
       <c r="H792" s="2"/>
@@ -27443,7 +27435,7 @@
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="1"/>
-      <c r="E793" s="53"/>
+      <c r="E793" s="1"/>
       <c r="F793" s="2"/>
       <c r="G793" s="1"/>
       <c r="H793" s="2"/>
@@ -27476,7 +27468,7 @@
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="1"/>
-      <c r="E794" s="53"/>
+      <c r="E794" s="1"/>
       <c r="F794" s="2"/>
       <c r="G794" s="1"/>
       <c r="H794" s="2"/>
@@ -27509,7 +27501,7 @@
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="1"/>
-      <c r="E795" s="53"/>
+      <c r="E795" s="1"/>
       <c r="F795" s="2"/>
       <c r="G795" s="1"/>
       <c r="H795" s="2"/>
@@ -27542,7 +27534,7 @@
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="1"/>
-      <c r="E796" s="53"/>
+      <c r="E796" s="1"/>
       <c r="F796" s="2"/>
       <c r="G796" s="1"/>
       <c r="H796" s="2"/>
@@ -27575,7 +27567,7 @@
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="1"/>
-      <c r="E797" s="53"/>
+      <c r="E797" s="1"/>
       <c r="F797" s="2"/>
       <c r="G797" s="1"/>
       <c r="H797" s="2"/>
@@ -27608,7 +27600,7 @@
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="1"/>
-      <c r="E798" s="53"/>
+      <c r="E798" s="1"/>
       <c r="F798" s="2"/>
       <c r="G798" s="1"/>
       <c r="H798" s="2"/>
@@ -27641,7 +27633,7 @@
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="1"/>
-      <c r="E799" s="53"/>
+      <c r="E799" s="1"/>
       <c r="F799" s="2"/>
       <c r="G799" s="1"/>
       <c r="H799" s="2"/>
@@ -27674,7 +27666,7 @@
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="1"/>
-      <c r="E800" s="53"/>
+      <c r="E800" s="1"/>
       <c r="F800" s="2"/>
       <c r="G800" s="1"/>
       <c r="H800" s="2"/>
@@ -27707,7 +27699,7 @@
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="1"/>
-      <c r="E801" s="53"/>
+      <c r="E801" s="1"/>
       <c r="F801" s="2"/>
       <c r="G801" s="1"/>
       <c r="H801" s="2"/>
@@ -27740,7 +27732,7 @@
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="1"/>
-      <c r="E802" s="53"/>
+      <c r="E802" s="1"/>
       <c r="F802" s="2"/>
       <c r="G802" s="1"/>
       <c r="H802" s="2"/>
@@ -27773,7 +27765,7 @@
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="1"/>
-      <c r="E803" s="53"/>
+      <c r="E803" s="1"/>
       <c r="F803" s="2"/>
       <c r="G803" s="1"/>
       <c r="H803" s="2"/>
@@ -27806,7 +27798,7 @@
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="1"/>
-      <c r="E804" s="53"/>
+      <c r="E804" s="1"/>
       <c r="F804" s="2"/>
       <c r="G804" s="1"/>
       <c r="H804" s="2"/>
@@ -27839,7 +27831,7 @@
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="1"/>
-      <c r="E805" s="53"/>
+      <c r="E805" s="1"/>
       <c r="F805" s="2"/>
       <c r="G805" s="1"/>
       <c r="H805" s="2"/>
@@ -27872,7 +27864,7 @@
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="1"/>
-      <c r="E806" s="53"/>
+      <c r="E806" s="1"/>
       <c r="F806" s="2"/>
       <c r="G806" s="1"/>
       <c r="H806" s="2"/>
@@ -27905,7 +27897,7 @@
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
       <c r="D807" s="1"/>
-      <c r="E807" s="53"/>
+      <c r="E807" s="1"/>
       <c r="F807" s="2"/>
       <c r="G807" s="1"/>
       <c r="H807" s="2"/>
@@ -27938,7 +27930,7 @@
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
       <c r="D808" s="1"/>
-      <c r="E808" s="53"/>
+      <c r="E808" s="1"/>
       <c r="F808" s="2"/>
       <c r="G808" s="1"/>
       <c r="H808" s="2"/>
@@ -27971,7 +27963,7 @@
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
       <c r="D809" s="1"/>
-      <c r="E809" s="53"/>
+      <c r="E809" s="1"/>
       <c r="F809" s="2"/>
       <c r="G809" s="1"/>
       <c r="H809" s="2"/>
@@ -28004,7 +27996,7 @@
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
       <c r="D810" s="1"/>
-      <c r="E810" s="53"/>
+      <c r="E810" s="1"/>
       <c r="F810" s="2"/>
       <c r="G810" s="1"/>
       <c r="H810" s="2"/>
@@ -28037,7 +28029,7 @@
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
       <c r="D811" s="1"/>
-      <c r="E811" s="53"/>
+      <c r="E811" s="1"/>
       <c r="F811" s="2"/>
       <c r="G811" s="1"/>
       <c r="H811" s="2"/>
@@ -28070,7 +28062,7 @@
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
       <c r="D812" s="1"/>
-      <c r="E812" s="53"/>
+      <c r="E812" s="1"/>
       <c r="F812" s="2"/>
       <c r="G812" s="1"/>
       <c r="H812" s="2"/>
@@ -28103,7 +28095,7 @@
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
       <c r="D813" s="1"/>
-      <c r="E813" s="53"/>
+      <c r="E813" s="1"/>
       <c r="F813" s="2"/>
       <c r="G813" s="1"/>
       <c r="H813" s="2"/>
@@ -28136,7 +28128,7 @@
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
       <c r="D814" s="1"/>
-      <c r="E814" s="53"/>
+      <c r="E814" s="1"/>
       <c r="F814" s="2"/>
       <c r="G814" s="1"/>
       <c r="H814" s="2"/>
@@ -28169,7 +28161,7 @@
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
       <c r="D815" s="1"/>
-      <c r="E815" s="53"/>
+      <c r="E815" s="1"/>
       <c r="F815" s="2"/>
       <c r="G815" s="1"/>
       <c r="H815" s="2"/>
@@ -28202,7 +28194,7 @@
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
       <c r="D816" s="1"/>
-      <c r="E816" s="53"/>
+      <c r="E816" s="1"/>
       <c r="F816" s="2"/>
       <c r="G816" s="1"/>
       <c r="H816" s="2"/>
@@ -28235,7 +28227,7 @@
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
       <c r="D817" s="1"/>
-      <c r="E817" s="53"/>
+      <c r="E817" s="1"/>
       <c r="F817" s="2"/>
       <c r="G817" s="1"/>
       <c r="H817" s="2"/>
@@ -28268,7 +28260,7 @@
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
       <c r="D818" s="1"/>
-      <c r="E818" s="53"/>
+      <c r="E818" s="1"/>
       <c r="F818" s="2"/>
       <c r="G818" s="1"/>
       <c r="H818" s="2"/>
@@ -28301,7 +28293,7 @@
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
       <c r="D819" s="1"/>
-      <c r="E819" s="53"/>
+      <c r="E819" s="1"/>
       <c r="F819" s="2"/>
       <c r="G819" s="1"/>
       <c r="H819" s="2"/>
@@ -28334,7 +28326,7 @@
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
       <c r="D820" s="1"/>
-      <c r="E820" s="53"/>
+      <c r="E820" s="1"/>
       <c r="F820" s="2"/>
       <c r="G820" s="1"/>
       <c r="H820" s="2"/>
@@ -28367,7 +28359,7 @@
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
       <c r="D821" s="1"/>
-      <c r="E821" s="53"/>
+      <c r="E821" s="1"/>
       <c r="F821" s="2"/>
       <c r="G821" s="1"/>
       <c r="H821" s="2"/>
@@ -28400,7 +28392,7 @@
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
       <c r="D822" s="1"/>
-      <c r="E822" s="53"/>
+      <c r="E822" s="1"/>
       <c r="F822" s="2"/>
       <c r="G822" s="1"/>
       <c r="H822" s="2"/>
@@ -28433,7 +28425,7 @@
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
       <c r="D823" s="1"/>
-      <c r="E823" s="53"/>
+      <c r="E823" s="1"/>
       <c r="F823" s="2"/>
       <c r="G823" s="1"/>
       <c r="H823" s="2"/>
@@ -28466,7 +28458,7 @@
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
       <c r="D824" s="1"/>
-      <c r="E824" s="53"/>
+      <c r="E824" s="1"/>
       <c r="F824" s="2"/>
       <c r="G824" s="1"/>
       <c r="H824" s="2"/>
@@ -28499,7 +28491,7 @@
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
       <c r="D825" s="1"/>
-      <c r="E825" s="53"/>
+      <c r="E825" s="1"/>
       <c r="F825" s="2"/>
       <c r="G825" s="1"/>
       <c r="H825" s="2"/>
@@ -28532,7 +28524,7 @@
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
       <c r="D826" s="1"/>
-      <c r="E826" s="53"/>
+      <c r="E826" s="1"/>
       <c r="F826" s="2"/>
       <c r="G826" s="1"/>
       <c r="H826" s="2"/>
@@ -28565,7 +28557,7 @@
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
       <c r="D827" s="1"/>
-      <c r="E827" s="53"/>
+      <c r="E827" s="1"/>
       <c r="F827" s="2"/>
       <c r="G827" s="1"/>
       <c r="H827" s="2"/>
@@ -28598,7 +28590,7 @@
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
       <c r="D828" s="1"/>
-      <c r="E828" s="53"/>
+      <c r="E828" s="1"/>
       <c r="F828" s="2"/>
       <c r="G828" s="1"/>
       <c r="H828" s="2"/>
@@ -28631,7 +28623,7 @@
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
       <c r="D829" s="1"/>
-      <c r="E829" s="53"/>
+      <c r="E829" s="1"/>
       <c r="F829" s="2"/>
       <c r="G829" s="1"/>
       <c r="H829" s="2"/>
@@ -28664,7 +28656,7 @@
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
       <c r="D830" s="1"/>
-      <c r="E830" s="53"/>
+      <c r="E830" s="1"/>
       <c r="F830" s="2"/>
       <c r="G830" s="1"/>
       <c r="H830" s="2"/>
@@ -28697,7 +28689,7 @@
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
       <c r="D831" s="1"/>
-      <c r="E831" s="53"/>
+      <c r="E831" s="1"/>
       <c r="F831" s="2"/>
       <c r="G831" s="1"/>
       <c r="H831" s="2"/>
@@ -28730,7 +28722,7 @@
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
       <c r="D832" s="1"/>
-      <c r="E832" s="53"/>
+      <c r="E832" s="1"/>
       <c r="F832" s="2"/>
       <c r="G832" s="1"/>
       <c r="H832" s="2"/>
@@ -28763,7 +28755,7 @@
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
       <c r="D833" s="1"/>
-      <c r="E833" s="53"/>
+      <c r="E833" s="1"/>
       <c r="F833" s="2"/>
       <c r="G833" s="1"/>
       <c r="H833" s="2"/>
@@ -28796,7 +28788,7 @@
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
       <c r="D834" s="1"/>
-      <c r="E834" s="53"/>
+      <c r="E834" s="1"/>
       <c r="F834" s="2"/>
       <c r="G834" s="1"/>
       <c r="H834" s="2"/>
@@ -28829,7 +28821,7 @@
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
       <c r="D835" s="1"/>
-      <c r="E835" s="53"/>
+      <c r="E835" s="1"/>
       <c r="F835" s="2"/>
       <c r="G835" s="1"/>
       <c r="H835" s="2"/>
@@ -28862,7 +28854,7 @@
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
       <c r="D836" s="1"/>
-      <c r="E836" s="53"/>
+      <c r="E836" s="1"/>
       <c r="F836" s="2"/>
       <c r="G836" s="1"/>
       <c r="H836" s="2"/>
@@ -28895,7 +28887,7 @@
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
       <c r="D837" s="1"/>
-      <c r="E837" s="53"/>
+      <c r="E837" s="1"/>
       <c r="F837" s="2"/>
       <c r="G837" s="1"/>
       <c r="H837" s="2"/>
@@ -28928,7 +28920,7 @@
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
       <c r="D838" s="1"/>
-      <c r="E838" s="53"/>
+      <c r="E838" s="1"/>
       <c r="F838" s="2"/>
       <c r="G838" s="1"/>
       <c r="H838" s="2"/>
@@ -28961,7 +28953,7 @@
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
       <c r="D839" s="1"/>
-      <c r="E839" s="53"/>
+      <c r="E839" s="1"/>
       <c r="F839" s="2"/>
       <c r="G839" s="1"/>
       <c r="H839" s="2"/>
@@ -28994,7 +28986,7 @@
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
       <c r="D840" s="1"/>
-      <c r="E840" s="53"/>
+      <c r="E840" s="1"/>
       <c r="F840" s="2"/>
       <c r="G840" s="1"/>
       <c r="H840" s="2"/>
@@ -29027,7 +29019,7 @@
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
       <c r="D841" s="1"/>
-      <c r="E841" s="53"/>
+      <c r="E841" s="1"/>
       <c r="F841" s="2"/>
       <c r="G841" s="1"/>
       <c r="H841" s="2"/>
@@ -29060,7 +29052,7 @@
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
       <c r="D842" s="1"/>
-      <c r="E842" s="53"/>
+      <c r="E842" s="1"/>
       <c r="F842" s="2"/>
       <c r="G842" s="1"/>
       <c r="H842" s="2"/>
@@ -29093,7 +29085,7 @@
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
       <c r="D843" s="1"/>
-      <c r="E843" s="53"/>
+      <c r="E843" s="1"/>
       <c r="F843" s="2"/>
       <c r="G843" s="1"/>
       <c r="H843" s="2"/>
@@ -29126,7 +29118,7 @@
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
       <c r="D844" s="1"/>
-      <c r="E844" s="53"/>
+      <c r="E844" s="1"/>
       <c r="F844" s="2"/>
       <c r="G844" s="1"/>
       <c r="H844" s="2"/>
@@ -29159,7 +29151,7 @@
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
       <c r="D845" s="1"/>
-      <c r="E845" s="53"/>
+      <c r="E845" s="1"/>
       <c r="F845" s="2"/>
       <c r="G845" s="1"/>
       <c r="H845" s="2"/>
@@ -29192,7 +29184,7 @@
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
       <c r="D846" s="1"/>
-      <c r="E846" s="53"/>
+      <c r="E846" s="1"/>
       <c r="F846" s="2"/>
       <c r="G846" s="1"/>
       <c r="H846" s="2"/>
@@ -29225,7 +29217,7 @@
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
       <c r="D847" s="1"/>
-      <c r="E847" s="53"/>
+      <c r="E847" s="1"/>
       <c r="F847" s="2"/>
       <c r="G847" s="1"/>
       <c r="H847" s="2"/>
@@ -29258,7 +29250,7 @@
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
       <c r="D848" s="1"/>
-      <c r="E848" s="53"/>
+      <c r="E848" s="1"/>
       <c r="F848" s="2"/>
       <c r="G848" s="1"/>
       <c r="H848" s="2"/>
@@ -29291,7 +29283,7 @@
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
       <c r="D849" s="1"/>
-      <c r="E849" s="53"/>
+      <c r="E849" s="1"/>
       <c r="F849" s="2"/>
       <c r="G849" s="1"/>
       <c r="H849" s="2"/>
@@ -29324,7 +29316,7 @@
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
       <c r="D850" s="1"/>
-      <c r="E850" s="53"/>
+      <c r="E850" s="1"/>
       <c r="F850" s="2"/>
       <c r="G850" s="1"/>
       <c r="H850" s="2"/>
@@ -29357,7 +29349,7 @@
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
       <c r="D851" s="1"/>
-      <c r="E851" s="53"/>
+      <c r="E851" s="1"/>
       <c r="F851" s="2"/>
       <c r="G851" s="1"/>
       <c r="H851" s="2"/>
@@ -29390,7 +29382,7 @@
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
       <c r="D852" s="1"/>
-      <c r="E852" s="53"/>
+      <c r="E852" s="1"/>
       <c r="F852" s="2"/>
       <c r="G852" s="1"/>
       <c r="H852" s="2"/>
@@ -29423,7 +29415,7 @@
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
       <c r="D853" s="1"/>
-      <c r="E853" s="53"/>
+      <c r="E853" s="1"/>
       <c r="F853" s="2"/>
       <c r="G853" s="1"/>
       <c r="H853" s="2"/>
@@ -29456,7 +29448,7 @@
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
       <c r="D854" s="1"/>
-      <c r="E854" s="53"/>
+      <c r="E854" s="1"/>
       <c r="F854" s="2"/>
       <c r="G854" s="1"/>
       <c r="H854" s="2"/>
@@ -29489,7 +29481,7 @@
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
       <c r="D855" s="1"/>
-      <c r="E855" s="53"/>
+      <c r="E855" s="1"/>
       <c r="F855" s="2"/>
       <c r="G855" s="1"/>
       <c r="H855" s="2"/>
@@ -29522,7 +29514,7 @@
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
       <c r="D856" s="1"/>
-      <c r="E856" s="53"/>
+      <c r="E856" s="1"/>
       <c r="F856" s="2"/>
       <c r="G856" s="1"/>
       <c r="H856" s="2"/>
@@ -29555,7 +29547,7 @@
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
       <c r="D857" s="1"/>
-      <c r="E857" s="53"/>
+      <c r="E857" s="1"/>
       <c r="F857" s="2"/>
       <c r="G857" s="1"/>
       <c r="H857" s="2"/>
@@ -29588,7 +29580,7 @@
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
       <c r="D858" s="1"/>
-      <c r="E858" s="53"/>
+      <c r="E858" s="1"/>
       <c r="F858" s="2"/>
       <c r="G858" s="1"/>
       <c r="H858" s="2"/>
@@ -29621,7 +29613,7 @@
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
       <c r="D859" s="1"/>
-      <c r="E859" s="53"/>
+      <c r="E859" s="1"/>
       <c r="F859" s="2"/>
       <c r="G859" s="1"/>
       <c r="H859" s="2"/>
@@ -29654,7 +29646,7 @@
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
       <c r="D860" s="1"/>
-      <c r="E860" s="53"/>
+      <c r="E860" s="1"/>
       <c r="F860" s="2"/>
       <c r="G860" s="1"/>
       <c r="H860" s="2"/>
@@ -29687,7 +29679,7 @@
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
       <c r="D861" s="1"/>
-      <c r="E861" s="53"/>
+      <c r="E861" s="1"/>
       <c r="F861" s="2"/>
       <c r="G861" s="1"/>
       <c r="H861" s="2"/>
@@ -29720,7 +29712,7 @@
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
       <c r="D862" s="1"/>
-      <c r="E862" s="53"/>
+      <c r="E862" s="1"/>
       <c r="F862" s="2"/>
       <c r="G862" s="1"/>
       <c r="H862" s="2"/>
@@ -29753,7 +29745,7 @@
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
       <c r="D863" s="1"/>
-      <c r="E863" s="53"/>
+      <c r="E863" s="1"/>
       <c r="F863" s="2"/>
       <c r="G863" s="1"/>
       <c r="H863" s="2"/>
@@ -29786,7 +29778,7 @@
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
       <c r="D864" s="1"/>
-      <c r="E864" s="53"/>
+      <c r="E864" s="1"/>
       <c r="F864" s="2"/>
       <c r="G864" s="1"/>
       <c r="H864" s="2"/>
@@ -29819,7 +29811,7 @@
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
       <c r="D865" s="1"/>
-      <c r="E865" s="53"/>
+      <c r="E865" s="1"/>
       <c r="F865" s="2"/>
       <c r="G865" s="1"/>
       <c r="H865" s="2"/>
@@ -29852,7 +29844,7 @@
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
       <c r="D866" s="1"/>
-      <c r="E866" s="53"/>
+      <c r="E866" s="1"/>
       <c r="F866" s="2"/>
       <c r="G866" s="1"/>
       <c r="H866" s="2"/>
@@ -29885,7 +29877,7 @@
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
       <c r="D867" s="1"/>
-      <c r="E867" s="53"/>
+      <c r="E867" s="1"/>
       <c r="F867" s="2"/>
       <c r="G867" s="1"/>
       <c r="H867" s="2"/>
@@ -29918,7 +29910,7 @@
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
       <c r="D868" s="1"/>
-      <c r="E868" s="53"/>
+      <c r="E868" s="1"/>
       <c r="F868" s="2"/>
       <c r="G868" s="1"/>
       <c r="H868" s="2"/>
@@ -29951,7 +29943,7 @@
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
       <c r="D869" s="1"/>
-      <c r="E869" s="53"/>
+      <c r="E869" s="1"/>
       <c r="F869" s="2"/>
       <c r="G869" s="1"/>
       <c r="H869" s="2"/>
@@ -29984,7 +29976,7 @@
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
       <c r="D870" s="1"/>
-      <c r="E870" s="53"/>
+      <c r="E870" s="1"/>
       <c r="F870" s="2"/>
       <c r="G870" s="1"/>
       <c r="H870" s="2"/>
@@ -30017,7 +30009,7 @@
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
       <c r="D871" s="1"/>
-      <c r="E871" s="53"/>
+      <c r="E871" s="1"/>
       <c r="F871" s="2"/>
       <c r="G871" s="1"/>
       <c r="H871" s="2"/>
@@ -30050,7 +30042,7 @@
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
       <c r="D872" s="1"/>
-      <c r="E872" s="53"/>
+      <c r="E872" s="1"/>
       <c r="F872" s="2"/>
       <c r="G872" s="1"/>
       <c r="H872" s="2"/>
@@ -30083,7 +30075,7 @@
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
       <c r="D873" s="1"/>
-      <c r="E873" s="53"/>
+      <c r="E873" s="1"/>
       <c r="F873" s="2"/>
       <c r="G873" s="1"/>
       <c r="H873" s="2"/>
@@ -30116,7 +30108,7 @@
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
       <c r="D874" s="1"/>
-      <c r="E874" s="53"/>
+      <c r="E874" s="1"/>
       <c r="F874" s="2"/>
       <c r="G874" s="1"/>
       <c r="H874" s="2"/>
@@ -30149,7 +30141,7 @@
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
       <c r="D875" s="1"/>
-      <c r="E875" s="53"/>
+      <c r="E875" s="1"/>
       <c r="F875" s="2"/>
       <c r="G875" s="1"/>
       <c r="H875" s="2"/>
@@ -30182,7 +30174,7 @@
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
       <c r="D876" s="1"/>
-      <c r="E876" s="53"/>
+      <c r="E876" s="1"/>
       <c r="F876" s="2"/>
       <c r="G876" s="1"/>
       <c r="H876" s="2"/>
@@ -30215,7 +30207,7 @@
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
       <c r="D877" s="1"/>
-      <c r="E877" s="53"/>
+      <c r="E877" s="1"/>
       <c r="F877" s="2"/>
       <c r="G877" s="1"/>
       <c r="H877" s="2"/>
@@ -30248,7 +30240,7 @@
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
       <c r="D878" s="1"/>
-      <c r="E878" s="53"/>
+      <c r="E878" s="1"/>
       <c r="F878" s="2"/>
       <c r="G878" s="1"/>
       <c r="H878" s="2"/>
@@ -30281,7 +30273,7 @@
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
       <c r="D879" s="1"/>
-      <c r="E879" s="53"/>
+      <c r="E879" s="1"/>
       <c r="F879" s="2"/>
       <c r="G879" s="1"/>
       <c r="H879" s="2"/>
@@ -30314,7 +30306,7 @@
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
       <c r="D880" s="1"/>
-      <c r="E880" s="53"/>
+      <c r="E880" s="1"/>
       <c r="F880" s="2"/>
       <c r="G880" s="1"/>
       <c r="H880" s="2"/>
@@ -30347,7 +30339,7 @@
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
       <c r="D881" s="1"/>
-      <c r="E881" s="53"/>
+      <c r="E881" s="1"/>
       <c r="F881" s="2"/>
       <c r="G881" s="1"/>
       <c r="H881" s="2"/>
@@ -30380,7 +30372,7 @@
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
       <c r="D882" s="1"/>
-      <c r="E882" s="53"/>
+      <c r="E882" s="1"/>
       <c r="F882" s="2"/>
       <c r="G882" s="1"/>
       <c r="H882" s="2"/>
@@ -30413,7 +30405,7 @@
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
       <c r="D883" s="1"/>
-      <c r="E883" s="53"/>
+      <c r="E883" s="1"/>
       <c r="F883" s="2"/>
       <c r="G883" s="1"/>
       <c r="H883" s="2"/>
@@ -30446,7 +30438,7 @@
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
       <c r="D884" s="1"/>
-      <c r="E884" s="53"/>
+      <c r="E884" s="1"/>
       <c r="F884" s="2"/>
       <c r="G884" s="1"/>
       <c r="H884" s="2"/>
@@ -30479,7 +30471,7 @@
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
       <c r="D885" s="1"/>
-      <c r="E885" s="53"/>
+      <c r="E885" s="1"/>
       <c r="F885" s="2"/>
       <c r="G885" s="1"/>
       <c r="H885" s="2"/>
@@ -30512,7 +30504,7 @@
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
       <c r="D886" s="1"/>
-      <c r="E886" s="53"/>
+      <c r="E886" s="1"/>
       <c r="F886" s="2"/>
       <c r="G886" s="1"/>
       <c r="H886" s="2"/>
@@ -30545,7 +30537,7 @@
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
       <c r="D887" s="1"/>
-      <c r="E887" s="53"/>
+      <c r="E887" s="1"/>
       <c r="F887" s="2"/>
       <c r="G887" s="1"/>
       <c r="H887" s="2"/>
@@ -30578,7 +30570,7 @@
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
       <c r="D888" s="1"/>
-      <c r="E888" s="53"/>
+      <c r="E888" s="1"/>
       <c r="F888" s="2"/>
       <c r="G888" s="1"/>
       <c r="H888" s="2"/>
@@ -30611,7 +30603,7 @@
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
       <c r="D889" s="1"/>
-      <c r="E889" s="53"/>
+      <c r="E889" s="1"/>
       <c r="F889" s="2"/>
       <c r="G889" s="1"/>
       <c r="H889" s="2"/>
@@ -30644,7 +30636,7 @@
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
       <c r="D890" s="1"/>
-      <c r="E890" s="53"/>
+      <c r="E890" s="1"/>
       <c r="F890" s="2"/>
       <c r="G890" s="1"/>
       <c r="H890" s="2"/>
@@ -30677,7 +30669,7 @@
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
       <c r="D891" s="1"/>
-      <c r="E891" s="53"/>
+      <c r="E891" s="1"/>
       <c r="F891" s="2"/>
       <c r="G891" s="1"/>
       <c r="H891" s="2"/>
@@ -30710,7 +30702,7 @@
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
       <c r="D892" s="1"/>
-      <c r="E892" s="53"/>
+      <c r="E892" s="1"/>
       <c r="F892" s="2"/>
       <c r="G892" s="1"/>
       <c r="H892" s="2"/>
@@ -30743,7 +30735,7 @@
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
       <c r="D893" s="1"/>
-      <c r="E893" s="53"/>
+      <c r="E893" s="1"/>
       <c r="F893" s="2"/>
       <c r="G893" s="1"/>
       <c r="H893" s="2"/>
@@ -30776,7 +30768,7 @@
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
       <c r="D894" s="1"/>
-      <c r="E894" s="53"/>
+      <c r="E894" s="1"/>
       <c r="F894" s="2"/>
       <c r="G894" s="1"/>
       <c r="H894" s="2"/>
@@ -30809,7 +30801,7 @@
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
       <c r="D895" s="1"/>
-      <c r="E895" s="53"/>
+      <c r="E895" s="1"/>
       <c r="F895" s="2"/>
       <c r="G895" s="1"/>
       <c r="H895" s="2"/>

--- a/public/DownloadExcels/Servicios.xlsx
+++ b/public/DownloadExcels/Servicios.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70854E5B-2364-4B1C-9ED6-4CCEB7139C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F98E0C7-9BB3-472E-A1A4-3D040ACBD4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE SERVICIOS" sheetId="1" r:id="rId1"/>
-    <sheet name="Listas desplegables" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="Listas desplegables" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -822,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE895"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -30897,6 +30898,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C8A9BA-FA18-42D7-917A-6ACE8A719343}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I999"/>
   <sheetViews>

--- a/public/DownloadExcels/Servicios.xlsx
+++ b/public/DownloadExcels/Servicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F98E0C7-9BB3-472E-A1A4-3D040ACBD4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E368475-0C58-41F9-B318-2EAA5049A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE SERVICIOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t xml:space="preserve">INVENTARIO DE SERVICIOS </t>
   </si>
@@ -73,97 +73,6 @@
  ¿Qué porcentaje le aplica?
 Si no aplica, elegir 
 NO APLICA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">1. EN ESTE FORMULARIO TODAS LAS COLUMNAS SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN.   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">2. Escribe el nombre del servicio </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t>SIEMPRE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> empezando con letra mayúscula. Las demás letras deben ir en minúscula. 
-3. Si el nombre del servicio tiene dos palabras o más, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t>SOLO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> debes poner en mayúscula la primera letra de la primera palabra.
-4. Registra cada servicio </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t>UNA (1) SOLA VEZ. 
-5. OBLIGATORIO: En la columna C, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IVA APLICABLE A TU SERVICIO. 
-6. OBLIGATORIO: En la columna D, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IMPUESTO AL CONSUMO APLICABLE A TU SERVICIO.
-7.  OBLIGATORIO: En la columna E, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN  EN LA FUENTE APLICABLE A TU SERVICIO. 
-8.  OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN  DE IVA APLICABLE A TU SERVICIO. 
-9.  OBLIGATORIO: En la columna G, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN  DE ICA APLICABLE A TU SERVICIO. 
-10. En las columnas C, D, E, F, G, H, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.
-11. En la columna I, ESCRIBE SOLO EL NÚMERO. 
-12. OBLIGATORIO: En la columna H, ELIGE DE LA LISTA DESPLEGABLE, OTRO IMPUESTO APLICABLES A TU SERVICIO.
-9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">. Si prestas tu servicio como </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">PERSONA NATURAL Y NO ESTAS OBLIGADO A COBRAR IVA, DEJA LA COLUMNA C EN BLANCO. </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Escribe el precio de venta SIN INPUESTOS NI RETENCIONES
@@ -228,6 +137,45 @@
   </si>
   <si>
     <t>No aplica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. EN ESTE FORMULARIO TODAS LAS COLUMNAS SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Escribe el nombre del servicio SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula. </t>
+  </si>
+  <si>
+    <t>3. Si el nombre del servicio tiene dos palabras o más, SOLO debes poner en mayúscula la primera letra de la primera palabra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Registra cada servicio UNA (1) SOLA VEZ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. OBLIGATORIO: En la columna C, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IVA APLICABLE A TU SERVICIO. </t>
+  </si>
+  <si>
+    <t>6. OBLIGATORIO: En la columna D, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IMPUESTO AL CONSUMO APLICABLE A TU SERVICIO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.  OBLIGATORIO: En la columna E, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN  EN LA FUENTE APLICABLE A TU SERVICIO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.  OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN  DE IVA APLICABLE A TU SERVICIO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.  OBLIGATORIO: En la columna G, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN  DE ICA APLICABLE A TU SERVICIO. </t>
+  </si>
+  <si>
+    <t>10. En las columnas C, D, E, F, G, H, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.</t>
+  </si>
+  <si>
+    <t>11. En la columna I, ESCRIBE SOLO EL NÚMERO.</t>
+  </si>
+  <si>
+    <t>12. OBLIGATORIO: En la columna H, ELIGE DE LA LISTA DESPLEGABLE, OTRO IMPUESTO APLICABLES A TU SERVICIO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Si prestas tu servicio como PERSONA NATURAL Y NO ESTAS OBLIGADO A COBRAR IVA, DEJA LA COLUMNA C EN BLANCO. </t>
   </si>
 </sst>
 </file>
@@ -414,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -547,14 +495,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -821,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE895"/>
+  <dimension ref="A1:AE893"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,20 +789,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -878,191 +823,191 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+    </row>
+    <row r="4" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" ht="168.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" spans="1:31" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1097,7 +1042,7 @@
     </row>
     <row r="7" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1132,7 +1077,7 @@
     </row>
     <row r="8" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1167,7 +1112,7 @@
     </row>
     <row r="9" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1202,7 +1147,7 @@
     </row>
     <row r="10" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1237,7 +1182,7 @@
     </row>
     <row r="11" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1272,7 +1217,7 @@
     </row>
     <row r="12" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1307,7 +1252,7 @@
     </row>
     <row r="13" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1342,7 +1287,7 @@
     </row>
     <row r="14" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1377,7 +1322,7 @@
     </row>
     <row r="15" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1412,7 +1357,7 @@
     </row>
     <row r="16" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1447,7 +1392,7 @@
     </row>
     <row r="17" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1482,7 +1427,7 @@
     </row>
     <row r="18" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1517,7 +1462,7 @@
     </row>
     <row r="19" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1552,7 +1497,7 @@
     </row>
     <row r="20" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1587,7 +1532,7 @@
     </row>
     <row r="21" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1622,7 +1567,7 @@
     </row>
     <row r="22" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1657,7 +1602,7 @@
     </row>
     <row r="23" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1692,7 +1637,7 @@
     </row>
     <row r="24" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1727,7 +1672,7 @@
     </row>
     <row r="25" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1762,7 +1707,7 @@
     </row>
     <row r="26" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1797,7 +1742,7 @@
     </row>
     <row r="27" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1832,7 +1777,7 @@
     </row>
     <row r="28" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1867,7 +1812,7 @@
     </row>
     <row r="29" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1902,7 +1847,7 @@
     </row>
     <row r="30" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1937,7 +1882,7 @@
     </row>
     <row r="31" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1972,7 +1917,7 @@
     </row>
     <row r="32" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2007,7 +1952,7 @@
     </row>
     <row r="33" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2042,7 +1987,7 @@
     </row>
     <row r="34" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2077,7 +2022,7 @@
     </row>
     <row r="35" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2112,7 +2057,7 @@
     </row>
     <row r="36" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2147,7 +2092,7 @@
     </row>
     <row r="37" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2182,7 +2127,7 @@
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2217,7 +2162,7 @@
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2252,7 +2197,7 @@
     </row>
     <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2287,7 +2232,7 @@
     </row>
     <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2322,7 +2267,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2357,7 +2302,7 @@
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2392,7 +2337,7 @@
     </row>
     <row r="44" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2427,7 +2372,7 @@
     </row>
     <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2462,7 +2407,7 @@
     </row>
     <row r="46" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2497,7 +2442,7 @@
     </row>
     <row r="47" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2532,7 +2477,7 @@
     </row>
     <row r="48" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -2567,7 +2512,7 @@
     </row>
     <row r="49" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2602,7 +2547,7 @@
     </row>
     <row r="50" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -2637,7 +2582,7 @@
     </row>
     <row r="51" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -2672,7 +2617,7 @@
     </row>
     <row r="52" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2707,7 +2652,7 @@
     </row>
     <row r="53" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2742,7 +2687,7 @@
     </row>
     <row r="54" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -2777,7 +2722,7 @@
     </row>
     <row r="55" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -2812,7 +2757,7 @@
     </row>
     <row r="56" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2847,7 +2792,7 @@
     </row>
     <row r="57" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2882,7 +2827,7 @@
     </row>
     <row r="58" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2917,7 +2862,7 @@
     </row>
     <row r="59" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2952,7 +2897,7 @@
     </row>
     <row r="60" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2987,7 +2932,7 @@
     </row>
     <row r="61" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -3022,7 +2967,7 @@
     </row>
     <row r="62" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -3057,7 +3002,7 @@
     </row>
     <row r="63" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -3092,7 +3037,7 @@
     </row>
     <row r="64" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -3127,7 +3072,7 @@
     </row>
     <row r="65" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -3162,7 +3107,7 @@
     </row>
     <row r="66" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -3197,7 +3142,7 @@
     </row>
     <row r="67" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -3232,7 +3177,7 @@
     </row>
     <row r="68" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -3267,7 +3212,7 @@
     </row>
     <row r="69" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -3302,7 +3247,7 @@
     </row>
     <row r="70" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -3337,7 +3282,7 @@
     </row>
     <row r="71" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -3372,7 +3317,7 @@
     </row>
     <row r="72" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -3407,7 +3352,7 @@
     </row>
     <row r="73" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -3442,7 +3387,7 @@
     </row>
     <row r="74" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -3477,7 +3422,7 @@
     </row>
     <row r="75" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -3512,7 +3457,7 @@
     </row>
     <row r="76" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -3547,7 +3492,7 @@
     </row>
     <row r="77" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -3582,7 +3527,7 @@
     </row>
     <row r="78" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -3617,7 +3562,7 @@
     </row>
     <row r="79" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -3652,7 +3597,7 @@
     </row>
     <row r="80" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -3687,7 +3632,7 @@
     </row>
     <row r="81" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -3722,7 +3667,7 @@
     </row>
     <row r="82" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -3757,7 +3702,7 @@
     </row>
     <row r="83" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -3792,7 +3737,7 @@
     </row>
     <row r="84" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -3827,7 +3772,7 @@
     </row>
     <row r="85" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -3862,7 +3807,7 @@
     </row>
     <row r="86" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -3897,7 +3842,7 @@
     </row>
     <row r="87" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -3932,7 +3877,7 @@
     </row>
     <row r="88" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -3967,7 +3912,7 @@
     </row>
     <row r="89" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -4002,7 +3947,7 @@
     </row>
     <row r="90" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -4037,7 +3982,7 @@
     </row>
     <row r="91" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -4072,7 +4017,7 @@
     </row>
     <row r="92" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -4107,7 +4052,7 @@
     </row>
     <row r="93" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -4142,7 +4087,7 @@
     </row>
     <row r="94" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -4177,7 +4122,7 @@
     </row>
     <row r="95" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -4212,7 +4157,7 @@
     </row>
     <row r="96" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -4247,7 +4192,7 @@
     </row>
     <row r="97" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -4282,7 +4227,7 @@
     </row>
     <row r="98" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -4317,7 +4262,7 @@
     </row>
     <row r="99" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -4352,7 +4297,7 @@
     </row>
     <row r="100" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -4387,7 +4332,7 @@
     </row>
     <row r="101" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -4422,7 +4367,7 @@
     </row>
     <row r="102" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -4457,7 +4402,7 @@
     </row>
     <row r="103" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -4492,7 +4437,7 @@
     </row>
     <row r="104" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -4527,7 +4472,7 @@
     </row>
     <row r="105" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -4562,7 +4507,7 @@
     </row>
     <row r="106" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -4597,7 +4542,7 @@
     </row>
     <row r="107" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -4632,7 +4577,7 @@
     </row>
     <row r="108" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -4667,7 +4612,7 @@
     </row>
     <row r="109" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -4702,7 +4647,7 @@
     </row>
     <row r="110" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -4737,7 +4682,7 @@
     </row>
     <row r="111" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -4772,7 +4717,7 @@
     </row>
     <row r="112" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -4807,7 +4752,7 @@
     </row>
     <row r="113" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -4842,7 +4787,7 @@
     </row>
     <row r="114" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -4877,7 +4822,7 @@
     </row>
     <row r="115" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -4912,7 +4857,7 @@
     </row>
     <row r="116" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -4947,7 +4892,7 @@
     </row>
     <row r="117" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -4982,7 +4927,7 @@
     </row>
     <row r="118" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -5017,7 +4962,7 @@
     </row>
     <row r="119" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -5052,7 +4997,7 @@
     </row>
     <row r="120" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -5087,7 +5032,7 @@
     </row>
     <row r="121" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -5122,7 +5067,7 @@
     </row>
     <row r="122" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -5157,7 +5102,7 @@
     </row>
     <row r="123" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -5192,7 +5137,7 @@
     </row>
     <row r="124" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -5227,7 +5172,7 @@
     </row>
     <row r="125" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -5262,7 +5207,7 @@
     </row>
     <row r="126" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -5297,7 +5242,7 @@
     </row>
     <row r="127" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -5332,7 +5277,7 @@
     </row>
     <row r="128" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -5367,7 +5312,7 @@
     </row>
     <row r="129" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -5402,7 +5347,7 @@
     </row>
     <row r="130" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -5437,7 +5382,7 @@
     </row>
     <row r="131" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -5472,7 +5417,7 @@
     </row>
     <row r="132" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -5507,7 +5452,7 @@
     </row>
     <row r="133" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -5542,7 +5487,7 @@
     </row>
     <row r="134" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -5577,7 +5522,7 @@
     </row>
     <row r="135" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -5612,7 +5557,7 @@
     </row>
     <row r="136" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -5647,7 +5592,7 @@
     </row>
     <row r="137" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -5682,7 +5627,7 @@
     </row>
     <row r="138" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -5717,7 +5662,7 @@
     </row>
     <row r="139" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -5752,7 +5697,7 @@
     </row>
     <row r="140" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -5787,7 +5732,7 @@
     </row>
     <row r="141" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -5822,7 +5767,7 @@
     </row>
     <row r="142" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -5857,7 +5802,7 @@
     </row>
     <row r="143" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -5892,7 +5837,7 @@
     </row>
     <row r="144" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -5927,7 +5872,7 @@
     </row>
     <row r="145" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -5962,7 +5907,7 @@
     </row>
     <row r="146" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -5997,7 +5942,7 @@
     </row>
     <row r="147" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -6032,7 +5977,7 @@
     </row>
     <row r="148" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -6067,7 +6012,7 @@
     </row>
     <row r="149" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -6102,7 +6047,7 @@
     </row>
     <row r="150" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -6137,7 +6082,7 @@
     </row>
     <row r="151" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -6172,7 +6117,7 @@
     </row>
     <row r="152" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -6207,7 +6152,7 @@
     </row>
     <row r="153" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -6242,7 +6187,7 @@
     </row>
     <row r="154" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -6277,7 +6222,7 @@
     </row>
     <row r="155" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -6312,7 +6257,7 @@
     </row>
     <row r="156" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -6347,7 +6292,7 @@
     </row>
     <row r="157" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -6382,7 +6327,7 @@
     </row>
     <row r="158" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -6417,7 +6362,7 @@
     </row>
     <row r="159" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -6452,7 +6397,7 @@
     </row>
     <row r="160" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -6487,7 +6432,7 @@
     </row>
     <row r="161" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -6522,7 +6467,7 @@
     </row>
     <row r="162" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -6557,7 +6502,7 @@
     </row>
     <row r="163" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -6592,7 +6537,7 @@
     </row>
     <row r="164" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -6627,7 +6572,7 @@
     </row>
     <row r="165" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -6662,7 +6607,7 @@
     </row>
     <row r="166" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -6697,7 +6642,7 @@
     </row>
     <row r="167" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -6732,7 +6677,7 @@
     </row>
     <row r="168" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -6767,7 +6712,7 @@
     </row>
     <row r="169" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -6802,7 +6747,7 @@
     </row>
     <row r="170" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -6837,7 +6782,7 @@
     </row>
     <row r="171" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -6872,7 +6817,7 @@
     </row>
     <row r="172" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -6907,7 +6852,7 @@
     </row>
     <row r="173" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -6942,7 +6887,7 @@
     </row>
     <row r="174" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -6977,7 +6922,7 @@
     </row>
     <row r="175" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -7012,7 +6957,7 @@
     </row>
     <row r="176" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -7047,7 +6992,7 @@
     </row>
     <row r="177" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -7082,7 +7027,7 @@
     </row>
     <row r="178" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -7117,7 +7062,7 @@
     </row>
     <row r="179" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -7152,7 +7097,7 @@
     </row>
     <row r="180" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -7187,7 +7132,7 @@
     </row>
     <row r="181" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -7222,7 +7167,7 @@
     </row>
     <row r="182" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -7257,7 +7202,7 @@
     </row>
     <row r="183" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -7292,7 +7237,7 @@
     </row>
     <row r="184" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -7327,7 +7272,7 @@
     </row>
     <row r="185" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -7362,7 +7307,7 @@
     </row>
     <row r="186" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -7397,7 +7342,7 @@
     </row>
     <row r="187" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -7432,7 +7377,7 @@
     </row>
     <row r="188" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -7467,7 +7412,7 @@
     </row>
     <row r="189" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -7502,7 +7447,7 @@
     </row>
     <row r="190" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -7537,7 +7482,7 @@
     </row>
     <row r="191" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -7572,7 +7517,7 @@
     </row>
     <row r="192" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -7607,7 +7552,7 @@
     </row>
     <row r="193" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -7642,7 +7587,7 @@
     </row>
     <row r="194" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -7677,7 +7622,7 @@
     </row>
     <row r="195" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -7712,7 +7657,7 @@
     </row>
     <row r="196" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -7747,7 +7692,7 @@
     </row>
     <row r="197" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -7782,7 +7727,7 @@
     </row>
     <row r="198" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -7817,7 +7762,7 @@
     </row>
     <row r="199" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -7852,7 +7797,7 @@
     </row>
     <row r="200" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -7887,7 +7832,7 @@
     </row>
     <row r="201" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -7922,7 +7867,7 @@
     </row>
     <row r="202" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -7957,7 +7902,7 @@
     </row>
     <row r="203" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -7991,20 +7936,18 @@
       <c r="AE203" s="1"/>
     </row>
     <row r="204" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="12">
-        <v>199</v>
-      </c>
-      <c r="B204" s="13"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="44"/>
-      <c r="E204" s="47"/>
-      <c r="F204" s="45"/>
-      <c r="G204" s="13"/>
-      <c r="H204" s="45"/>
-      <c r="I204" s="45"/>
-      <c r="J204" s="45"/>
-      <c r="K204" s="46"/>
-      <c r="L204" s="45"/>
+      <c r="A204" s="2"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="2"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
@@ -8026,20 +7969,18 @@
       <c r="AE204" s="1"/>
     </row>
     <row r="205" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="12">
-        <v>200</v>
-      </c>
-      <c r="B205" s="13"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="44"/>
-      <c r="E205" s="47"/>
-      <c r="F205" s="45"/>
-      <c r="G205" s="13"/>
-      <c r="H205" s="45"/>
-      <c r="I205" s="45"/>
-      <c r="J205" s="45"/>
-      <c r="K205" s="46"/>
-      <c r="L205" s="45"/>
+      <c r="A205" s="2"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="2"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
@@ -30764,77 +30705,9 @@
       <c r="AD893" s="1"/>
       <c r="AE893" s="1"/>
     </row>
-    <row r="894" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="2"/>
-      <c r="B894" s="4"/>
-      <c r="C894" s="4"/>
-      <c r="D894" s="1"/>
-      <c r="E894" s="1"/>
-      <c r="F894" s="2"/>
-      <c r="G894" s="1"/>
-      <c r="H894" s="2"/>
-      <c r="I894" s="2"/>
-      <c r="J894" s="2"/>
-      <c r="K894" s="1"/>
-      <c r="L894" s="2"/>
-      <c r="M894" s="1"/>
-      <c r="N894" s="1"/>
-      <c r="O894" s="1"/>
-      <c r="P894" s="1"/>
-      <c r="Q894" s="1"/>
-      <c r="R894" s="1"/>
-      <c r="S894" s="1"/>
-      <c r="T894" s="1"/>
-      <c r="U894" s="1"/>
-      <c r="V894" s="1"/>
-      <c r="W894" s="1"/>
-      <c r="X894" s="1"/>
-      <c r="Y894" s="1"/>
-      <c r="Z894" s="1"/>
-      <c r="AA894" s="1"/>
-      <c r="AB894" s="1"/>
-      <c r="AC894" s="1"/>
-      <c r="AD894" s="1"/>
-      <c r="AE894" s="1"/>
-    </row>
-    <row r="895" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="2"/>
-      <c r="B895" s="4"/>
-      <c r="C895" s="4"/>
-      <c r="D895" s="1"/>
-      <c r="E895" s="1"/>
-      <c r="F895" s="2"/>
-      <c r="G895" s="1"/>
-      <c r="H895" s="2"/>
-      <c r="I895" s="2"/>
-      <c r="J895" s="2"/>
-      <c r="K895" s="1"/>
-      <c r="L895" s="2"/>
-      <c r="M895" s="1"/>
-      <c r="N895" s="1"/>
-      <c r="O895" s="1"/>
-      <c r="P895" s="1"/>
-      <c r="Q895" s="1"/>
-      <c r="R895" s="1"/>
-      <c r="S895" s="1"/>
-      <c r="T895" s="1"/>
-      <c r="U895" s="1"/>
-      <c r="V895" s="1"/>
-      <c r="W895" s="1"/>
-      <c r="X895" s="1"/>
-      <c r="Y895" s="1"/>
-      <c r="Z895" s="1"/>
-      <c r="AA895" s="1"/>
-      <c r="AB895" s="1"/>
-      <c r="AC895" s="1"/>
-      <c r="AD895" s="1"/>
-      <c r="AE895" s="1"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="3">
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A2:L2"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -30847,49 +30720,49 @@
           <x14:formula1>
             <xm:f>'Listas desplegables'!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E205</xm:sqref>
+          <xm:sqref>E4:E203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F9A8BBA-6C37-4833-96F6-428DD42D627C}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$E$2:$E$20</xm:f>
           </x14:formula1>
-          <xm:sqref>H6:H205</xm:sqref>
+          <xm:sqref>H4:H203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA06C3A4-E946-4C6B-B034-473610B3DD15}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I6:I205</xm:sqref>
+          <xm:sqref>I4:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9BA20F06-5620-47B7-A0AA-BB8327E421DD}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$G$2:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J205</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C340D81-9970-4523-AC59-99DEEB695C69}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F205</xm:sqref>
+          <xm:sqref>F4:F203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B531AFEB-D972-4B7C-8AE0-4B0D10FC8380}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$H$2:$H$9</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K205</xm:sqref>
+          <xm:sqref>K4:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD0E39A4-7FA7-4090-8F38-2364B6AFF0F8}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$I$2:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L205</xm:sqref>
+          <xm:sqref>L4:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B004884-15C2-44DD-97AD-70085EE57B89}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:G205</xm:sqref>
+          <xm:sqref>G4:G203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30899,12 +30772,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C8A9BA-FA18-42D7-917A-6ACE8A719343}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -30936,13 +30915,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>6</v>
@@ -30951,36 +30930,36 @@
         <v>7</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30991,7 +30970,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="16">
         <v>0.1</v>
@@ -31017,7 +30996,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="16">
         <v>0.5</v>
@@ -31043,7 +31022,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
@@ -31060,7 +31039,7 @@
     </row>
     <row r="6" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="16">
         <v>1.5</v>
@@ -31074,7 +31053,7 @@
     </row>
     <row r="7" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="16">
         <v>2</v>

--- a/public/DownloadExcels/Servicios.xlsx
+++ b/public/DownloadExcels/Servicios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E368475-0C58-41F9-B318-2EAA5049A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B068D24-0F52-4D63-BBDF-825C58C11B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t xml:space="preserve">INVENTARIO DE SERVICIOS </t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t xml:space="preserve">9. Si prestas tu servicio como PERSONA NATURAL Y NO ESTAS OBLIGADO A COBRAR IVA, DEJA LA COLUMNA C EN BLANCO. </t>
+  </si>
+  <si>
+    <t>CB5XDF5B45</t>
+  </si>
+  <si>
+    <t>D5F4G8DF4B</t>
+  </si>
+  <si>
+    <t>ENSEÑANZA</t>
+  </si>
+  <si>
+    <t>CONDCC</t>
   </si>
 </sst>
 </file>
@@ -769,7 +781,7 @@
   <dimension ref="A1:AE893"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -939,17 +951,39 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="45"/>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="44">
+        <v>80000</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>29</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -974,17 +1008,39 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="45"/>
+      <c r="B5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="44">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>29</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -30720,49 +30776,49 @@
           <x14:formula1>
             <xm:f>'Listas desplegables'!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E203</xm:sqref>
+          <xm:sqref>E4:E203 F4:L5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F9A8BBA-6C37-4833-96F6-428DD42D627C}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$E$2:$E$20</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H203</xm:sqref>
+          <xm:sqref>H6:H203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA06C3A4-E946-4C6B-B034-473610B3DD15}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I203</xm:sqref>
+          <xm:sqref>I6:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9BA20F06-5620-47B7-A0AA-BB8327E421DD}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$G$2:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J203</xm:sqref>
+          <xm:sqref>J6:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C340D81-9970-4523-AC59-99DEEB695C69}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F203</xm:sqref>
+          <xm:sqref>F6:F203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B531AFEB-D972-4B7C-8AE0-4B0D10FC8380}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$H$2:$H$9</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K203</xm:sqref>
+          <xm:sqref>K6:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD0E39A4-7FA7-4090-8F38-2364B6AFF0F8}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$I$2:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:L203</xm:sqref>
+          <xm:sqref>L6:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B004884-15C2-44DD-97AD-70085EE57B89}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G203</xm:sqref>
+          <xm:sqref>G6:G203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/public/DownloadExcels/Servicios.xlsx
+++ b/public/DownloadExcels/Servicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B068D24-0F52-4D63-BBDF-825C58C11B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387F4C3-4F8B-4468-BFF5-B9F3923A5F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE SERVICIOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t xml:space="preserve">INVENTARIO DE SERVICIOS </t>
   </si>
@@ -176,18 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve">9. Si prestas tu servicio como PERSONA NATURAL Y NO ESTAS OBLIGADO A COBRAR IVA, DEJA LA COLUMNA C EN BLANCO. </t>
-  </si>
-  <si>
-    <t>CB5XDF5B45</t>
-  </si>
-  <si>
-    <t>D5F4G8DF4B</t>
-  </si>
-  <si>
-    <t>ENSEÑANZA</t>
-  </si>
-  <si>
-    <t>CONDCC</t>
   </si>
 </sst>
 </file>
@@ -781,7 +769,7 @@
   <dimension ref="A1:AE893"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -951,39 +939,17 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="44">
-        <v>80000</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>29</v>
-      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1008,39 +974,17 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="44">
-        <v>1000000</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>

--- a/public/DownloadExcels/Servicios.xlsx
+++ b/public/DownloadExcels/Servicios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://topdrive-my.sharepoint.com/personal/carlos_reyes_topdrivegroup_com/Documents/Escritorio/Carlos/Desarrollo/ecopFront-Desarrollo/public/DownloadExcels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387F4C3-4F8B-4468-BFF5-B9F3923A5F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E387F4C3-4F8B-4468-BFF5-B9F3923A5F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{667E02A4-1B29-4E1F-BDE5-B345C5CCEF2A}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE SERVICIOS" sheetId="1" r:id="rId1"/>
@@ -182,11 +182,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -362,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,20 +406,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,65 +421,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,6 +440,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,7 +770,7 @@
   <dimension ref="A1:AE893"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -779,30 +780,30 @@
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="17" customWidth="1"/>
-    <col min="9" max="10" width="22.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="16" customWidth="1"/>
+    <col min="9" max="10" width="22.7109375" style="16" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" style="16" customWidth="1"/>
     <col min="13" max="31" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -941,15 +942,15 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -976,15 +977,15 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1011,15 +1012,15 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="45"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1046,15 +1047,15 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="45"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1081,15 +1082,15 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1116,15 +1117,15 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="45"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1151,15 +1152,15 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="45"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1186,15 +1187,15 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="45"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1221,15 +1222,15 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="45"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1256,15 +1257,15 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="45"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1291,15 +1292,15 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="45"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1326,15 +1327,15 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="45"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1361,15 +1362,15 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="45"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1396,15 +1397,15 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="45"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1431,15 +1432,15 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="45"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1466,15 +1467,15 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="45"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1501,15 +1502,15 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="45"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1536,15 +1537,15 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="45"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1571,15 +1572,15 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="45"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1606,15 +1607,15 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="45"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1641,15 +1642,15 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="45"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1676,15 +1677,15 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="45"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1711,15 +1712,15 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="45"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1746,15 +1747,15 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="45"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1781,15 +1782,15 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="45"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1816,15 +1817,15 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="45"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1851,15 +1852,15 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="45"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -1886,15 +1887,15 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="45"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -1921,15 +1922,15 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="45"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -1956,15 +1957,15 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="45"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -1991,15 +1992,15 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="45"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2026,15 +2027,15 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="45"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2061,15 +2062,15 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="45"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2096,15 +2097,15 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="45"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2131,15 +2132,15 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="45"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2166,15 +2167,15 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="45"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2201,15 +2202,15 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="45"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2236,15 +2237,15 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="45"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2271,15 +2272,15 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="45"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2306,15 +2307,15 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="45"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2341,15 +2342,15 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="45"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2376,15 +2377,15 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="45"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2411,15 +2412,15 @@
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="45"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -2446,15 +2447,15 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="45"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -2481,15 +2482,15 @@
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="45"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -2516,15 +2517,15 @@
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="45"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -2551,15 +2552,15 @@
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="45"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -2586,15 +2587,15 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="45"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -2621,15 +2622,15 @@
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="45"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -2656,15 +2657,15 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="45"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -2691,15 +2692,15 @@
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="45"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -2726,15 +2727,15 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="45"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -2761,15 +2762,15 @@
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="45"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -2796,15 +2797,15 @@
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="45"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -2831,15 +2832,15 @@
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="45"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -2866,15 +2867,15 @@
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="45"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -2901,15 +2902,15 @@
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="45"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -2936,15 +2937,15 @@
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="45"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -2971,15 +2972,15 @@
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="45"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -3006,15 +3007,15 @@
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="45"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -3041,15 +3042,15 @@
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="45"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -3076,15 +3077,15 @@
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="45"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -3111,15 +3112,15 @@
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="45"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -3146,15 +3147,15 @@
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="45"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -3181,15 +3182,15 @@
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="45"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -3216,15 +3217,15 @@
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="45"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -3251,15 +3252,15 @@
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="45"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -3286,15 +3287,15 @@
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="45"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -3321,15 +3322,15 @@
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="45"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -3356,15 +3357,15 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="45"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -3391,15 +3392,15 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="45"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -3426,15 +3427,15 @@
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="45"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -3461,15 +3462,15 @@
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="45"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -3496,15 +3497,15 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="45"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -3531,15 +3532,15 @@
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="45"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -3566,15 +3567,15 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="45"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -3601,15 +3602,15 @@
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="45"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -3636,15 +3637,15 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="45"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -3671,15 +3672,15 @@
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="45"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -3706,15 +3707,15 @@
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="45"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -3741,15 +3742,15 @@
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="45"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -3776,15 +3777,15 @@
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="45"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -3811,15 +3812,15 @@
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="45"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -3846,15 +3847,15 @@
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="45"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -3881,15 +3882,15 @@
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="45"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -3916,15 +3917,15 @@
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="45"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="45"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -3951,15 +3952,15 @@
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="45"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -3986,15 +3987,15 @@
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="45"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -4021,15 +4022,15 @@
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="45"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -4056,15 +4057,15 @@
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="46"/>
-      <c r="L93" s="45"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -4091,15 +4092,15 @@
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="45"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="45"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -4126,15 +4127,15 @@
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="45"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -4161,15 +4162,15 @@
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="45"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -4196,15 +4197,15 @@
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="45"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -4231,15 +4232,15 @@
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="45"/>
-      <c r="K98" s="46"/>
-      <c r="L98" s="45"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -4266,15 +4267,15 @@
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="46"/>
-      <c r="L99" s="45"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -4301,15 +4302,15 @@
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="46"/>
-      <c r="L100" s="45"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -4336,15 +4337,15 @@
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="46"/>
-      <c r="L101" s="45"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -4371,15 +4372,15 @@
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="46"/>
-      <c r="L102" s="45"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -4406,15 +4407,15 @@
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="45"/>
-      <c r="K103" s="46"/>
-      <c r="L103" s="45"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -4441,15 +4442,15 @@
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="45"/>
-      <c r="K104" s="46"/>
-      <c r="L104" s="45"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -4476,15 +4477,15 @@
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="45"/>
-      <c r="K105" s="46"/>
-      <c r="L105" s="45"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -4511,15 +4512,15 @@
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="45"/>
-      <c r="K106" s="46"/>
-      <c r="L106" s="45"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -4546,15 +4547,15 @@
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="45"/>
-      <c r="K107" s="46"/>
-      <c r="L107" s="45"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -4581,15 +4582,15 @@
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="45"/>
-      <c r="K108" s="46"/>
-      <c r="L108" s="45"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -4616,15 +4617,15 @@
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
-      <c r="J109" s="45"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="45"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -4651,15 +4652,15 @@
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="46"/>
-      <c r="L110" s="45"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -4686,15 +4687,15 @@
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
-      <c r="K111" s="46"/>
-      <c r="L111" s="45"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -4721,15 +4722,15 @@
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
-      <c r="K112" s="46"/>
-      <c r="L112" s="45"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -4756,15 +4757,15 @@
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="46"/>
-      <c r="L113" s="45"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -4791,15 +4792,15 @@
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="46"/>
-      <c r="L114" s="45"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -4826,15 +4827,15 @@
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="46"/>
-      <c r="L115" s="45"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
@@ -4861,15 +4862,15 @@
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="45"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="45"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -4896,15 +4897,15 @@
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="45"/>
-      <c r="K117" s="46"/>
-      <c r="L117" s="45"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -4931,15 +4932,15 @@
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="45"/>
-      <c r="I118" s="45"/>
-      <c r="J118" s="45"/>
-      <c r="K118" s="46"/>
-      <c r="L118" s="45"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -4966,15 +4967,15 @@
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="45"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="45"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -5001,15 +5002,15 @@
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="47"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="45"/>
-      <c r="J120" s="45"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="45"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -5036,15 +5037,15 @@
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="45"/>
-      <c r="J121" s="45"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="45"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -5071,15 +5072,15 @@
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="45"/>
-      <c r="J122" s="45"/>
-      <c r="K122" s="46"/>
-      <c r="L122" s="45"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -5106,15 +5107,15 @@
       </c>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="45"/>
-      <c r="K123" s="46"/>
-      <c r="L123" s="45"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -5141,15 +5142,15 @@
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="45"/>
-      <c r="K124" s="46"/>
-      <c r="L124" s="45"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -5176,15 +5177,15 @@
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="45"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="46"/>
-      <c r="L125" s="45"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -5211,15 +5212,15 @@
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="45"/>
-      <c r="I126" s="45"/>
-      <c r="J126" s="45"/>
-      <c r="K126" s="46"/>
-      <c r="L126" s="45"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -5246,15 +5247,15 @@
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="45"/>
-      <c r="I127" s="45"/>
-      <c r="J127" s="45"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="45"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -5281,15 +5282,15 @@
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="45"/>
-      <c r="I128" s="45"/>
-      <c r="J128" s="45"/>
-      <c r="K128" s="46"/>
-      <c r="L128" s="45"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -5316,15 +5317,15 @@
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="45"/>
-      <c r="I129" s="45"/>
-      <c r="J129" s="45"/>
-      <c r="K129" s="46"/>
-      <c r="L129" s="45"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -5351,15 +5352,15 @@
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="47"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="45"/>
-      <c r="K130" s="46"/>
-      <c r="L130" s="45"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -5386,15 +5387,15 @@
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="45"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="45"/>
-      <c r="I131" s="45"/>
-      <c r="J131" s="45"/>
-      <c r="K131" s="46"/>
-      <c r="L131" s="45"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -5421,15 +5422,15 @@
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="45"/>
-      <c r="I132" s="45"/>
-      <c r="J132" s="45"/>
-      <c r="K132" s="46"/>
-      <c r="L132" s="45"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -5456,15 +5457,15 @@
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="45"/>
-      <c r="I133" s="45"/>
-      <c r="J133" s="45"/>
-      <c r="K133" s="46"/>
-      <c r="L133" s="45"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -5491,15 +5492,15 @@
       </c>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="45"/>
-      <c r="I134" s="45"/>
-      <c r="J134" s="45"/>
-      <c r="K134" s="46"/>
-      <c r="L134" s="45"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -5526,15 +5527,15 @@
       </c>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="47"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="45"/>
-      <c r="I135" s="45"/>
-      <c r="J135" s="45"/>
-      <c r="K135" s="46"/>
-      <c r="L135" s="45"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -5561,15 +5562,15 @@
       </c>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="45"/>
-      <c r="I136" s="45"/>
-      <c r="J136" s="45"/>
-      <c r="K136" s="46"/>
-      <c r="L136" s="45"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -5596,15 +5597,15 @@
       </c>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="45"/>
-      <c r="I137" s="45"/>
-      <c r="J137" s="45"/>
-      <c r="K137" s="46"/>
-      <c r="L137" s="45"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -5631,15 +5632,15 @@
       </c>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="45"/>
-      <c r="I138" s="45"/>
-      <c r="J138" s="45"/>
-      <c r="K138" s="46"/>
-      <c r="L138" s="45"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -5666,15 +5667,15 @@
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="45"/>
-      <c r="I139" s="45"/>
-      <c r="J139" s="45"/>
-      <c r="K139" s="46"/>
-      <c r="L139" s="45"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -5701,15 +5702,15 @@
       </c>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
-      <c r="D140" s="44"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="45"/>
-      <c r="J140" s="45"/>
-      <c r="K140" s="46"/>
-      <c r="L140" s="45"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -5736,15 +5737,15 @@
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="45"/>
-      <c r="I141" s="45"/>
-      <c r="J141" s="45"/>
-      <c r="K141" s="46"/>
-      <c r="L141" s="45"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -5771,15 +5772,15 @@
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
-      <c r="D142" s="44"/>
-      <c r="E142" s="47"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="45"/>
-      <c r="I142" s="45"/>
-      <c r="J142" s="45"/>
-      <c r="K142" s="46"/>
-      <c r="L142" s="45"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -5806,15 +5807,15 @@
       </c>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
-      <c r="D143" s="44"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="45"/>
-      <c r="I143" s="45"/>
-      <c r="J143" s="45"/>
-      <c r="K143" s="46"/>
-      <c r="L143" s="45"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -5841,15 +5842,15 @@
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="45"/>
-      <c r="I144" s="45"/>
-      <c r="J144" s="45"/>
-      <c r="K144" s="46"/>
-      <c r="L144" s="45"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="24"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -5876,15 +5877,15 @@
       </c>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="45"/>
-      <c r="I145" s="45"/>
-      <c r="J145" s="45"/>
-      <c r="K145" s="46"/>
-      <c r="L145" s="45"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -5911,15 +5912,15 @@
       </c>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="44"/>
-      <c r="E146" s="47"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="45"/>
-      <c r="I146" s="45"/>
-      <c r="J146" s="45"/>
-      <c r="K146" s="46"/>
-      <c r="L146" s="45"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -5946,15 +5947,15 @@
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
-      <c r="D147" s="44"/>
-      <c r="E147" s="47"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="45"/>
-      <c r="I147" s="45"/>
-      <c r="J147" s="45"/>
-      <c r="K147" s="46"/>
-      <c r="L147" s="45"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -5981,15 +5982,15 @@
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="47"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="45"/>
-      <c r="J148" s="45"/>
-      <c r="K148" s="46"/>
-      <c r="L148" s="45"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -6016,15 +6017,15 @@
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
-      <c r="D149" s="44"/>
-      <c r="E149" s="47"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="45"/>
-      <c r="J149" s="45"/>
-      <c r="K149" s="46"/>
-      <c r="L149" s="45"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -6051,15 +6052,15 @@
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
-      <c r="D150" s="44"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="45"/>
-      <c r="J150" s="45"/>
-      <c r="K150" s="46"/>
-      <c r="L150" s="45"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
@@ -6086,15 +6087,15 @@
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
-      <c r="D151" s="44"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="45"/>
-      <c r="I151" s="45"/>
-      <c r="J151" s="45"/>
-      <c r="K151" s="46"/>
-      <c r="L151" s="45"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="24"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -6121,15 +6122,15 @@
       </c>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
-      <c r="D152" s="44"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="45"/>
-      <c r="I152" s="45"/>
-      <c r="J152" s="45"/>
-      <c r="K152" s="46"/>
-      <c r="L152" s="45"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="24"/>
+      <c r="J152" s="24"/>
+      <c r="K152" s="24"/>
+      <c r="L152" s="24"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
@@ -6156,15 +6157,15 @@
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
-      <c r="D153" s="44"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="45"/>
-      <c r="I153" s="45"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="46"/>
-      <c r="L153" s="45"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
@@ -6191,15 +6192,15 @@
       </c>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
-      <c r="D154" s="44"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="45"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="45"/>
-      <c r="I154" s="45"/>
-      <c r="J154" s="45"/>
-      <c r="K154" s="46"/>
-      <c r="L154" s="45"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="24"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
@@ -6226,15 +6227,15 @@
       </c>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
-      <c r="D155" s="44"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="45"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="45"/>
-      <c r="I155" s="45"/>
-      <c r="J155" s="45"/>
-      <c r="K155" s="46"/>
-      <c r="L155" s="45"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="24"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
@@ -6261,15 +6262,15 @@
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
-      <c r="D156" s="44"/>
-      <c r="E156" s="47"/>
-      <c r="F156" s="45"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="45"/>
-      <c r="I156" s="45"/>
-      <c r="J156" s="45"/>
-      <c r="K156" s="46"/>
-      <c r="L156" s="45"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="24"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
@@ -6296,15 +6297,15 @@
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
-      <c r="D157" s="44"/>
-      <c r="E157" s="47"/>
-      <c r="F157" s="45"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="45"/>
-      <c r="I157" s="45"/>
-      <c r="J157" s="45"/>
-      <c r="K157" s="46"/>
-      <c r="L157" s="45"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
@@ -6331,15 +6332,15 @@
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
-      <c r="D158" s="44"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="45"/>
-      <c r="G158" s="13"/>
-      <c r="H158" s="45"/>
-      <c r="I158" s="45"/>
-      <c r="J158" s="45"/>
-      <c r="K158" s="46"/>
-      <c r="L158" s="45"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
@@ -6366,15 +6367,15 @@
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
-      <c r="D159" s="44"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="45"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="45"/>
-      <c r="I159" s="45"/>
-      <c r="J159" s="45"/>
-      <c r="K159" s="46"/>
-      <c r="L159" s="45"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="24"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="24"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
@@ -6401,15 +6402,15 @@
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
-      <c r="D160" s="44"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="45"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="45"/>
-      <c r="I160" s="45"/>
-      <c r="J160" s="45"/>
-      <c r="K160" s="46"/>
-      <c r="L160" s="45"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
@@ -6436,15 +6437,15 @@
       </c>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
-      <c r="D161" s="44"/>
-      <c r="E161" s="47"/>
-      <c r="F161" s="45"/>
-      <c r="G161" s="13"/>
-      <c r="H161" s="45"/>
-      <c r="I161" s="45"/>
-      <c r="J161" s="45"/>
-      <c r="K161" s="46"/>
-      <c r="L161" s="45"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
@@ -6471,15 +6472,15 @@
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
-      <c r="D162" s="44"/>
-      <c r="E162" s="47"/>
-      <c r="F162" s="45"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="45"/>
-      <c r="I162" s="45"/>
-      <c r="J162" s="45"/>
-      <c r="K162" s="46"/>
-      <c r="L162" s="45"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="24"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
@@ -6506,15 +6507,15 @@
       </c>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
-      <c r="D163" s="44"/>
-      <c r="E163" s="47"/>
-      <c r="F163" s="45"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="45"/>
-      <c r="I163" s="45"/>
-      <c r="J163" s="45"/>
-      <c r="K163" s="46"/>
-      <c r="L163" s="45"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
@@ -6541,15 +6542,15 @@
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
-      <c r="D164" s="44"/>
-      <c r="E164" s="47"/>
-      <c r="F164" s="45"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="45"/>
-      <c r="I164" s="45"/>
-      <c r="J164" s="45"/>
-      <c r="K164" s="46"/>
-      <c r="L164" s="45"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="25"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="24"/>
+      <c r="I164" s="24"/>
+      <c r="J164" s="24"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="24"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
@@ -6576,15 +6577,15 @@
       </c>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
-      <c r="D165" s="44"/>
-      <c r="E165" s="47"/>
-      <c r="F165" s="45"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="45"/>
-      <c r="I165" s="45"/>
-      <c r="J165" s="45"/>
-      <c r="K165" s="46"/>
-      <c r="L165" s="45"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
@@ -6611,15 +6612,15 @@
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
-      <c r="D166" s="44"/>
-      <c r="E166" s="47"/>
-      <c r="F166" s="45"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="45"/>
-      <c r="I166" s="45"/>
-      <c r="J166" s="45"/>
-      <c r="K166" s="46"/>
-      <c r="L166" s="45"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="24"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
@@ -6646,15 +6647,15 @@
       </c>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
-      <c r="D167" s="44"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="45"/>
-      <c r="G167" s="13"/>
-      <c r="H167" s="45"/>
-      <c r="I167" s="45"/>
-      <c r="J167" s="45"/>
-      <c r="K167" s="46"/>
-      <c r="L167" s="45"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
@@ -6681,15 +6682,15 @@
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="45"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="45"/>
-      <c r="I168" s="45"/>
-      <c r="J168" s="45"/>
-      <c r="K168" s="46"/>
-      <c r="L168" s="45"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="24"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
@@ -6716,15 +6717,15 @@
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
-      <c r="D169" s="44"/>
-      <c r="E169" s="47"/>
-      <c r="F169" s="45"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="45"/>
-      <c r="I169" s="45"/>
-      <c r="J169" s="45"/>
-      <c r="K169" s="46"/>
-      <c r="L169" s="45"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="24"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
@@ -6751,15 +6752,15 @@
       </c>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
-      <c r="D170" s="44"/>
-      <c r="E170" s="47"/>
-      <c r="F170" s="45"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="45"/>
-      <c r="I170" s="45"/>
-      <c r="J170" s="45"/>
-      <c r="K170" s="46"/>
-      <c r="L170" s="45"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="25"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="24"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
@@ -6786,15 +6787,15 @@
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
-      <c r="D171" s="44"/>
-      <c r="E171" s="47"/>
-      <c r="F171" s="45"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="45"/>
-      <c r="I171" s="45"/>
-      <c r="J171" s="45"/>
-      <c r="K171" s="46"/>
-      <c r="L171" s="45"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="24"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
@@ -6821,15 +6822,15 @@
       </c>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
-      <c r="D172" s="44"/>
-      <c r="E172" s="47"/>
-      <c r="F172" s="45"/>
-      <c r="G172" s="13"/>
-      <c r="H172" s="45"/>
-      <c r="I172" s="45"/>
-      <c r="J172" s="45"/>
-      <c r="K172" s="46"/>
-      <c r="L172" s="45"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
@@ -6856,15 +6857,15 @@
       </c>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
-      <c r="D173" s="44"/>
-      <c r="E173" s="47"/>
-      <c r="F173" s="45"/>
-      <c r="G173" s="13"/>
-      <c r="H173" s="45"/>
-      <c r="I173" s="45"/>
-      <c r="J173" s="45"/>
-      <c r="K173" s="46"/>
-      <c r="L173" s="45"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
@@ -6891,15 +6892,15 @@
       </c>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
-      <c r="D174" s="44"/>
-      <c r="E174" s="47"/>
-      <c r="F174" s="45"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="45"/>
-      <c r="I174" s="45"/>
-      <c r="J174" s="45"/>
-      <c r="K174" s="46"/>
-      <c r="L174" s="45"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
@@ -6926,15 +6927,15 @@
       </c>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
-      <c r="D175" s="44"/>
-      <c r="E175" s="47"/>
-      <c r="F175" s="45"/>
-      <c r="G175" s="13"/>
-      <c r="H175" s="45"/>
-      <c r="I175" s="45"/>
-      <c r="J175" s="45"/>
-      <c r="K175" s="46"/>
-      <c r="L175" s="45"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="24"/>
+      <c r="J175" s="24"/>
+      <c r="K175" s="24"/>
+      <c r="L175" s="24"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
@@ -6961,15 +6962,15 @@
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
-      <c r="D176" s="44"/>
-      <c r="E176" s="47"/>
-      <c r="F176" s="45"/>
-      <c r="G176" s="13"/>
-      <c r="H176" s="45"/>
-      <c r="I176" s="45"/>
-      <c r="J176" s="45"/>
-      <c r="K176" s="46"/>
-      <c r="L176" s="45"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="24"/>
+      <c r="J176" s="24"/>
+      <c r="K176" s="24"/>
+      <c r="L176" s="24"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
@@ -6996,15 +6997,15 @@
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
-      <c r="D177" s="44"/>
-      <c r="E177" s="47"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="13"/>
-      <c r="H177" s="45"/>
-      <c r="I177" s="45"/>
-      <c r="J177" s="45"/>
-      <c r="K177" s="46"/>
-      <c r="L177" s="45"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="24"/>
+      <c r="L177" s="24"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
@@ -7031,15 +7032,15 @@
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
-      <c r="D178" s="44"/>
-      <c r="E178" s="47"/>
-      <c r="F178" s="45"/>
-      <c r="G178" s="13"/>
-      <c r="H178" s="45"/>
-      <c r="I178" s="45"/>
-      <c r="J178" s="45"/>
-      <c r="K178" s="46"/>
-      <c r="L178" s="45"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="24"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
@@ -7066,15 +7067,15 @@
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
-      <c r="D179" s="44"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="13"/>
-      <c r="H179" s="45"/>
-      <c r="I179" s="45"/>
-      <c r="J179" s="45"/>
-      <c r="K179" s="46"/>
-      <c r="L179" s="45"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="24"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="24"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
@@ -7101,15 +7102,15 @@
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
-      <c r="D180" s="44"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="13"/>
-      <c r="H180" s="45"/>
-      <c r="I180" s="45"/>
-      <c r="J180" s="45"/>
-      <c r="K180" s="46"/>
-      <c r="L180" s="45"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="25"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="24"/>
+      <c r="J180" s="24"/>
+      <c r="K180" s="24"/>
+      <c r="L180" s="24"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
@@ -7136,15 +7137,15 @@
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
-      <c r="D181" s="44"/>
-      <c r="E181" s="47"/>
-      <c r="F181" s="45"/>
-      <c r="G181" s="13"/>
-      <c r="H181" s="45"/>
-      <c r="I181" s="45"/>
-      <c r="J181" s="45"/>
-      <c r="K181" s="46"/>
-      <c r="L181" s="45"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="25"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="24"/>
+      <c r="I181" s="24"/>
+      <c r="J181" s="24"/>
+      <c r="K181" s="24"/>
+      <c r="L181" s="24"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
@@ -7171,15 +7172,15 @@
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
-      <c r="D182" s="44"/>
-      <c r="E182" s="47"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="13"/>
-      <c r="H182" s="45"/>
-      <c r="I182" s="45"/>
-      <c r="J182" s="45"/>
-      <c r="K182" s="46"/>
-      <c r="L182" s="45"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
+      <c r="J182" s="24"/>
+      <c r="K182" s="24"/>
+      <c r="L182" s="24"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
@@ -7206,15 +7207,15 @@
       </c>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
-      <c r="D183" s="44"/>
-      <c r="E183" s="47"/>
-      <c r="F183" s="45"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="45"/>
-      <c r="I183" s="45"/>
-      <c r="J183" s="45"/>
-      <c r="K183" s="46"/>
-      <c r="L183" s="45"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
+      <c r="J183" s="24"/>
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
@@ -7241,15 +7242,15 @@
       </c>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
-      <c r="D184" s="44"/>
-      <c r="E184" s="47"/>
-      <c r="F184" s="45"/>
-      <c r="G184" s="13"/>
-      <c r="H184" s="45"/>
-      <c r="I184" s="45"/>
-      <c r="J184" s="45"/>
-      <c r="K184" s="46"/>
-      <c r="L184" s="45"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="24"/>
+      <c r="I184" s="24"/>
+      <c r="J184" s="24"/>
+      <c r="K184" s="24"/>
+      <c r="L184" s="24"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
@@ -7276,15 +7277,15 @@
       </c>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
-      <c r="D185" s="44"/>
-      <c r="E185" s="47"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="13"/>
-      <c r="H185" s="45"/>
-      <c r="I185" s="45"/>
-      <c r="J185" s="45"/>
-      <c r="K185" s="46"/>
-      <c r="L185" s="45"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="25"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="24"/>
+      <c r="I185" s="24"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
@@ -7311,15 +7312,15 @@
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
-      <c r="D186" s="44"/>
-      <c r="E186" s="47"/>
-      <c r="F186" s="45"/>
-      <c r="G186" s="13"/>
-      <c r="H186" s="45"/>
-      <c r="I186" s="45"/>
-      <c r="J186" s="45"/>
-      <c r="K186" s="46"/>
-      <c r="L186" s="45"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="25"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="24"/>
+      <c r="I186" s="24"/>
+      <c r="J186" s="24"/>
+      <c r="K186" s="24"/>
+      <c r="L186" s="24"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
@@ -7346,15 +7347,15 @@
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
-      <c r="D187" s="44"/>
-      <c r="E187" s="47"/>
-      <c r="F187" s="45"/>
-      <c r="G187" s="13"/>
-      <c r="H187" s="45"/>
-      <c r="I187" s="45"/>
-      <c r="J187" s="45"/>
-      <c r="K187" s="46"/>
-      <c r="L187" s="45"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="24"/>
+      <c r="J187" s="24"/>
+      <c r="K187" s="24"/>
+      <c r="L187" s="24"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
@@ -7381,15 +7382,15 @@
       </c>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
-      <c r="D188" s="44"/>
-      <c r="E188" s="47"/>
-      <c r="F188" s="45"/>
-      <c r="G188" s="13"/>
-      <c r="H188" s="45"/>
-      <c r="I188" s="45"/>
-      <c r="J188" s="45"/>
-      <c r="K188" s="46"/>
-      <c r="L188" s="45"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="25"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="24"/>
+      <c r="I188" s="24"/>
+      <c r="J188" s="24"/>
+      <c r="K188" s="24"/>
+      <c r="L188" s="24"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
@@ -7416,15 +7417,15 @@
       </c>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
-      <c r="D189" s="44"/>
-      <c r="E189" s="47"/>
-      <c r="F189" s="45"/>
-      <c r="G189" s="13"/>
-      <c r="H189" s="45"/>
-      <c r="I189" s="45"/>
-      <c r="J189" s="45"/>
-      <c r="K189" s="46"/>
-      <c r="L189" s="45"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="25"/>
+      <c r="F189" s="24"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="24"/>
+      <c r="I189" s="24"/>
+      <c r="J189" s="24"/>
+      <c r="K189" s="24"/>
+      <c r="L189" s="24"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
@@ -7451,15 +7452,15 @@
       </c>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
-      <c r="D190" s="44"/>
-      <c r="E190" s="47"/>
-      <c r="F190" s="45"/>
-      <c r="G190" s="13"/>
-      <c r="H190" s="45"/>
-      <c r="I190" s="45"/>
-      <c r="J190" s="45"/>
-      <c r="K190" s="46"/>
-      <c r="L190" s="45"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="25"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="24"/>
+      <c r="I190" s="24"/>
+      <c r="J190" s="24"/>
+      <c r="K190" s="24"/>
+      <c r="L190" s="24"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
@@ -7486,15 +7487,15 @@
       </c>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
-      <c r="D191" s="44"/>
-      <c r="E191" s="47"/>
-      <c r="F191" s="45"/>
-      <c r="G191" s="13"/>
-      <c r="H191" s="45"/>
-      <c r="I191" s="45"/>
-      <c r="J191" s="45"/>
-      <c r="K191" s="46"/>
-      <c r="L191" s="45"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="25"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
@@ -7521,15 +7522,15 @@
       </c>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
-      <c r="D192" s="44"/>
-      <c r="E192" s="47"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="13"/>
-      <c r="H192" s="45"/>
-      <c r="I192" s="45"/>
-      <c r="J192" s="45"/>
-      <c r="K192" s="46"/>
-      <c r="L192" s="45"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="25"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="24"/>
+      <c r="I192" s="24"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="24"/>
+      <c r="L192" s="24"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
@@ -7556,15 +7557,15 @@
       </c>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
-      <c r="D193" s="44"/>
-      <c r="E193" s="47"/>
-      <c r="F193" s="45"/>
-      <c r="G193" s="13"/>
-      <c r="H193" s="45"/>
-      <c r="I193" s="45"/>
-      <c r="J193" s="45"/>
-      <c r="K193" s="46"/>
-      <c r="L193" s="45"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="24"/>
+      <c r="H193" s="24"/>
+      <c r="I193" s="24"/>
+      <c r="J193" s="24"/>
+      <c r="K193" s="24"/>
+      <c r="L193" s="24"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
@@ -7591,15 +7592,15 @@
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
-      <c r="D194" s="44"/>
-      <c r="E194" s="47"/>
-      <c r="F194" s="45"/>
-      <c r="G194" s="13"/>
-      <c r="H194" s="45"/>
-      <c r="I194" s="45"/>
-      <c r="J194" s="45"/>
-      <c r="K194" s="46"/>
-      <c r="L194" s="45"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="24"/>
+      <c r="I194" s="24"/>
+      <c r="J194" s="24"/>
+      <c r="K194" s="24"/>
+      <c r="L194" s="24"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
@@ -7626,15 +7627,15 @@
       </c>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
-      <c r="D195" s="44"/>
-      <c r="E195" s="47"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="13"/>
-      <c r="H195" s="45"/>
-      <c r="I195" s="45"/>
-      <c r="J195" s="45"/>
-      <c r="K195" s="46"/>
-      <c r="L195" s="45"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="25"/>
+      <c r="F195" s="24"/>
+      <c r="G195" s="24"/>
+      <c r="H195" s="24"/>
+      <c r="I195" s="24"/>
+      <c r="J195" s="24"/>
+      <c r="K195" s="24"/>
+      <c r="L195" s="24"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
@@ -7661,15 +7662,15 @@
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
-      <c r="D196" s="44"/>
-      <c r="E196" s="47"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="13"/>
-      <c r="H196" s="45"/>
-      <c r="I196" s="45"/>
-      <c r="J196" s="45"/>
-      <c r="K196" s="46"/>
-      <c r="L196" s="45"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="24"/>
+      <c r="G196" s="24"/>
+      <c r="H196" s="24"/>
+      <c r="I196" s="24"/>
+      <c r="J196" s="24"/>
+      <c r="K196" s="24"/>
+      <c r="L196" s="24"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
@@ -7696,15 +7697,15 @@
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
-      <c r="D197" s="44"/>
-      <c r="E197" s="47"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="13"/>
-      <c r="H197" s="45"/>
-      <c r="I197" s="45"/>
-      <c r="J197" s="45"/>
-      <c r="K197" s="46"/>
-      <c r="L197" s="45"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="25"/>
+      <c r="F197" s="24"/>
+      <c r="G197" s="24"/>
+      <c r="H197" s="24"/>
+      <c r="I197" s="24"/>
+      <c r="J197" s="24"/>
+      <c r="K197" s="24"/>
+      <c r="L197" s="24"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
@@ -7731,15 +7732,15 @@
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
-      <c r="D198" s="44"/>
-      <c r="E198" s="47"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="13"/>
-      <c r="H198" s="45"/>
-      <c r="I198" s="45"/>
-      <c r="J198" s="45"/>
-      <c r="K198" s="46"/>
-      <c r="L198" s="45"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="25"/>
+      <c r="F198" s="24"/>
+      <c r="G198" s="24"/>
+      <c r="H198" s="24"/>
+      <c r="I198" s="24"/>
+      <c r="J198" s="24"/>
+      <c r="K198" s="24"/>
+      <c r="L198" s="24"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
@@ -7766,15 +7767,15 @@
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
-      <c r="D199" s="44"/>
-      <c r="E199" s="47"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="13"/>
-      <c r="H199" s="45"/>
-      <c r="I199" s="45"/>
-      <c r="J199" s="45"/>
-      <c r="K199" s="46"/>
-      <c r="L199" s="45"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="25"/>
+      <c r="F199" s="24"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="24"/>
+      <c r="I199" s="24"/>
+      <c r="J199" s="24"/>
+      <c r="K199" s="24"/>
+      <c r="L199" s="24"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
@@ -7801,15 +7802,15 @@
       </c>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
-      <c r="D200" s="44"/>
-      <c r="E200" s="47"/>
-      <c r="F200" s="45"/>
-      <c r="G200" s="13"/>
-      <c r="H200" s="45"/>
-      <c r="I200" s="45"/>
-      <c r="J200" s="45"/>
-      <c r="K200" s="46"/>
-      <c r="L200" s="45"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="25"/>
+      <c r="F200" s="24"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="24"/>
+      <c r="I200" s="24"/>
+      <c r="J200" s="24"/>
+      <c r="K200" s="24"/>
+      <c r="L200" s="24"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
@@ -7836,15 +7837,15 @@
       </c>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
-      <c r="D201" s="44"/>
-      <c r="E201" s="47"/>
-      <c r="F201" s="45"/>
-      <c r="G201" s="13"/>
-      <c r="H201" s="45"/>
-      <c r="I201" s="45"/>
-      <c r="J201" s="45"/>
-      <c r="K201" s="46"/>
-      <c r="L201" s="45"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="25"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="24"/>
+      <c r="I201" s="24"/>
+      <c r="J201" s="24"/>
+      <c r="K201" s="24"/>
+      <c r="L201" s="24"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
@@ -7871,15 +7872,15 @@
       </c>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
-      <c r="D202" s="44"/>
-      <c r="E202" s="47"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="13"/>
-      <c r="H202" s="45"/>
-      <c r="I202" s="45"/>
-      <c r="J202" s="45"/>
-      <c r="K202" s="46"/>
-      <c r="L202" s="45"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="25"/>
+      <c r="F202" s="24"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="24"/>
+      <c r="I202" s="24"/>
+      <c r="J202" s="24"/>
+      <c r="K202" s="24"/>
+      <c r="L202" s="24"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
@@ -7906,15 +7907,15 @@
       </c>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
-      <c r="D203" s="44"/>
-      <c r="E203" s="47"/>
-      <c r="F203" s="45"/>
-      <c r="G203" s="13"/>
-      <c r="H203" s="45"/>
-      <c r="I203" s="45"/>
-      <c r="J203" s="45"/>
-      <c r="K203" s="46"/>
-      <c r="L203" s="45"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="25"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
+      <c r="I203" s="24"/>
+      <c r="J203" s="24"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
@@ -30720,49 +30721,49 @@
           <x14:formula1>
             <xm:f>'Listas desplegables'!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E203 F4:L5</xm:sqref>
+          <xm:sqref>E4:E203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F9A8BBA-6C37-4833-96F6-428DD42D627C}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$E$2:$E$20</xm:f>
           </x14:formula1>
-          <xm:sqref>H6:H203</xm:sqref>
+          <xm:sqref>H4:H203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA06C3A4-E946-4C6B-B034-473610B3DD15}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I6:I203</xm:sqref>
+          <xm:sqref>I4:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9BA20F06-5620-47B7-A0AA-BB8327E421DD}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$G$2:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J203</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C340D81-9970-4523-AC59-99DEEB695C69}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F203</xm:sqref>
+          <xm:sqref>F4:F203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B531AFEB-D972-4B7C-8AE0-4B0D10FC8380}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$H$2:$H$9</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K203</xm:sqref>
+          <xm:sqref>K4:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD0E39A4-7FA7-4090-8F38-2364B6AFF0F8}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$I$2:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L203</xm:sqref>
+          <xm:sqref>L4:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B004884-15C2-44DD-97AD-70085EE57B89}">
           <x14:formula1>
             <xm:f>'Listas desplegables'!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:G203</xm:sqref>
+          <xm:sqref>G4:G203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30781,20 +30782,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -30892,41 +30893,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I999"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="18"/>
-    <col min="3" max="3" width="20" style="43" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="17"/>
+    <col min="3" max="3" width="20" style="41" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="44" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" style="17" customWidth="1"/>
-    <col min="10" max="26" width="10.7109375" customWidth="1"/>
+    <col min="10" max="26" width="10.7109375" style="28" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -30937,271 +30939,271 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>0</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="31">
         <v>4</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="33">
         <v>0.1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="34">
         <v>15</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="34">
         <v>2</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="35">
         <v>0</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>5</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="31">
         <v>8</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="33">
         <v>0.5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="34">
         <v>100</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="38">
         <v>3.4</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <v>18</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>19</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="31">
         <v>16</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="33">
         <v>1</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="38">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <v>28</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="33">
         <v>1.5</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="34">
         <v>5</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="33">
         <v>2</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="38">
         <v>6.9</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="16">
+      <c r="E8" s="33">
         <v>2.5</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="29">
+      <c r="F8" s="42"/>
+      <c r="G8" s="34">
         <v>8</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="16">
+      <c r="E9" s="33">
         <v>3</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="38">
         <v>9.66</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="16">
+      <c r="E10" s="33">
         <v>3.5</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="43">
         <v>11.04</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="16">
+      <c r="E11" s="33">
         <v>4</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="38">
         <v>13.8</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="16">
+      <c r="E12" s="33">
         <v>6</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="16">
+      <c r="E13" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="16">
+      <c r="E14" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="16">
+      <c r="E15" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="16">
+      <c r="E16" s="33">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="16">
+      <c r="E17" s="33">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="16">
+      <c r="E18" s="33">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="16">
+      <c r="E19" s="33">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="16">
+      <c r="E20" s="33">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="32"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="32"/>
-      <c r="G22" s="35"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="32"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="32"/>
-      <c r="G24" s="35"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="32"/>
-      <c r="G25" s="35"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="32"/>
-      <c r="G26" s="35"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="32"/>
-      <c r="G27" s="35"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="32"/>
-      <c r="G28" s="35"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="32"/>
-      <c r="G29" s="35"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="32"/>
-      <c r="G30" s="35"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="32"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="19"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="35"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
